--- a/tmp_trade.xlsx
+++ b/tmp_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="6">
   <si>
     <t>signal</t>
   </si>
@@ -25,13 +25,13 @@
     <t>net value</t>
   </si>
   <si>
-    <t>-11</t>
-  </si>
-  <si>
     <t>1-1</t>
   </si>
   <si>
     <t>00</t>
+  </si>
+  <si>
+    <t>-11</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,7114 +422,5560 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44544.39583333334</v>
+        <v>44544.43958333333</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.005252869952595884</v>
+        <v>-0.007691672853960774</v>
       </c>
       <c r="D3">
-        <v>-0.1295155756315012</v>
+        <v>-0.4224829806835046</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44544.39861111111</v>
+        <v>44544.625</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>-0.005163316008909846</v>
+        <v>-0.009720229596207774</v>
       </c>
       <c r="D4">
-        <v>2.506015104309064</v>
+        <v>-1.154785655274953</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44544.40138888889</v>
+        <v>44545.39722222222</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.002141241647152903</v>
+        <v>-0.01226962191837666</v>
       </c>
       <c r="D5">
-        <v>4.960675894799361</v>
+        <v>-1.578199390787596</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44544.40486111111</v>
+        <v>44545.46527777778</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.005682534696441865</v>
+        <v>-0.001425543244441441</v>
       </c>
       <c r="D6">
-        <v>4.534639016641847</v>
+        <v>1.584378286775604</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44544.625</v>
+        <v>44545.58333333334</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>-0.009720229596207774</v>
+        <v>0.007036890733161716</v>
       </c>
       <c r="D7">
-        <v>2.674750903714606</v>
+        <v>1.458713312927195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44545.39583333334</v>
+        <v>44545.58958333333</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-0.005281255592410217</v>
+        <v>0.002767648642153731</v>
       </c>
       <c r="D8">
-        <v>2.250003743833467</v>
+        <v>2.465237477860289</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44545.54652777778</v>
+        <v>44545.60486111111</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-0.0005942603702002724</v>
+        <v>0.007166086090794943</v>
       </c>
       <c r="D9">
-        <v>3.167530589598688</v>
+        <v>2.339821174739932</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44545.57638888889</v>
+        <v>44545.61736111111</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0.005381224694914644</v>
+        <v>0.001874982743420128</v>
       </c>
       <c r="D10">
-        <v>3.04191529806824</v>
+        <v>3.299265628231784</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44545.59236111111</v>
+        <v>44545.62013888889</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0.0007574663469299692</v>
+        <v>0.007190691599898713</v>
       </c>
       <c r="D11">
-        <v>4.095491268944944</v>
+        <v>3.173074912927198</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44545.60069444445</v>
+        <v>44545.625</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.005113791166530213</v>
+        <v>0.01163557317045549</v>
       </c>
       <c r="D12">
-        <v>3.969701224368428</v>
+        <v>1.375280797028207</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44545.625</v>
+        <v>44546.39652777778</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0.01163557317045549</v>
+        <v>-0.01040805618121599</v>
       </c>
       <c r="D13">
-        <v>1.35726074888549</v>
+        <v>0.9600876234769444</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44546.39583333334</v>
+        <v>44546.40486111111</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>-0.005796517694205083</v>
+        <v>-0.002914502944468267</v>
       </c>
       <c r="D14">
-        <v>0.9404723387814826</v>
+        <v>2.883392689153041</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>44546.40833333333</v>
+        <v>44546.42777777778</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>-0.0007731509996621311</v>
+        <v>-0.008085839638607761</v>
       </c>
       <c r="D15">
-        <v>1.671734159583849</v>
+        <v>2.470388282615133</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>44546.41388888889</v>
+        <v>44546.625</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>0.00614356819841666</v>
+        <v>-0.02028284477614983</v>
       </c>
       <c r="D16">
-        <v>1.547342633878081</v>
+        <v>-1.630391479643357</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>44546.41736111111</v>
+        <v>44547.40833333333</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17">
-        <v>-5.167946988104966E-05</v>
+        <v>0.0077023700676776</v>
       </c>
       <c r="D17">
-        <v>3.064749607726511</v>
+        <v>-1.754477770579484</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>44546.42430555556</v>
+        <v>44547.45347222222</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>-0.005454416281185481</v>
+        <v>0.002789468382308424</v>
       </c>
       <c r="D18">
-        <v>2.653699462109884</v>
+        <v>-0.639835396136806</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44546.625</v>
+        <v>44550.39583333334</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19">
-        <v>-0.02028284477614983</v>
+        <v>0.01018222798834778</v>
       </c>
       <c r="D19">
-        <v>-2.076964401188697</v>
+        <v>-0.7644919931650236</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44547.40347222222</v>
+        <v>44550.40347222222</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.005091235417289841</v>
+        <v>0.002375363766005556</v>
       </c>
       <c r="D20">
-        <v>-2.201965692719178</v>
+        <v>1.416380328677532</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44547.45763888889</v>
+        <v>44550.43541666667</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>0.0007385266531685364</v>
+        <v>-0.008640142788780114</v>
       </c>
       <c r="D21">
-        <v>-0.9490619780089177</v>
+        <v>1.005615146508127</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44547.54166666666</v>
+        <v>44550.44027777778</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>0.005884751700787505</v>
+        <v>-0.002269889769399125</v>
       </c>
       <c r="D22">
-        <v>-1.073219021991072</v>
+        <v>2.87670811619609</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44547.57222222222</v>
+        <v>44550.57013888889</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>0.0008973975471133766</v>
+        <v>-0.007205571180538883</v>
       </c>
       <c r="D23">
-        <v>-0.1457066297176739</v>
+        <v>2.46669755839519</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44550.39583333334</v>
+        <v>44550.59027777778</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>0.01018222798834778</v>
+        <v>-0.002071750492274371</v>
       </c>
       <c r="D24">
-        <v>-0.2703632267459</v>
+        <v>3.830643709955374</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44550.4125</v>
+        <v>44551.42430555556</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>0.0007817527689029102</v>
+        <v>-0.008534380280364684</v>
       </c>
       <c r="D25">
-        <v>2.750731542942065</v>
+        <v>3.425493992273367</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44550.42986111111</v>
+        <v>44551.625</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>-0.005300603493415434</v>
+        <v>-0.008450177893320365</v>
       </c>
       <c r="D26">
-        <v>2.342507539970278</v>
+        <v>3.355044244873675</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44550.46666666667</v>
+        <v>44552.58819444444</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>1.088090095946459E-05</v>
+        <v>-0.007136743227121656</v>
       </c>
       <c r="D27">
-        <v>3.929323456166387</v>
+        <v>2.932082403268929</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44550.54722222222</v>
+        <v>44552.60902777778</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.005398180951006193</v>
+        <v>-0.002537208844411998</v>
       </c>
       <c r="D28">
-        <v>3.52025522882613</v>
+        <v>4.170871229717659</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44550.61319444444</v>
+        <v>44552.61527777778</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>-0.0005751871481278759</v>
+        <v>-0.008261000498048565</v>
       </c>
       <c r="D29">
-        <v>4.733726624368497</v>
+        <v>3.746495445468021</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44550.62013888889</v>
+        <v>44552.625</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>-0.00522070558584975</v>
+        <v>-0.00650358478983537</v>
       </c>
       <c r="D30">
-        <v>4.326135339673101</v>
+        <v>3.882313870430933</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44550.625</v>
+        <v>44553.39652777778</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>0.001669732898227916</v>
+        <v>0.007839777552660965</v>
       </c>
       <c r="D31">
-        <v>6.465379881129326</v>
+        <v>3.756384636849965</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44551.39583333334</v>
+        <v>44553.40833333333</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>-0.005163513588804403</v>
+        <v>0.002433422682815323</v>
       </c>
       <c r="D32">
-        <v>6.058305714710293</v>
+        <v>4.882990787518684</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44551.39930555555</v>
+        <v>44553.46736111111</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33">
-        <v>-0.0003415610973874772</v>
+        <v>0.007161366957425974</v>
       </c>
       <c r="D33">
-        <v>7.408722992570586</v>
+        <v>4.757234589301738</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44551.41180555556</v>
+        <v>44553.47638888889</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>0.005357792478068668</v>
+        <v>0.002188434770395653</v>
       </c>
       <c r="D34">
-        <v>7.286592032095093</v>
+        <v>5.802153240118976</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44551.41597222222</v>
+        <v>44553.54375</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35">
-        <v>-0.0006852543813048451</v>
+        <v>0.007602388828625295</v>
       </c>
       <c r="D35">
-        <v>8.876839069242216</v>
+        <v>5.676240006537988</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44551.42430555556</v>
+        <v>44553.55902777778</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>-0.008534380280364684</v>
+        <v>0.002566780520019907</v>
       </c>
       <c r="D36">
-        <v>8.471689351560222</v>
+        <v>6.954947005052086</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44551.625</v>
+        <v>44554.40277777778</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37">
-        <v>-0.008450177893320365</v>
+        <v>0.01060016766718064</v>
       </c>
       <c r="D37">
-        <v>8.40123960416053</v>
+        <v>6.828866194650885</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44552.39583333334</v>
+        <v>44554.42013888889</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>-0.006008605812108492</v>
+        <v>0.00207787541729676</v>
       </c>
       <c r="D38">
-        <v>7.991589046359643</v>
+        <v>9.421139300148701</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44552.39791666667</v>
+        <v>44554.45138888889</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.001376582461748432</v>
+        <v>0.007331954071168822</v>
       </c>
       <c r="D39">
-        <v>9.83227847578013</v>
+        <v>9.297620243982273</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44552.40138888889</v>
+        <v>44554.45277777778</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>0.006985707170737987</v>
+        <v>0.001511082501234995</v>
       </c>
       <c r="D40">
-        <v>9.709195526300185</v>
+        <v>10.87503089895998</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>44552.41944444444</v>
+        <v>44554.62222222222</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>0.0005293790611209381</v>
+        <v>-0.007868201619784521</v>
       </c>
       <c r="D41">
-        <v>11.53898780534922</v>
+        <v>10.46106818276387</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44552.42916666667</v>
+        <v>44554.625</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>-0.005745508878001404</v>
+        <v>-0.00560247009685777</v>
       </c>
       <c r="D42">
-        <v>11.12783290490346</v>
+        <v>10.99985123566129</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>44552.44305555556</v>
+        <v>44557.40208333333</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.002681295388998972</v>
+        <v>-0.007017898456837868</v>
       </c>
       <c r="D43">
-        <v>13.97042187696892</v>
+        <v>10.58661853164942</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>44552.58194444444</v>
+        <v>44557.40347222222</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44">
-        <v>-0.005514437610757872</v>
+        <v>-0.0004695995683579035</v>
       </c>
       <c r="D44">
-        <v>13.54947889628544</v>
+        <v>12.56060383655283</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>44552.625</v>
+        <v>44557.41111111111</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>-0.00650358478983537</v>
+        <v>-0.007696952156231562</v>
       </c>
       <c r="D45">
-        <v>13.16729434948011</v>
+        <v>12.14085224368509</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44553.39583333334</v>
+        <v>44557.41527777778</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>0.005251487414871359</v>
+        <v>-0.002402380392403147</v>
       </c>
       <c r="D46">
-        <v>13.0407757037149</v>
+        <v>13.9618851114414</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>44553.42638888889</v>
+        <v>44557.43888888889</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>0.0001789679088934903</v>
+        <v>-0.00733655334085781</v>
       </c>
       <c r="D47">
-        <v>14.22297754918298</v>
+        <v>13.53935773937603</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44553.43125</v>
+        <v>44557.44097222222</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>0.005329941638950397</v>
+        <v>0.0008752243836573914</v>
       </c>
       <c r="D48">
-        <v>14.09677189182786</v>
+        <v>15.99743244962866</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>44553.44791666666</v>
+        <v>44557.47708333333</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>0.0006518926252311319</v>
+        <v>-0.008867960492940474</v>
       </c>
       <c r="D49">
-        <v>15.0831315797922</v>
+        <v>15.57458146537903</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44553.44861111111</v>
+        <v>44557.59861111111</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>0.005925454442223144</v>
+        <v>-0.001763345317578491</v>
       </c>
       <c r="D50">
-        <v>14.95694944011912</v>
+        <v>17.15694491827644</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>44553.55972222222</v>
+        <v>44557.61944444444</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>0.0004729396577228817</v>
+        <v>-0.007431003271290315</v>
       </c>
       <c r="D51">
-        <v>16.54551476998537</v>
+        <v>16.74056342288269</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44553.56666666667</v>
+        <v>44557.625</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>0.005079772054231158</v>
+        <v>-0.006593191465398274</v>
       </c>
       <c r="D52">
-        <v>16.42040811322457</v>
+        <v>16.87134943476978</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>44553.56736111111</v>
+        <v>44558.55902777778</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>0.00077988052868605</v>
+        <v>-0.007877782167392544</v>
       </c>
       <c r="D53">
-        <v>17.3894864846956</v>
+        <v>16.45056369925717</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44553.57569444444</v>
+        <v>44558.58541666667</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54">
-        <v>-0.006667294204834584</v>
+        <v>-0.002799848247112324</v>
       </c>
       <c r="D54">
-        <v>16.9662975248145</v>
+        <v>17.77625021010407</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>44553.58263888889</v>
+        <v>44558.60208333333</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>-0.0008605341246291642</v>
+        <v>-0.008422655566002524</v>
       </c>
       <c r="D55">
-        <v>18.5858203093613</v>
+        <v>17.35528856849933</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44553.62152777778</v>
+        <v>44558.625</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>-0.005458464443986455</v>
+        <v>-0.01281623897793827</v>
       </c>
       <c r="D56">
-        <v>18.1629743616644</v>
+        <v>15.8304479726598</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>44553.625</v>
+        <v>44559.39583333334</v>
       </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57">
-        <v>-0.009962915482562007</v>
+        <v>0.02124079030652481</v>
       </c>
       <c r="D57">
-        <v>16.51871730371494</v>
+        <v>15.70427056166424</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44554.40138888889</v>
+        <v>44559.59097222222</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>0.006268824383598548</v>
+        <v>0.002232549573760068</v>
       </c>
       <c r="D58">
-        <v>16.39292669331375</v>
+        <v>19.97958348885592</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>44554.42152777778</v>
+        <v>44559.59861111111</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59">
-        <v>-0.002480333537927093</v>
+        <v>0.007501016947281336</v>
       </c>
       <c r="D59">
-        <v>19.06150519881152</v>
+        <v>19.84768060356615</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44554.44861111111</v>
+        <v>44559.6125</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0.005331858261351186</v>
+        <v>-0.001412980728738855</v>
       </c>
       <c r="D60">
-        <v>18.93761360118893</v>
+        <v>22.30225639583948</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>44554.4625</v>
+        <v>44559.61527777778</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
       <c r="C61">
-        <v>0.0004184733304393173</v>
+        <v>0.008564254449697994</v>
       </c>
       <c r="D61">
-        <v>20.24864919940583</v>
+        <v>22.17047146359581</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44554.58055555556</v>
+        <v>44559.625</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>-0.00524146768664191</v>
+        <v>0.01246425637797799</v>
       </c>
       <c r="D62">
-        <v>19.83217951619629</v>
+        <v>20.46701856612179</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>44554.58194444444</v>
+        <v>44560.39861111111</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>-0.0002294076258626543</v>
+        <v>-0.01176992054234927</v>
       </c>
       <c r="D63">
-        <v>21.19316471352167</v>
+        <v>20.02185861783056</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44554.59375</v>
+        <v>44560.54375</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64">
-        <v>-0.005808488151020197</v>
+        <v>-0.001980965210581997</v>
       </c>
       <c r="D64">
-        <v>20.77927590341768</v>
+        <v>22.67883662674583</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>44554.60208333333</v>
+        <v>44560.58194444444</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>-0.0006473060973964939</v>
+        <v>-0.007630207049881488</v>
       </c>
       <c r="D65">
-        <v>22.403879907281</v>
+        <v>22.2327541601782</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44554.62083333333</v>
+        <v>44560.58888888889</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66">
-        <v>-0.005253216365514457</v>
+        <v>-0.001230781762525224</v>
       </c>
       <c r="D66">
-        <v>21.9908015215455</v>
+        <v>24.32704501575026</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>44554.625</v>
+        <v>44560.59930555556</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67">
-        <v>-0.00560247009685777</v>
+        <v>0.008049639127553743</v>
       </c>
       <c r="D67">
-        <v>21.7506425239229</v>
+        <v>24.19381570668639</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44557.39722222222</v>
+        <v>44560.62222222222</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>0.005759582047592637</v>
+        <v>0.0003174746595258071</v>
       </c>
       <c r="D68">
-        <v>21.62717124398235</v>
+        <v>26.42097995631486</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>44557.39930555555</v>
+        <v>44561.39583333334</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69">
-        <v>0.0005116549042185614</v>
+        <v>0.01628498197103423</v>
       </c>
       <c r="D69">
-        <v>22.79393149242219</v>
+        <v>26.29076335512615</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>44557.40208333333</v>
+        <v>44561.625</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="C70">
-        <v>-0.007017898456837868</v>
+        <v>0.0223322805256877</v>
       </c>
       <c r="D70">
-        <v>22.3806987884103</v>
+        <v>24.71196212332821</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>44557.40347222222</v>
+        <v>44565.44513888889</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>-0.0004695995683579035</v>
+        <v>-0.007277933263343694</v>
       </c>
       <c r="D71">
-        <v>24.35468409331371</v>
+        <v>24.28266228677544</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>44557.40625</v>
+        <v>44565.46527777778</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72">
-        <v>-0.005622534182538552</v>
+        <v>-0.002244786328712056</v>
       </c>
       <c r="D72">
-        <v>23.94009015274909</v>
+        <v>25.62808558632968</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>44557.41736111111</v>
+        <v>44565.47291666667</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>-0.0008955207228225071</v>
+        <v>-0.007641089952991287</v>
       </c>
       <c r="D73">
-        <v>26.00061762347718</v>
+        <v>25.19817363150057</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>44557.43125</v>
+        <v>44565.56527777778</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74">
-        <v>-0.006377524971735715</v>
+        <v>-0.002865245443157693</v>
       </c>
       <c r="D74">
-        <v>25.58078003060943</v>
+        <v>26.30901247251098</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>44557.44097222222</v>
+        <v>44565.57013888889</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>0.0008752243836573914</v>
+        <v>-0.007146623613877079</v>
       </c>
       <c r="D75">
-        <v>27.96620540950989</v>
+        <v>25.88140168469522</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>44557.45</v>
+        <v>44565.57986111111</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>0.005572869882022324</v>
+        <v>-0.002176349676418887</v>
       </c>
       <c r="D76">
-        <v>27.83996875156041</v>
+        <v>27.52154860891513</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>44557.45277777778</v>
+        <v>44565.58888888889</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>0.0001422552404106714</v>
+        <v>-0.008310792956731872</v>
       </c>
       <c r="D77">
-        <v>29.262293987816</v>
+        <v>27.09231877236236</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>44557.45625</v>
+        <v>44565.60138888889</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>0.005812465767424335</v>
+        <v>-0.002891984975530448</v>
       </c>
       <c r="D78">
-        <v>29.13616796523057</v>
+        <v>28.54743799970265</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>44557.46180555555</v>
+        <v>44565.62152777778</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79">
-        <v>0.0003960326128529257</v>
+        <v>0.00717946765071098</v>
       </c>
       <c r="D79">
-        <v>30.38629034977741</v>
+        <v>28.42046876552732</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>44557.47708333333</v>
+        <v>44565.625</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
       <c r="C80">
-        <v>-0.008867960492940474</v>
+        <v>0.003841314477877056</v>
       </c>
       <c r="D80">
-        <v>29.9634393655278</v>
+        <v>28.93786609658226</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>44557.625</v>
+        <v>44566.40625</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81">
-        <v>-0.006593191465398274</v>
+        <v>0.008622590227617355</v>
       </c>
       <c r="D81">
-        <v>29.99046609063917</v>
+        <v>28.81347207577986</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>44558.41875</v>
+        <v>44566.40833333333</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>0.005901431694894876</v>
+        <v>0.002988089255980375</v>
       </c>
       <c r="D82">
-        <v>29.8658378686481</v>
+        <v>30.14105938306065</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>44558.42986111111</v>
+        <v>44566.55138888889</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>-0.0001355003177696545</v>
+        <v>-0.007101817643646147</v>
       </c>
       <c r="D83">
-        <v>31.27915716879663</v>
+        <v>29.73229774353616</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>44558.55625</v>
+        <v>44566.55555555555</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
       <c r="C84">
-        <v>-0.005618220627688242</v>
+        <v>-0.002735869359875354</v>
       </c>
       <c r="D84">
-        <v>30.85843533937614</v>
+        <v>30.81204763150048</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>44558.58680555555</v>
+        <v>44566.56180555555</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>0.0001305837831031553</v>
+        <v>-0.007083912558158101</v>
       </c>
       <c r="D85">
-        <v>32.43769071233307</v>
+        <v>30.40647038335785</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>44558.59166666667</v>
+        <v>44566.625</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>-0.005264255025507314</v>
+        <v>-0.01410392616749656</v>
       </c>
       <c r="D86">
-        <v>32.01863773164954</v>
+        <v>28.33242761961345</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>44558.625</v>
+        <v>44567.46666666667</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C87">
-        <v>-0.01281623897793827</v>
+        <v>-0.007094841636932303</v>
       </c>
       <c r="D87">
-        <v>29.6359130347699</v>
+        <v>27.92036225824643</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>44559.39583333334</v>
+        <v>44567.46805555555</v>
       </c>
       <c r="B88" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>0.02124079030652481</v>
+        <v>-0.002757147262234971</v>
       </c>
       <c r="D88">
-        <v>29.50973562377435</v>
+        <v>29.16562058692405</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>44559.59166666667</v>
+        <v>44567.58194444444</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
       <c r="C89">
-        <v>0.0003428811562686818</v>
+        <v>0.007352099026474712</v>
       </c>
       <c r="D89">
-        <v>34.37192675898979</v>
+        <v>29.0436286374441</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>44559.59861111111</v>
+        <v>44567.60416666666</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>0.007501016947281336</v>
+        <v>0.002801638694330588</v>
       </c>
       <c r="D90">
-        <v>34.24002387370004</v>
+        <v>30.0733951485883</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>44559.6125</v>
+        <v>44567.60694444444</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91">
-        <v>-0.001412980728738855</v>
+        <v>0.007095722655389602</v>
       </c>
       <c r="D91">
-        <v>36.69459966597337</v>
+        <v>29.95148311679038</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>44559.61527777778</v>
+        <v>44567.60972222222</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.008564254449697994</v>
+        <v>0.002245716047751256</v>
       </c>
       <c r="D92">
-        <v>36.5628147337297</v>
+        <v>31.09812103001467</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>44559.625</v>
+        <v>44568.39722222222</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>0.01246425637797799</v>
+        <v>-0.00719683801489468</v>
       </c>
       <c r="D93">
-        <v>34.85936183625568</v>
+        <v>30.69618146716179</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>44560.39861111111</v>
+        <v>44568.55486111111</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
       <c r="C94">
-        <v>-0.01176992054234927</v>
+        <v>-0.001636035660208424</v>
       </c>
       <c r="D94">
-        <v>34.41420188796445</v>
+        <v>30.02781958543821</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>44560.55486111111</v>
+        <v>44568.57083333333</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95">
-        <v>-0.0006610167403199307</v>
+        <v>0.008243284740891865</v>
       </c>
       <c r="D95">
-        <v>37.89041101337301</v>
+        <v>29.91647899494784</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>44560.56319444445</v>
+        <v>44568.61180555556</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
       <c r="C96">
-        <v>-0.006037950474500842</v>
+        <v>0.002898840425203164</v>
       </c>
       <c r="D96">
-        <v>37.44717823209515</v>
+        <v>31.69899606775623</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>44560.59236111111</v>
+        <v>44571.39583333334</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>-0.0009302459299174171</v>
+        <v>-0.009828783095422899</v>
       </c>
       <c r="D97">
-        <v>39.29851300178312</v>
+        <v>31.33190490401181</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>44560.59861111111</v>
+        <v>44571.625</v>
       </c>
       <c r="B98" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>0.005405960966634149</v>
+        <v>-0.02209514427054193</v>
       </c>
       <c r="D98">
-        <v>39.16546769271925</v>
+        <v>29.39711545378898</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>44560.62222222222</v>
+        <v>44572.39652777778</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>0.0003174746595258071</v>
+        <v>-0.01026611325446591</v>
       </c>
       <c r="D99">
-        <v>40.47263194234768</v>
+        <v>29.00740950163448</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>44561.39583333334</v>
+        <v>44572.40347222222</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>0.01628498197103423</v>
+        <v>-0.001359821542850081</v>
       </c>
       <c r="D100">
-        <v>40.34241534115897</v>
+        <v>33.16444954769686</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>44561.625</v>
+        <v>44572.41111111111</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C101">
-        <v>0.0223322805256877</v>
+        <v>-0.008317639099669094</v>
       </c>
       <c r="D101">
-        <v>38.76361410936103</v>
+        <v>32.76215813610695</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>44565.40833333333</v>
+        <v>44572.61458333334</v>
       </c>
       <c r="B102" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>0.006094390874376132</v>
+        <v>-0.002632023550492635</v>
       </c>
       <c r="D102">
-        <v>38.63767324041599</v>
+        <v>33.97271097325404</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>44565.41319444445</v>
+        <v>44572.61875</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>-0.0008314686776450531</v>
+        <v>-0.009625898228227792</v>
       </c>
       <c r="D103">
-        <v>40.28907557890037</v>
+        <v>33.57409076523027</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>44565.44236111111</v>
+        <v>44572.625</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
       <c r="C104">
-        <v>-0.005828978664904616</v>
+        <v>-0.005864767512022251</v>
       </c>
       <c r="D104">
-        <v>39.85967754234765</v>
+        <v>34.55323031946502</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>44565.60486111111</v>
+        <v>44573.39652777778</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>-0.0001825809849296256</v>
+        <v>-0.01033205517825575</v>
       </c>
       <c r="D105">
-        <v>41.26552553640405</v>
+        <v>34.15080178959873</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>44565.61458333334</v>
+        <v>44573.625</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>0.005143258540888485</v>
+        <v>-0.02136928520819437</v>
       </c>
       <c r="D106">
-        <v>41.1386943022287</v>
+        <v>31.17227773432386</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>44565.61597222222</v>
+        <v>44574.40069444444</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>0.0003353132926338098</v>
+        <v>-0.007800521136453575</v>
       </c>
       <c r="D107">
-        <v>42.09045774531931</v>
+        <v>30.76826042525997</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>44565.61736111111</v>
+        <v>44574.40208333333</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>0.005399997950387703</v>
+        <v>0.0002832497094443776</v>
       </c>
       <c r="D108">
-        <v>41.963609111144</v>
+        <v>33.00742842942048</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>44565.625</v>
+        <v>44574.41736111111</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109">
-        <v>0.003841314477877056</v>
+        <v>0.008269660352730357</v>
       </c>
       <c r="D109">
-        <v>41.8780064421989</v>
+        <v>32.88848798603267</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>44566.39791666667</v>
+        <v>44574.42986111111</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>0.006447476729180002</v>
+        <v>0.002170668036993173</v>
       </c>
       <c r="D110">
-        <v>41.75159162020782</v>
+        <v>34.02086924606233</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>44566.40277777778</v>
+        <v>44575.39583333334</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>0.0009249477463560973</v>
+        <v>0.01207111774517011</v>
       </c>
       <c r="D111">
-        <v>43.2975860722138</v>
+        <v>33.90282395631492</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>44566.40625</v>
+        <v>44575.39791666667</v>
       </c>
       <c r="B112" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>0.008622590227617355</v>
+        <v>0.0005518786916216545</v>
       </c>
       <c r="D112">
-        <v>43.17319205141141</v>
+        <v>36.99195193788997</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>44566.42430555556</v>
+        <v>44575.54305555556</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>-0.001582694030961673</v>
+        <v>-0.007146874473594078</v>
       </c>
       <c r="D113">
-        <v>45.85747449479923</v>
+        <v>36.58840214710243</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>44566.47361111111</v>
+        <v>44575.55277777778</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>0.005518830376571082</v>
+        <v>-0.002144235876046618</v>
       </c>
       <c r="D114">
-        <v>45.7339931684991</v>
+        <v>38.12383196523024</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>44566.54375</v>
+        <v>44575.55763888889</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.0007493523622567055</v>
+        <v>-0.00762090691156625</v>
       </c>
       <c r="D115">
-        <v>47.1653001705793</v>
+        <v>37.71715358306085</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>44566.54583333333</v>
+        <v>44575.56736111111</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116">
-        <v>-0.0064663116236503</v>
+        <v>-0.002342369640232267</v>
       </c>
       <c r="D116">
-        <v>46.75904380416029</v>
+        <v>39.00122588618117</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>44566.625</v>
+        <v>44575.58263888889</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>-0.01410392616749656</v>
+        <v>-0.01100348050844091</v>
       </c>
       <c r="D117">
-        <v>44.40976627072786</v>
+        <v>38.59517711619601</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>44567.40486111111</v>
+        <v>44575.625</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>0.005253072551869908</v>
+        <v>-0.006128880831309136</v>
       </c>
       <c r="D118">
-        <v>44.28911295720631</v>
+        <v>39.8420543601782</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>44567.40902777778</v>
+        <v>44578.40486111111</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119">
-        <v>0.0004096735826614184</v>
+        <v>0.007715880966673416</v>
       </c>
       <c r="D119">
-        <v>45.41806028410087</v>
+        <v>39.72360186983647</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>44567.43541666667</v>
+        <v>44578.40972222222</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
       </c>
       <c r="C120">
-        <v>-0.005598872296374569</v>
+        <v>0.002216168279813524</v>
       </c>
       <c r="D120">
-        <v>45.01161858722123</v>
+        <v>40.96604754383349</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>44567.43680555555</v>
+        <v>44579.40416666667</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
       <c r="C121">
-        <v>-0.0009783709968722576</v>
+        <v>0.007107312946511235</v>
       </c>
       <c r="D121">
-        <v>46.31177374888541</v>
+        <v>40.84949881931641</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>44567.46666666667</v>
+        <v>44579.42638888889</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
       <c r="C122">
-        <v>-0.007094841636932303</v>
+        <v>0.002640338454367619</v>
       </c>
       <c r="D122">
-        <v>45.89970838751839</v>
+        <v>41.94324603209506</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>44567.54305555556</v>
+        <v>44580.43402777778</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
       <c r="C123">
-        <v>0.000110127307167085</v>
+        <v>0.007020457961451676</v>
       </c>
       <c r="D123">
-        <v>47.78655623298645</v>
+        <v>41.82627395453194</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>44567.57986111111</v>
+        <v>44580.43611111111</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>0.005335447777630953</v>
+        <v>0.002468678520755607</v>
       </c>
       <c r="D124">
-        <v>47.66469508350653</v>
+        <v>42.80169369717676</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>44567.61944444444</v>
+        <v>44580.45069444444</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
       </c>
       <c r="C125">
-        <v>-0.001364257081185816</v>
+        <v>0.008526118971363128</v>
       </c>
       <c r="D125">
-        <v>49.39173179465073</v>
+        <v>42.68487689034168</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>44568.39583333334</v>
+        <v>44580.47569444445</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>0.006087526266184362</v>
+        <v>0.002833481864230492</v>
       </c>
       <c r="D126">
-        <v>49.27291948231792</v>
+        <v>43.94800577741448</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>44568.39652777778</v>
+        <v>44581.39583333334</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
       </c>
       <c r="C127">
-        <v>-0.0005644332684404674</v>
+        <v>0.007521528555344048</v>
       </c>
       <c r="D127">
-        <v>50.96925232035647</v>
+        <v>43.83192717117377</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>44568.39722222222</v>
+        <v>44581.54375</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
       </c>
       <c r="C128">
-        <v>-0.00719683801489468</v>
+        <v>0.002166309307878644</v>
       </c>
       <c r="D128">
-        <v>50.56731275750357</v>
+        <v>45.34209745349178</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>44568.55555555555</v>
+        <v>44581.57916666667</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C129">
-        <v>-0.0007056140106921349</v>
+        <v>-0.007647651168197211</v>
       </c>
       <c r="D129">
-        <v>50.16019433135203</v>
+        <v>44.95400081961363</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>44568.56458333333</v>
+        <v>44581.60277777778</v>
       </c>
       <c r="B130" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130">
-        <v>0.005757364188374803</v>
+        <v>-0.002254602843512421</v>
       </c>
       <c r="D130">
-        <v>50.04838036404149</v>
+        <v>46.37277743625562</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>44568.61388888889</v>
+        <v>44581.60486111111</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>-0.0003183326380520324</v>
+        <v>-0.007468706566698069</v>
       </c>
       <c r="D131">
-        <v>52.00511468796421</v>
+        <v>45.98635565111444</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>44571.39583333334</v>
+        <v>44581.625</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
       </c>
       <c r="C132">
-        <v>-0.009828783095422899</v>
+        <v>-0.008807459709068266</v>
       </c>
       <c r="D132">
-        <v>51.63802352421978</v>
+        <v>45.51922147578009</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>44571.625</v>
+        <v>44582.40486111111</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
       <c r="C133">
-        <v>-0.02209514427054193</v>
+        <v>0.008407709850658307</v>
       </c>
       <c r="D133">
-        <v>49.70323407399692</v>
+        <v>45.39702887756312</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>44572.39652777778</v>
+        <v>44582.40555555555</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>-0.01026611325446591</v>
+        <v>0.001575921430147842</v>
       </c>
       <c r="D134">
-        <v>49.3135281218424</v>
+        <v>46.96495200029711</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>44572.40902777778</v>
+        <v>44582.40972222222</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>3.291217933476531E-05</v>
+        <v>0.007284337526668017</v>
       </c>
       <c r="D135">
-        <v>53.36232125705782</v>
+        <v>46.84158904843974</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>44572.41041666667</v>
+        <v>44582.4125</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
       </c>
       <c r="C136">
-        <v>-0.006427090380501488</v>
+        <v>-4.355182814697045E-05</v>
       </c>
       <c r="D136">
-        <v>52.96012755156006</v>
+        <v>48.53977735334313</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>44572.61736111111</v>
+        <v>44582.41527777778</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
       <c r="C137">
-        <v>0.001035892560019125</v>
+        <v>0.0170462002501286</v>
       </c>
       <c r="D137">
-        <v>54.54003418424948</v>
+        <v>48.41497175393749</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>44572.61805555555</v>
+        <v>44582.5625</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
       </c>
       <c r="C138">
-        <v>-0.006355049276846048</v>
+        <v>0.000601228573530399</v>
       </c>
       <c r="D138">
-        <v>54.14100607013357</v>
+        <v>53.35416669301615</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>44572.625</v>
+        <v>44582.60902777778</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
       <c r="C139">
-        <v>-0.005864767512022251</v>
+        <v>0.007682925034944388</v>
       </c>
       <c r="D139">
-        <v>54.12073403447228</v>
+        <v>53.23127488261498</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44573.39652777778</v>
+        <v>44582.625</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
       </c>
       <c r="C140">
-        <v>-0.01033205517825575</v>
+        <v>0.02095810343559168</v>
       </c>
       <c r="D140">
-        <v>53.71830550460599</v>
+        <v>48.80503934829112</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44573.625</v>
+        <v>44585.39722222222</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C141">
-        <v>-0.02136928520819437</v>
+        <v>-0.01279339620772291</v>
       </c>
       <c r="D141">
-        <v>50.73978144933113</v>
+        <v>48.3922156077265</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44574.39583333334</v>
+        <v>44585.41111111111</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C142">
-        <v>0.00573284626760695</v>
+        <v>-0.001598473112170318</v>
       </c>
       <c r="D142">
-        <v>50.62025719375907</v>
+        <v>51.68565986775621</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44574.39791666667</v>
+        <v>44585.42013888889</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
       <c r="C143">
-        <v>1.82652113621673E-05</v>
+        <v>0.007553058903889798</v>
       </c>
       <c r="D143">
-        <v>52.16299570817215</v>
+        <v>51.5641197999999</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44574.39930555555</v>
+        <v>44585.43402777778</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
       </c>
       <c r="C144">
-        <v>-0.005900220647502064</v>
+        <v>0.001635020116485864</v>
       </c>
       <c r="D144">
-        <v>51.75864909301615</v>
+        <v>53.03413250549762</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44574.40208333333</v>
+        <v>44585.44930555556</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C145">
-        <v>0.0002832497094443776</v>
+        <v>-0.007444954155400918</v>
       </c>
       <c r="D145">
-        <v>53.39140550728063</v>
+        <v>52.61885030401173</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44574.41319444445</v>
+        <v>44585.45069444444</v>
       </c>
       <c r="B146" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>0.005843157687241196</v>
+        <v>-0.001418887974214078</v>
       </c>
       <c r="D146">
-        <v>53.2725549462108</v>
+        <v>54.47124434264474</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44574.44027777778</v>
+        <v>44585.45347222222</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
       <c r="C147">
-        <v>0.0008865212457259686</v>
+        <v>0.008853362114069618</v>
       </c>
       <c r="D147">
-        <v>54.30786911589878</v>
+        <v>54.34787077979186</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44574.44305555556</v>
+        <v>44585.475</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>0.005147340111536836</v>
+        <v>0.001688117933660416</v>
       </c>
       <c r="D148">
-        <v>54.18813398959863</v>
+        <v>56.09498954680524</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44574.47638888889</v>
+        <v>44585.55</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
       <c r="C149">
-        <v>0.0004440342102196571</v>
+        <v>0.008091418261664263</v>
       </c>
       <c r="D149">
-        <v>55.40138198365506</v>
+        <v>55.97097848945015</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44574.57013888889</v>
+        <v>44585.625</v>
       </c>
       <c r="B150" t="s">
         <v>4</v>
       </c>
       <c r="C150">
-        <v>-0.005865043386083735</v>
+        <v>0.0222646630706641</v>
       </c>
       <c r="D150">
-        <v>54.99703316849904</v>
+        <v>50.91104075334315</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44574.59583333333</v>
+        <v>44586.39722222222</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
       <c r="C151">
-        <v>-0.0006668207922327918</v>
+        <v>0.009852585692829097</v>
       </c>
       <c r="D151">
-        <v>56.37024787161936</v>
+        <v>50.78406610698359</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44575.39583333334</v>
+        <v>44586.42222222222</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>0.01207111774517011</v>
+        <v>0.0001807411373953016</v>
       </c>
       <c r="D152">
-        <v>56.25220258187197</v>
+        <v>54.19127519643383</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44575.39791666667</v>
+        <v>44586.45138888889</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C153">
-        <v>0.0005518786916216545</v>
+        <v>-0.01063532335847728</v>
       </c>
       <c r="D153">
-        <v>59.34133056344702</v>
+        <v>53.78430136909355</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44575.39930555555</v>
+        <v>44586.46597222222</v>
       </c>
       <c r="B154" t="s">
         <v>4</v>
       </c>
       <c r="C154">
-        <v>-0.005384613298870633</v>
+        <v>-0.001828474296048266</v>
       </c>
       <c r="D154">
-        <v>58.93851419702798</v>
+        <v>56.67351879227336</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44575.40069444444</v>
+        <v>44586.46805555555</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
       <c r="C155">
-        <v>0.002146737205513283</v>
+        <v>0.007455365208933751</v>
       </c>
       <c r="D155">
-        <v>60.99258436939049</v>
+        <v>56.55125281901925</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44575.42291666667</v>
+        <v>44586.56736111111</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>0.005209459228160296</v>
+        <v>0.002998928687944935</v>
       </c>
       <c r="D156">
-        <v>60.87378544368471</v>
+        <v>57.56208209153037</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44575.42569444444</v>
+        <v>44586.57013888889</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
       <c r="C157">
-        <v>0.0006245019795413365</v>
+        <v>0.007523658381487164</v>
       </c>
       <c r="D157">
-        <v>61.96075226537864</v>
+        <v>57.44025394205045</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44575.43680555555</v>
+        <v>44586.625</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C158">
-        <v>0.005021056245680611</v>
+        <v>0.02917672825333695</v>
       </c>
       <c r="D158">
-        <v>61.84270815185708</v>
+        <v>50.42940272481417</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44575.44444444445</v>
+        <v>44587.40138888889</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C159">
-        <v>0.0008991906606187205</v>
+        <v>-0.008862733305528225</v>
       </c>
       <c r="D159">
-        <v>62.7513179586922</v>
+        <v>50.0237383949479</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44575.54236111111</v>
+        <v>44587.41041666667</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
       </c>
       <c r="C160">
-        <v>-0.005658091987238434</v>
+        <v>-0.002883940498433879</v>
       </c>
       <c r="D160">
-        <v>62.3504131471023</v>
+        <v>51.06387615690925</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44575.625</v>
+        <v>44587.41180555556</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C161">
-        <v>-0.006128880831309136</v>
+        <v>-0.008471217546008436</v>
       </c>
       <c r="D161">
-        <v>62.27399172838014</v>
+        <v>50.66457040980673</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44578.4</v>
+        <v>44587.41736111111</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>0.00614618460205163</v>
+        <v>0.000576537508826136</v>
       </c>
       <c r="D162">
-        <v>62.15514189658225</v>
+        <v>52.68306163001476</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44578.41736111111</v>
+        <v>44587.43541666667</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.000922985782106811</v>
+        <v>-0.007255452615297031</v>
       </c>
       <c r="D163">
-        <v>63.56866663358075</v>
+        <v>52.28644306210987</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44578.47847222222</v>
+        <v>44587.43958333333</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
       </c>
       <c r="C164">
-        <v>-0.006330259737178934</v>
+        <v>-0.001559317859218035</v>
       </c>
       <c r="D164">
-        <v>63.16775660980659</v>
+        <v>53.9283295786031</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44578.54236111111</v>
+        <v>44587.45347222222</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C165">
-        <v>-0.0004840664188614507</v>
+        <v>-0.007882488077701755</v>
       </c>
       <c r="D165">
-        <v>64.7334951503712</v>
+        <v>53.53026226805332</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44578.57569444444</v>
+        <v>44587.625</v>
       </c>
       <c r="B166" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C166">
-        <v>0.005546025996274406</v>
+        <v>-0.01290916870085113</v>
       </c>
       <c r="D166">
-        <v>64.61696647280804</v>
+        <v>52.34416578276356</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44578.58680555555</v>
+        <v>44588.47083333333</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
       <c r="C167">
-        <v>0.0009440646769621752</v>
+        <v>0.008643833268837775</v>
       </c>
       <c r="D167">
-        <v>65.60121171946477</v>
+        <v>52.2249922942049</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44578.61875</v>
+        <v>44588.47847222222</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
       </c>
       <c r="C168">
-        <v>-0.006504165274595741</v>
+        <v>0.002507035296327453</v>
       </c>
       <c r="D168">
-        <v>65.19694719821663</v>
+        <v>53.87771265081709</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44578.625</v>
+        <v>44588.59166666667</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
       <c r="C169">
-        <v>0.001830429412719048</v>
+        <v>0.007112644059651285</v>
       </c>
       <c r="D169">
-        <v>67.49250603922704</v>
+        <v>53.75921202139659</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44579.39652777778</v>
+        <v>44588.61944444444</v>
       </c>
       <c r="B170" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C170">
-        <v>0.005762049028420368</v>
+        <v>0.002805093391288982</v>
       </c>
       <c r="D170">
-        <v>67.37566900861779</v>
+        <v>55.21705546062391</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44579.39722222222</v>
+        <v>44589.39722222222</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
       <c r="C171">
-        <v>0.0004325707695550518</v>
+        <v>0.0127560657554332</v>
       </c>
       <c r="D171">
-        <v>68.50447176106951</v>
+        <v>55.10137391530444</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44579.40416666667</v>
+        <v>44589.43055555555</v>
       </c>
       <c r="B172" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C172">
-        <v>0.007107312946511235</v>
+        <v>0.001358364033473669</v>
       </c>
       <c r="D172">
-        <v>68.38792303655242</v>
+        <v>59.7269779786031</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44579.42986111111</v>
+        <v>44589.43333333333</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C173">
-        <v>0.0004176319291676611</v>
+        <v>-0.007313864803717429</v>
       </c>
       <c r="D173">
-        <v>70.03096479346179</v>
+        <v>59.35683464784529</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44579.54583333333</v>
+        <v>44589.625</v>
       </c>
       <c r="B174" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C174">
-        <v>0.006288806198850416</v>
+        <v>-0.02496313184806687</v>
       </c>
       <c r="D174">
-        <v>69.91384829212451</v>
+        <v>55.08464336998494</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44579.54722222222</v>
+        <v>44599.4</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
       </c>
       <c r="C175">
-        <v>-5.150912165574617E-06</v>
+        <v>0.01010214770513729</v>
       </c>
       <c r="D175">
-        <v>71.34945831619584</v>
+        <v>54.96793604665653</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44579.54791666667</v>
+        <v>44599.40555555555</v>
       </c>
       <c r="B176" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C176">
-        <v>0.00516140349978611</v>
+        <v>0.001732568644941646</v>
       </c>
       <c r="D176">
-        <v>71.23216374413043</v>
+        <v>56.98284673075763</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44579.55972222222</v>
+        <v>44599.42708333334</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
       <c r="C177">
-        <v>0.0004240462404060397</v>
+        <v>0.009107508091946048</v>
       </c>
       <c r="D177">
-        <v>72.28588171173817</v>
+        <v>56.8682127732539</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44579.62222222222</v>
+        <v>44599.46388888889</v>
       </c>
       <c r="B178" t="s">
         <v>4</v>
       </c>
       <c r="C178">
-        <v>-0.006916066765518925</v>
+        <v>0.002764907195415889</v>
       </c>
       <c r="D178">
-        <v>71.88384195750339</v>
+        <v>58.35232243625533</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44579.625</v>
+        <v>44599.46527777778</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
       <c r="C179">
-        <v>0.004009579638104555</v>
+        <v>0.007175633059496422</v>
       </c>
       <c r="D179">
-        <v>75.03193352629989</v>
+        <v>58.23824490252578</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44580.40625</v>
+        <v>44599.625</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C180">
-        <v>0.005765149572891981</v>
+        <v>0.01874817395772543</v>
       </c>
       <c r="D180">
-        <v>74.91448118959856</v>
+        <v>54.50648397206511</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44580.41041666667</v>
+        <v>44600.39722222222</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
       <c r="C181">
-        <v>0.0005899253190320142</v>
+        <v>0.009716283499744849</v>
       </c>
       <c r="D181">
-        <v>75.9402785215451</v>
+        <v>54.39124327369957</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44580.42222222222</v>
+        <v>44600.39791666667</v>
       </c>
       <c r="B182" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C182">
-        <v>0.005608552048417148</v>
+        <v>0.001540249872729493</v>
       </c>
       <c r="D182">
-        <v>75.82271194947973</v>
+        <v>56.45519929153017</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44580.54305555556</v>
+        <v>44600.41180555556</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
       <c r="C183">
-        <v>-0.0002585628375952886</v>
+        <v>0.007861667173798548</v>
       </c>
       <c r="D183">
-        <v>77.31358238900421</v>
+        <v>56.34280425349154</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44580.54583333333</v>
+        <v>44600.625</v>
       </c>
       <c r="B184" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C184">
-        <v>0.005326244027845317</v>
+        <v>0.01425093584620307</v>
       </c>
       <c r="D184">
-        <v>77.19671431144103</v>
+        <v>53.37902044962823</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44580.61875</v>
+        <v>44601.4</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C185">
-        <v>0.0007195981889058789</v>
+        <v>-0.009412267711962685</v>
       </c>
       <c r="D185">
-        <v>78.25235193402642</v>
+        <v>53.00240204219881</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44581.39583333334</v>
+        <v>44601.4375</v>
       </c>
       <c r="B186" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C186">
-        <v>0.007521528555344048</v>
+        <v>-0.000951103368176609</v>
       </c>
       <c r="D186">
-        <v>78.1362733277857</v>
+        <v>55.53655421872175</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44581.54513888889</v>
+        <v>44601.54236111111</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>-0.001600551094585567</v>
+        <v>-0.007812499999999778</v>
       </c>
       <c r="D187">
-        <v>80.84716199405621</v>
+        <v>55.15303341634431</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44581.56666666667</v>
+        <v>44601.56388888889</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C188">
-        <v>-0.006049356016359142</v>
+        <v>0.00774535423925693</v>
       </c>
       <c r="D188">
-        <v>80.45960027845442</v>
+        <v>59.93361469420469</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44581.625</v>
+        <v>44601.625</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C189">
-        <v>-0.008807459709068266</v>
+        <v>0.01649608013937298</v>
       </c>
       <c r="D189">
-        <v>79.49340815364016</v>
+        <v>56.57698207904873</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44582.4</v>
+        <v>44602.39583333334</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
       </c>
       <c r="C190">
-        <v>0.005032185683807811</v>
+        <v>-0.009207843137254867</v>
       </c>
       <c r="D190">
-        <v>79.37333200356584</v>
+        <v>56.18787554264456</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44582.40208333333</v>
+        <v>44602.625</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C191">
-        <v>0.0002016846906494063</v>
+        <v>-0.01927435362766561</v>
       </c>
       <c r="D191">
-        <v>80.4664576790487</v>
+        <v>56.30852809658214</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44582.40486111111</v>
+        <v>44603.39722222222</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
       </c>
       <c r="C192">
-        <v>0.008407709850658307</v>
+        <v>-0.009258647385218977</v>
       </c>
       <c r="D192">
-        <v>80.34426508083175</v>
+        <v>55.89509502912303</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44582.40694444445</v>
+        <v>44603.41597222222</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C193">
-        <v>-0.0008213418671376704</v>
+        <v>-0.002520919022752643</v>
       </c>
       <c r="D193">
-        <v>82.57184181961331</v>
+        <v>58.44091668439794</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44582.40902777778</v>
+        <v>44603.42638888889</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
       </c>
       <c r="C194">
-        <v>0.005496763039799957</v>
+        <v>-0.009122908439059274</v>
       </c>
       <c r="D194">
-        <v>82.44938839762224</v>
+        <v>58.02534895601758</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44582.4125</v>
+        <v>44603.46388888889</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C195">
-        <v>-4.355182814697045E-05</v>
+        <v>-0.002149486196321826</v>
       </c>
       <c r="D195">
-        <v>83.4632260338778</v>
+        <v>59.97207726805325</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44582.41319444445</v>
+        <v>44603.54166666666</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
       </c>
       <c r="C196">
-        <v>0.006284705363054144</v>
+        <v>-0.009696432641654984</v>
       </c>
       <c r="D196">
-        <v>83.33967481129235</v>
+        <v>59.56037404933109</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44582.41388888889</v>
+        <v>44603.55555555555</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197">
-        <v>0.0007617891561830792</v>
+        <v>-0.002101398964937218</v>
       </c>
       <c r="D197">
-        <v>84.67468203566089</v>
+        <v>61.92037912956875</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44582.41527777778</v>
+        <v>44603.55972222222</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
       </c>
       <c r="C198">
-        <v>0.0170462002501286</v>
+        <v>-0.007071926883669533</v>
       </c>
       <c r="D198">
-        <v>84.54987643625526</v>
+        <v>61.50828700475448</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44582.5625</v>
+        <v>44603.625</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C199">
-        <v>0.000601228573530399</v>
+        <v>-0.003247327792339494</v>
       </c>
       <c r="D199">
-        <v>89.48907137533394</v>
+        <v>62.57895749509621</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44582.57361111111</v>
+        <v>44606.39583333334</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
       </c>
       <c r="C200">
-        <v>0.005089935996468675</v>
+        <v>-0.009475380099261188</v>
       </c>
       <c r="D200">
-        <v>89.36713669479902</v>
+        <v>62.17042196166384</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44582.57638888889</v>
+        <v>44606.39652777778</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201">
-        <v>-0.0005134260281027814</v>
+        <v>-0.002817071072104604</v>
       </c>
       <c r="D201">
-        <v>90.57239372362505</v>
+        <v>64.46910482823152</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44582.60694444444</v>
+        <v>44606.39791666667</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
       </c>
       <c r="C202">
-        <v>0.006755683072169338</v>
+        <v>-0.008522462405457398</v>
       </c>
       <c r="D202">
-        <v>90.44955671322387</v>
+        <v>64.05392060594328</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44582.625</v>
+        <v>44606.625</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C203">
-        <v>0.02095810343559168</v>
+        <v>-0.03970970632391613</v>
       </c>
       <c r="D203">
-        <v>85.74932117890002</v>
+        <v>53.24667447459115</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44585.39652777778</v>
+        <v>44607.39722222222</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204">
-        <v>-0.005691845892092151</v>
+        <v>-0.01057228840665281</v>
       </c>
       <c r="D204">
-        <v>85.33519121396688</v>
+        <v>52.83741404368476</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44585.41180555556</v>
+        <v>44607.625</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205">
-        <v>0.002291987444706267</v>
+        <v>-0.02480083287598467</v>
       </c>
       <c r="D205">
-        <v>87.55343425884055</v>
+        <v>47.78119175542334</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44585.41875</v>
+        <v>44608.39722222222</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C206">
-        <v>0.005866710845898959</v>
+        <v>0.0075800440280549</v>
       </c>
       <c r="D206">
-        <v>87.43212882644825</v>
+        <v>47.66335860653774</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44585.43611111111</v>
+        <v>44608.40069444444</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C207">
-        <v>0.0008181931002952947</v>
+        <v>0.002482977525213648</v>
       </c>
       <c r="D207">
-        <v>88.57374885616606</v>
+        <v>48.69723325735492</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44585.4375</v>
+        <v>44608.40416666667</v>
       </c>
       <c r="B208" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C208">
-        <v>0.005786334665261239</v>
+        <v>0.008286754040171207</v>
       </c>
       <c r="D208">
-        <v>88.45182404695356</v>
+        <v>48.57898680237722</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44585.44027777778</v>
+        <v>44608.41875</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C209">
-        <v>-0.0003785151407454945</v>
+        <v>0.002253434358947981</v>
       </c>
       <c r="D209">
-        <v>89.90854352778565</v>
+        <v>49.76115166478437</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44585.44513888889</v>
+        <v>44608.42777777778</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C210">
-        <v>-0.005186377755235894</v>
+        <v>0.007647886482704314</v>
       </c>
       <c r="D210">
-        <v>89.49480277503676</v>
+        <v>49.64220419762243</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44585.45138888889</v>
+        <v>44608.43541666667</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C211">
-        <v>0.003383703690621132</v>
+        <v>0.002358402020512074</v>
       </c>
       <c r="D211">
-        <v>92.20508229955392</v>
+        <v>50.83389840267446</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44585.45277777778</v>
+        <v>44608.57708333333</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
       </c>
       <c r="C212">
-        <v>0.006928990532057977</v>
+        <v>-0.007199013635044826</v>
       </c>
       <c r="D212">
-        <v>92.08183393670102</v>
+        <v>50.42453382912317</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44585.47569444445</v>
+        <v>44608.58541666667</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C213">
-        <v>-0.001802712741967749</v>
+        <v>-0.00199302889127817</v>
       </c>
       <c r="D213">
-        <v>94.36942509569063</v>
+        <v>51.68580109479917</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44585.47847222222</v>
+        <v>44608.61666666667</v>
       </c>
       <c r="B214" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C214">
-        <v>-0.006579826860891314</v>
+        <v>-0.007080436526220701</v>
       </c>
       <c r="D214">
-        <v>93.95303136374413</v>
+        <v>51.27916270044552</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44585.54652777778</v>
+        <v>44608.625</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C215">
-        <v>-0.0007658719243675005</v>
+        <v>-0.01244849741463161</v>
       </c>
       <c r="D215">
-        <v>95.73607061396693</v>
+        <v>49.4844702514113</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44585.54930555556</v>
+        <v>44609.41944444444</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C216">
-        <v>0.006666366664489609</v>
+        <v>0.009343217373105173</v>
       </c>
       <c r="D216">
-        <v>95.61227719197586</v>
+        <v>49.36636173729542</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44585.625</v>
+        <v>44609.43611111111</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C217">
-        <v>0.0222646630706641</v>
+        <v>0.002812749600105802</v>
       </c>
       <c r="D217">
-        <v>90.05851627607692</v>
+        <v>50.75760843684966</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44586.39722222222</v>
+        <v>44609.43888888889</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C218">
-        <v>0.009852585692829097</v>
+        <v>0.007579251488063932</v>
       </c>
       <c r="D218">
-        <v>89.93154162971737</v>
+        <v>50.6386270398214</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44586.42222222222</v>
+        <v>44609.43958333333</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C219">
-        <v>0.0001807411373953016</v>
+        <v>0.00255076479760552</v>
       </c>
       <c r="D219">
-        <v>93.33875071916763</v>
+        <v>51.66274640178276</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44586.4375</v>
+        <v>44609.44166666667</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C220">
-        <v>0.006136083660248426</v>
+        <v>0.007304154811778263</v>
       </c>
       <c r="D220">
-        <v>93.21556106300122</v>
+        <v>51.54341409866242</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44586.43958333333</v>
+        <v>44609.45625</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C221">
-        <v>-0.003088891941498306</v>
+        <v>0.002346018106313741</v>
       </c>
       <c r="D221">
-        <v>95.87889862199087</v>
+        <v>52.57315111203543</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44586.44722222222</v>
+        <v>44609.46180555555</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C222">
-        <v>-0.005014650485025585</v>
+        <v>0.007658344983305865</v>
       </c>
       <c r="D222">
-        <v>95.46858750936084</v>
+        <v>52.45275540832071</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44586.46666666667</v>
+        <v>44609.625</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223">
-        <v>0.00419860756007473</v>
+        <v>0.04611404124126239</v>
       </c>
       <c r="D223">
-        <v>98.21029500178287</v>
+        <v>40.38319755393725</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44586.46736111111</v>
+        <v>44610.39861111111</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C224">
-        <v>0.006062469456894259</v>
+        <v>0.007032150465483777</v>
       </c>
       <c r="D224">
-        <v>98.08805811084676</v>
+        <v>40.26043067399667</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44586.625</v>
+        <v>44610.40069444444</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225">
-        <v>0.02917672825333695</v>
+        <v>0.002672194941026662</v>
       </c>
       <c r="D225">
-        <v>90.74349961277835</v>
+        <v>41.06734493848401</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44587.39930555555</v>
+        <v>44610.42361111111</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C226">
-        <v>-0.005883253418544676</v>
+        <v>0.007541046929877337</v>
       </c>
       <c r="D226">
-        <v>90.33210812451684</v>
+        <v>40.94241265735471</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44587.41736111111</v>
+        <v>44610.42430555556</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C227">
-        <v>0.000576537508826136</v>
+        <v>0.002912174712457638</v>
       </c>
       <c r="D227">
-        <v>90.16855031054955</v>
+        <v>42.04522456255535</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44587.43472222222</v>
+        <v>44610.425</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C228">
-        <v>-0.005236985432199082</v>
+        <v>0.007252041400039655</v>
       </c>
       <c r="D228">
-        <v>89.77137453046041</v>
+        <v>41.9203735991081</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44587.44236111111</v>
+        <v>44610.42916666667</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C229">
-        <v>0.002077125569619476</v>
+        <v>0.001752325920115316</v>
       </c>
       <c r="D229">
-        <v>91.86885339494786</v>
+        <v>43.25360272243648</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44587.45277777778</v>
+        <v>44610.46319444444</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C230">
-        <v>-0.005666281334528844</v>
+        <v>-0.008332857192488108</v>
       </c>
       <c r="D230">
-        <v>91.47085439049019</v>
+        <v>42.83489223566085</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44587.625</v>
+        <v>44610.54722222222</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C231">
-        <v>-0.01290916870085113</v>
+        <v>-0.0002520595524111435</v>
       </c>
       <c r="D231">
-        <v>89.58616949509643</v>
+        <v>45.1950192490338</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44588.43333333333</v>
+        <v>44610.58611111111</v>
       </c>
       <c r="B232" t="s">
         <v>3</v>
       </c>
       <c r="C232">
-        <v>0.005076446874697549</v>
+        <v>-0.007791674071973009</v>
       </c>
       <c r="D232">
-        <v>89.46716268885572</v>
+        <v>44.77669657444243</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44588.44305555556</v>
+        <v>44610.625</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C233">
-        <v>-0.001183001604041611</v>
+        <v>-0.02984948494002426</v>
       </c>
       <c r="D233">
-        <v>91.02816536344717</v>
+        <v>37.6083417453191</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44588.46805555555</v>
+        <v>44614.39722222222</v>
       </c>
       <c r="B234" t="s">
         <v>3</v>
       </c>
       <c r="C234">
-        <v>0.005728267597814196</v>
+        <v>-0.007417827005222311</v>
       </c>
       <c r="D234">
-        <v>90.90924399257048</v>
+        <v>37.1860301001482</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44588.54513888889</v>
+        <v>44614.40416666667</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C235">
-        <v>-0.001547011764246653</v>
+        <v>0.001508590093743489</v>
       </c>
       <c r="D235">
-        <v>92.95206255126286</v>
+        <v>39.69040402615123</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44588.57083333333</v>
+        <v>44614.40763888889</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
       </c>
       <c r="C236">
-        <v>0.006623835638451259</v>
+        <v>-0.00820567516877313</v>
       </c>
       <c r="D236">
-        <v>92.83314709806822</v>
+        <v>39.27298162109921</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44588.57361111111</v>
+        <v>44614.44097222222</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C237">
-        <v>0.0007893684219797414</v>
+        <v>-0.001627920300362962</v>
       </c>
       <c r="D237">
-        <v>94.27928338692409</v>
+        <v>41.28002631471</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44588.58055555556</v>
+        <v>44614.46180555555</v>
       </c>
       <c r="B238" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C238">
-        <v>-0.00540078069286376</v>
+        <v>-0.00766245604532656</v>
       </c>
       <c r="D238">
-        <v>93.88273150074281</v>
+        <v>40.86025474264465</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44588.58611111111</v>
+        <v>44614.59791666667</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C239">
-        <v>0.0007984164101441094</v>
+        <v>-0.002488767733624941</v>
       </c>
       <c r="D239">
-        <v>95.65775179197611</v>
+        <v>42.17867949747377</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44588.59027777778</v>
+        <v>44615.60625</v>
       </c>
       <c r="B240" t="s">
         <v>3</v>
       </c>
       <c r="C240">
-        <v>0.005312220081436281</v>
+        <v>-0.009591216747608433</v>
       </c>
       <c r="D240">
-        <v>95.53923992719157</v>
+        <v>41.75545672184225</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44588.62083333333</v>
+        <v>44615.62013888889</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C241">
-        <v>-0.002362907242435708</v>
+        <v>-0.002941544639062155</v>
       </c>
       <c r="D241">
-        <v>98.10661645022277</v>
+        <v>43.60501912600263</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44589.39722222222</v>
+        <v>44616.41458333333</v>
       </c>
       <c r="B242" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C242">
-        <v>0.0127560657554332</v>
+        <v>0.008687098008854255</v>
       </c>
       <c r="D242">
-        <v>97.9909349049033</v>
+        <v>43.48210204487334</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44589.43125</v>
+        <v>44616.59791666667</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C243">
-        <v>-0.0004495256111229917</v>
+        <v>0.001387761640990304</v>
       </c>
       <c r="D243">
-        <v>102.983036104309</v>
+        <v>46.24587006121806</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44589.43194444444</v>
+        <v>44616.60069444445</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C244">
-        <v>-0.005736551519569533</v>
+        <v>0.009001522252185201</v>
       </c>
       <c r="D244">
-        <v>102.6123695613669</v>
+        <v>46.12836013610662</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44589.625</v>
+        <v>44616.625</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C245">
-        <v>-0.02496313184806687</v>
+        <v>0.0121934332459378</v>
       </c>
       <c r="D245">
-        <v>97.80435510371458</v>
+        <v>44.44461957771139</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44599.4</v>
+        <v>44617.39583333334</v>
       </c>
       <c r="B246" t="s">
         <v>3</v>
       </c>
       <c r="C246">
-        <v>0.01010214770513729</v>
+        <v>-0.01074463226731859</v>
       </c>
       <c r="D246">
-        <v>97.68764778038624</v>
+        <v>44.02900473967279</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44599.40694444445</v>
+        <v>44617.39930555555</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C247">
-        <v>0.0004819654204468726</v>
+        <v>-0.001550932821925866</v>
       </c>
       <c r="D247">
-        <v>99.98951798454671</v>
+        <v>46.53748797236226</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44599.42638888889</v>
+        <v>44617.40555555555</v>
       </c>
       <c r="B248" t="s">
         <v>3</v>
       </c>
       <c r="C248">
-        <v>0.005714253306057682</v>
+        <v>-0.00708842944063881</v>
       </c>
       <c r="D248">
-        <v>99.87489887399693</v>
+        <v>46.12354208915276</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44599.625</v>
+        <v>44617.40625</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C249">
-        <v>0.01874817395772543</v>
+        <v>0.0003613732160057115</v>
       </c>
       <c r="D249">
-        <v>95.87925384249621</v>
+        <v>48.19626135869222</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44600.39722222222</v>
+        <v>44617.4125</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
       </c>
       <c r="C250">
-        <v>0.009716283499744849</v>
+        <v>-0.007187552835037136</v>
       </c>
       <c r="D250">
-        <v>95.76401314413067</v>
+        <v>47.77979360237719</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44600.40069444444</v>
+        <v>44617.41597222222</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251">
-        <v>-0.0006992818948746704</v>
+        <v>0.0001911599536008612</v>
       </c>
       <c r="D251">
-        <v>98.67609532986623</v>
+        <v>49.89552602080217</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44600.41041666667</v>
+        <v>44617.45625</v>
       </c>
       <c r="B252" t="s">
         <v>3</v>
       </c>
       <c r="C252">
-        <v>0.005919804760172065</v>
+        <v>-0.007115513133092888</v>
       </c>
       <c r="D252">
-        <v>98.56381849182762</v>
+        <v>49.47863245230289</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44600.625</v>
+        <v>44617.46180555555</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C253">
-        <v>0.01425093584620307</v>
+        <v>-0.00297482115923331</v>
       </c>
       <c r="D253">
-        <v>95.00903468796437</v>
+        <v>50.48364125765203</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44601.39722222222</v>
+        <v>44620.39722222222</v>
       </c>
       <c r="B254" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C254">
-        <v>-0.005044657375145034</v>
+        <v>-0.007389546707983863</v>
       </c>
       <c r="D254">
-        <v>94.63002141961371</v>
+        <v>50.06359780386303</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44601.4375</v>
+        <v>44620.41180555556</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C255">
-        <v>-0.000951103368176609</v>
+        <v>-0.00227714987496852</v>
       </c>
       <c r="D255">
-        <v>95.59105769717674</v>
+        <v>51.29867358395222</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44601.54166666666</v>
+        <v>44620.4625</v>
       </c>
       <c r="B256" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C256">
-        <v>-0.00567798344947712</v>
+        <v>0.007006784878731853</v>
       </c>
       <c r="D256">
-        <v>95.20931924962844</v>
+        <v>51.17476578514093</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44601.56388888889</v>
+        <v>44620.47430555556</v>
       </c>
       <c r="B257" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C257">
-        <v>0.00774535423925693</v>
+        <v>0.0006497109377068266</v>
       </c>
       <c r="D257">
-        <v>99.54060483655266</v>
+        <v>52.47962408053473</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44601.625</v>
+        <v>44620.47708333333</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
       </c>
       <c r="C258">
-        <v>0.01649608013937298</v>
+        <v>0.01244054170049091</v>
       </c>
       <c r="D258">
-        <v>96.18397222139669</v>
+        <v>52.35356526894483</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44602.39583333334</v>
+        <v>44620.625</v>
       </c>
       <c r="B259" t="s">
         <v>4</v>
       </c>
       <c r="C259">
-        <v>-0.009207843137254867</v>
+        <v>0.02225468919332418</v>
       </c>
       <c r="D259">
-        <v>95.79486568499253</v>
+        <v>48.98733534323902</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44602.625</v>
+        <v>44621.39722222222</v>
       </c>
       <c r="B260" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C260">
-        <v>-0.01927435362766561</v>
+        <v>-0.0101755046700811</v>
       </c>
       <c r="D260">
-        <v>95.9155182389301</v>
+        <v>48.56184616760751</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44603.39722222222</v>
+        <v>44621.40486111111</v>
       </c>
       <c r="B261" t="s">
         <v>4</v>
       </c>
       <c r="C261">
-        <v>-0.009258647385218977</v>
+        <v>0.001525610123531473</v>
       </c>
       <c r="D261">
-        <v>95.50208517147097</v>
+        <v>52.8721437491825</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44603.41666666666</v>
+        <v>44621.41736111111</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
       </c>
       <c r="C262">
-        <v>-0.0003783475087657528</v>
+        <v>0.007546399517927016</v>
       </c>
       <c r="D262">
-        <v>98.97089147667162</v>
+        <v>52.74375150163421</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44603.42013888889</v>
+        <v>44621.42013888889</v>
       </c>
       <c r="B263" t="s">
         <v>4</v>
       </c>
       <c r="C263">
-        <v>-0.005506535646088384</v>
+        <v>0.001186351310635603</v>
       </c>
       <c r="D263">
-        <v>98.55508074829123</v>
+        <v>54.38945502436827</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44603.625</v>
+        <v>44621.44236111111</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C264">
-        <v>-0.003247327792339494</v>
+        <v>-0.008215727628803737</v>
       </c>
       <c r="D264">
-        <v>98.71475421040114</v>
+        <v>53.96193229390764</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44606.39583333334</v>
+        <v>44621.56180555555</v>
       </c>
       <c r="B265" t="s">
         <v>4</v>
       </c>
       <c r="C265">
-        <v>-0.009475380099261188</v>
+        <v>-0.001863211810786414</v>
       </c>
       <c r="D265">
-        <v>98.30621867696874</v>
+        <v>55.38957299465056</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44606.625</v>
+        <v>44621.59444444445</v>
       </c>
       <c r="B266" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C266">
-        <v>-0.03970970632391613</v>
+        <v>-0.009205935522747732</v>
       </c>
       <c r="D266">
-        <v>88.49873183239225</v>
+        <v>54.96486544338757</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44607.39722222222</v>
+        <v>44621.625</v>
       </c>
       <c r="B267" t="s">
         <v>4</v>
       </c>
       <c r="C267">
-        <v>-0.01057228840665281</v>
+        <v>-0.01676333232901461</v>
       </c>
       <c r="D267">
-        <v>88.08947140148587</v>
+        <v>52.22737875155988</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44607.625</v>
+        <v>44622.39930555555</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
       </c>
       <c r="C268">
-        <v>-0.02480083287598467</v>
+        <v>0.007431776036943782</v>
       </c>
       <c r="D268">
-        <v>83.03324911322444</v>
+        <v>52.10131413996996</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44608.39722222222</v>
+        <v>44622.40069444444</v>
       </c>
       <c r="B269" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C269">
-        <v>0.0075800440280549</v>
+        <v>0.001824226654529637</v>
       </c>
       <c r="D269">
-        <v>82.91541596433885</v>
+        <v>53.62933963833542</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44608.45486111111</v>
+        <v>44622.40625</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
       </c>
       <c r="C270">
-        <v>0.0003955698902711191</v>
+        <v>0.007780303799349464</v>
       </c>
       <c r="D270">
-        <v>84.51968723922732</v>
+        <v>53.50468633343199</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44608.46527777778</v>
+        <v>44622.40833333333</v>
       </c>
       <c r="B271" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C271">
-        <v>0.005036775371593194</v>
+        <v>0.002590277940916708</v>
       </c>
       <c r="D271">
-        <v>84.40089957206536</v>
+        <v>54.78253310401154</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44608.47847222222</v>
+        <v>44622.41944444444</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
       </c>
       <c r="C272">
-        <v>-0.001825969726445997</v>
+        <v>0.007838224322677667</v>
       </c>
       <c r="D272">
-        <v>86.09709356909362</v>
+        <v>54.65750189301598</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44608.55347222222</v>
+        <v>44622.57013888889</v>
       </c>
       <c r="B273" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C273">
-        <v>0.005520828000477707</v>
+        <v>0.001518952537657325</v>
       </c>
       <c r="D273">
-        <v>85.97883136106982</v>
+        <v>56.09643768320914</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44608.56041666667</v>
+        <v>44622.59097222222</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
       </c>
       <c r="C274">
-        <v>-0.0009242990494718883</v>
+        <v>0.00737347439736491</v>
       </c>
       <c r="D274">
-        <v>87.5604844089152</v>
+        <v>55.97106276612149</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44608.57152777778</v>
+        <v>44622.59166666667</v>
       </c>
       <c r="B275" t="s">
         <v>4</v>
       </c>
       <c r="C275">
-        <v>-0.005594481134490348</v>
+        <v>0.002931614801902738</v>
       </c>
       <c r="D275">
-        <v>87.15606798157495</v>
+        <v>56.89799819167871</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44608.625</v>
+        <v>44622.59305555555</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
       </c>
       <c r="C276">
-        <v>-0.01244849741463161</v>
+        <v>0.007594462368680555</v>
       </c>
       <c r="D276">
-        <v>85.02990302139663</v>
+        <v>56.77235940386296</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44609.39861111111</v>
+        <v>44622.61319444444</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C277">
-        <v>0.006027090186023321</v>
+        <v>0.001941137875618004</v>
       </c>
       <c r="D277">
-        <v>84.9118742719167</v>
+        <v>58.06527081307537</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44609.4</v>
+        <v>44622.61597222222</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
       </c>
       <c r="C278">
-        <v>0.0006466839912638855</v>
+        <v>0.0101756438269236</v>
       </c>
       <c r="D278">
-        <v>86.06529091114406</v>
+        <v>57.93927607221354</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44609.41875</v>
+        <v>44622.625</v>
       </c>
       <c r="B279" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C279">
-        <v>0.006862383699549057</v>
+        <v>0.01151747030033468</v>
       </c>
       <c r="D279">
-        <v>85.94727247934615</v>
+        <v>57.07553082704264</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44609.625</v>
+        <v>44623.42916666667</v>
       </c>
       <c r="B280" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C280">
-        <v>0.04611404124126239</v>
+        <v>-0.007781019544327861</v>
       </c>
       <c r="D280">
-        <v>73.28407420891521</v>
+        <v>56.6540489610694</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44610.39861111111</v>
+        <v>44623.43055555555</v>
       </c>
       <c r="B281" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C281">
-        <v>0.007032150465483777</v>
+        <v>-0.002719229774263532</v>
       </c>
       <c r="D281">
-        <v>73.16130732897466</v>
+        <v>58.12621798900403</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44610.40208333333</v>
+        <v>44623.43819444445</v>
       </c>
       <c r="B282" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C282">
-        <v>-0.002503240708705778</v>
+        <v>-0.007337314932496453</v>
       </c>
       <c r="D282">
-        <v>75.7499148653788</v>
+        <v>57.70555194739928</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44610.4125</v>
+        <v>44623.44375</v>
       </c>
       <c r="B283" t="s">
         <v>4</v>
       </c>
       <c r="C283">
-        <v>-0.005792668911244414</v>
+        <v>-0.0009951898382990487</v>
       </c>
       <c r="D283">
-        <v>75.33146359078742</v>
+        <v>59.6846018071318</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44610.41388888889</v>
+        <v>44623.44861111111</v>
       </c>
       <c r="B284" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C284">
-        <v>0.00464405608578633</v>
+        <v>-0.0088161303505081</v>
       </c>
       <c r="D284">
-        <v>78.53114540059424</v>
+        <v>59.26149809242155</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44610.41875</v>
+        <v>44623.46666666667</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C285">
-        <v>0.006753427025728564</v>
+        <v>-0.001237535007704516</v>
       </c>
       <c r="D285">
-        <v>78.40733012005934</v>
+        <v>61.58441585111397</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44610.43263888889</v>
+        <v>44623.46944444445</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C286">
-        <v>0.0001671597316472706</v>
+        <v>-0.007514544834231196</v>
       </c>
       <c r="D286">
-        <v>79.87694449301614</v>
+        <v>61.16038051203523</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44610.4625</v>
+        <v>44623.56180555555</v>
       </c>
       <c r="B287" t="s">
         <v>4</v>
       </c>
       <c r="C287">
-        <v>-0.005659585551057278</v>
+        <v>-0.002984039860981502</v>
       </c>
       <c r="D287">
-        <v>79.45742808796413</v>
+        <v>62.20958144457611</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44610.54722222222</v>
+        <v>44623.58125</v>
       </c>
       <c r="B288" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C288">
-        <v>-0.0002520595524111435</v>
+        <v>-0.008844473937771546</v>
       </c>
       <c r="D288">
-        <v>80.90832033164918</v>
+        <v>61.78901540297133</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44610.54930555556</v>
+        <v>44623.625</v>
       </c>
       <c r="B289" t="s">
         <v>4</v>
       </c>
       <c r="C289">
-        <v>-0.0050088740849763</v>
+        <v>-0.004939882351617908</v>
       </c>
       <c r="D289">
-        <v>80.49045257533417</v>
+        <v>62.84488495720615</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44610.57430555556</v>
+        <v>44624.40069444444</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
       </c>
       <c r="C290">
-        <v>0.001204208848996968</v>
+        <v>0.007888319570737323</v>
       </c>
       <c r="D290">
-        <v>82.15170634383347</v>
+        <v>62.72005852303081</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44610.58472222222</v>
+        <v>44624.40208333333</v>
       </c>
       <c r="B291" t="s">
         <v>4</v>
       </c>
       <c r="C291">
-        <v>-0.006765506806708732</v>
+        <v>0.001140514646523982</v>
       </c>
       <c r="D291">
-        <v>81.73374028142634</v>
+        <v>64.37444515007385</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44610.625</v>
+        <v>44624.44305555556</v>
       </c>
       <c r="B292" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C292">
-        <v>-0.02984948494002426</v>
+        <v>-0.007070807935172119</v>
       </c>
       <c r="D292">
-        <v>74.26820863209494</v>
+        <v>63.95260436582426</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44613.42430555556</v>
+        <v>44624.45138888889</v>
       </c>
       <c r="B293" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C293">
-        <v>0.005556461194810236</v>
+        <v>-0.00223823394143785</v>
       </c>
       <c r="D293">
-        <v>74.14341290282299</v>
+        <v>65.18573879078716</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44613.42847222222</v>
+        <v>44624.55277777778</v>
       </c>
       <c r="B294" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C294">
-        <v>-0.001139212331479511</v>
+        <v>-0.008124654275467047</v>
       </c>
       <c r="D294">
-        <v>75.65968639138165</v>
+        <v>64.769878977117</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44613.46597222222</v>
+        <v>44624.5875</v>
       </c>
       <c r="B295" t="s">
         <v>4</v>
       </c>
       <c r="C295">
-        <v>-0.005020372922706517</v>
+        <v>-0.002976651368717942</v>
       </c>
       <c r="D295">
-        <v>75.23153008172341</v>
+        <v>66.18555845824625</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44613.47222222222</v>
+        <v>44624.59166666667</v>
       </c>
       <c r="B296" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C296">
-        <v>0.0002884606244952792</v>
+        <v>-0.007043265760831696</v>
       </c>
       <c r="D296">
-        <v>76.72461173016329</v>
+        <v>65.77216191768161</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44613.47847222222</v>
+        <v>44624.625</v>
       </c>
       <c r="B297" t="s">
         <v>4</v>
       </c>
       <c r="C297">
-        <v>-0.00521344042583527</v>
+        <v>-0.01316559161099951</v>
       </c>
       <c r="D297">
-        <v>76.29709873878143</v>
+        <v>63.77819023863253</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44613.54375</v>
+        <v>44627.40416666667</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C298">
-        <v>-0.0009486795621245214</v>
+        <v>-0.007362541969728187</v>
       </c>
       <c r="D298">
-        <v>77.57394266240699</v>
+        <v>63.36439486151514</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44613.59097222222</v>
+        <v>44627.40833333333</v>
       </c>
       <c r="B299" t="s">
         <v>4</v>
       </c>
       <c r="C299">
-        <v>-0.005474446715143522</v>
+        <v>-0.002254950324667715</v>
       </c>
       <c r="D299">
-        <v>77.1464462710251</v>
+        <v>64.61675872659687</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44613.60486111111</v>
+        <v>44627.41597222222</v>
       </c>
       <c r="B300" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C300">
-        <v>-0.0001832612518415377</v>
+        <v>-0.00767357685336012</v>
       </c>
       <c r="D300">
-        <v>78.72654185022282</v>
+        <v>64.20698676522984</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44614.39722222222</v>
+        <v>44627.42013888889</v>
       </c>
       <c r="B301" t="s">
         <v>4</v>
       </c>
       <c r="C301">
-        <v>-0.007417827005222311</v>
+        <v>0.001035820541648413</v>
       </c>
       <c r="D301">
-        <v>78.30423020505194</v>
+        <v>66.7294663161956</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44614.40416666667</v>
+        <v>44627.42152777778</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C302">
-        <v>0.001508590093743489</v>
+        <v>-0.007665833008283052</v>
       </c>
       <c r="D302">
-        <v>80.80860413105496</v>
+        <v>66.32201172184197</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44614.40555555555</v>
+        <v>44627.425</v>
       </c>
       <c r="B303" t="s">
         <v>4</v>
       </c>
       <c r="C303">
-        <v>-0.00697259132767114</v>
+        <v>-0.002934075977636619</v>
       </c>
       <c r="D303">
-        <v>80.39152213818718</v>
+        <v>67.7242719616636</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44614.40625</v>
+        <v>44627.43680555555</v>
       </c>
       <c r="B304" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C304">
-        <v>7.554515817242979E-06</v>
+        <v>-0.009114505655874905</v>
       </c>
       <c r="D304">
-        <v>82.47183470609218</v>
+        <v>67.31206332719108</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44614.40694444445</v>
+        <v>44627.46458333333</v>
       </c>
       <c r="B305" t="s">
         <v>4</v>
       </c>
       <c r="C305">
-        <v>-0.00623781828655201</v>
+        <v>-0.002513078493908028</v>
       </c>
       <c r="D305">
-        <v>82.05596694977717</v>
+        <v>68.92073336612127</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44614.44166666667</v>
+        <v>44627.56527777778</v>
       </c>
       <c r="B306" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C306">
-        <v>-0.0004354194936008193</v>
+        <v>-0.007267111029529816</v>
       </c>
       <c r="D306">
-        <v>83.83412772927197</v>
+        <v>68.51894263625502</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44614.45138888889</v>
+        <v>44627.56666666667</v>
       </c>
       <c r="B307" t="s">
         <v>4</v>
       </c>
       <c r="C307">
-        <v>-0.006104469063488271</v>
+        <v>-0.002901838637389242</v>
       </c>
       <c r="D307">
-        <v>83.4176202546806</v>
+        <v>69.76582983684932</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44614.60555555556</v>
+        <v>44627.57291666666</v>
       </c>
       <c r="B308" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C308">
-        <v>-0.0007038958285818797</v>
+        <v>-0.007255963716739755</v>
       </c>
       <c r="D308">
-        <v>85.05326340891538</v>
+        <v>69.36677768618068</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44615.40416666667</v>
+        <v>44627.58611111111</v>
       </c>
       <c r="B309" t="s">
         <v>4</v>
       </c>
       <c r="C309">
-        <v>-0.006019770160336169</v>
+        <v>-0.002512332790308047</v>
       </c>
       <c r="D309">
-        <v>84.63149648202088</v>
+        <v>70.84224339435303</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44615.41041666667</v>
+        <v>44627.59027777778</v>
       </c>
       <c r="B310" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C310">
-        <v>0.0001984526003595555</v>
+        <v>-0.007289463016925568</v>
       </c>
       <c r="D310">
-        <v>86.27525439435369</v>
+        <v>70.43982194621039</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44615.44583333333</v>
+        <v>44627.61805555555</v>
       </c>
       <c r="B311" t="s">
         <v>4</v>
       </c>
       <c r="C311">
-        <v>-0.005936467892680097</v>
+        <v>-0.001428213600104034</v>
       </c>
       <c r="D311">
-        <v>85.8553752222883</v>
+        <v>71.82869218840953</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44615.45625</v>
+        <v>44627.61875</v>
       </c>
       <c r="B312" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C312">
-        <v>-6.492032284333149E-05</v>
+        <v>-0.01016870109905232</v>
       </c>
       <c r="D312">
-        <v>87.53925353254097</v>
+        <v>71.43045795601728</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44615.56944444445</v>
+        <v>44627.625</v>
       </c>
       <c r="B313" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C313">
-        <v>0.005857333596444136</v>
+        <v>-0.01530604440569328</v>
       </c>
       <c r="D313">
-        <v>87.41692511054987</v>
+        <v>69.76927548944967</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44615.57152777778</v>
+        <v>44628.42708333334</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
       </c>
       <c r="C314">
-        <v>-0.0007897900952908987</v>
+        <v>0.008619072433559083</v>
       </c>
       <c r="D314">
-        <v>89.03020330668662</v>
+        <v>69.65501664843929</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44615.575</v>
+        <v>44628.44027777778</v>
       </c>
       <c r="B315" t="s">
         <v>4</v>
       </c>
       <c r="C315">
-        <v>-0.005570391390283813</v>
+        <v>0.002786173354177524</v>
       </c>
       <c r="D315">
-        <v>88.61324561991098</v>
+        <v>71.18952214621051</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44615.625</v>
+        <v>44628.44513888889</v>
       </c>
       <c r="B316" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C316">
-        <v>-0.002406791524133478</v>
+        <v>-0.007087892999826373</v>
       </c>
       <c r="D316">
-        <v>89.72588318306103</v>
+        <v>70.80360254888508</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44616.40694444445</v>
+        <v>44628.625</v>
       </c>
       <c r="B317" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C317">
-        <v>0.005233312263667411</v>
+        <v>-0.01813826645822469</v>
       </c>
       <c r="D317">
-        <v>89.60287891352168</v>
+        <v>67.02930875512583</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44616.625</v>
+        <v>44629.39583333334</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
       </c>
       <c r="C318">
-        <v>0.0121934332459378</v>
+        <v>0.009744145423788764</v>
       </c>
       <c r="D318">
-        <v>87.75341621545331</v>
+        <v>66.91791152689404</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44617.39583333334</v>
+        <v>44629.39722222222</v>
       </c>
       <c r="B319" t="s">
         <v>4</v>
       </c>
       <c r="C319">
-        <v>-0.01074463226731859</v>
+        <v>0.001908462437065328</v>
       </c>
       <c r="D319">
-        <v>87.33780137741468</v>
+        <v>68.74635146151508</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44617.4</v>
+        <v>44629.39930555555</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
       </c>
       <c r="C320">
-        <v>-0.0001088012960273055</v>
+        <v>0.01268940464748125</v>
       </c>
       <c r="D320">
-        <v>90.28084553789017</v>
+        <v>68.63527557473944</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44617.40138888889</v>
+        <v>44629.40277777778</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
       </c>
       <c r="C321">
-        <v>-0.005131279829390101</v>
+        <v>0.0003883558655213282</v>
       </c>
       <c r="D321">
-        <v>89.86593543031216</v>
+        <v>71.62440291025214</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44617.40208333333</v>
+        <v>44629.40416666667</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
       </c>
       <c r="C322">
-        <v>0.0001079135537069842</v>
+        <v>0.007693252107629389</v>
       </c>
       <c r="D322">
-        <v>91.29147064576539</v>
+        <v>71.5134877881125</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44617.40486111111</v>
+        <v>44629.40972222222</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
       </c>
       <c r="C323">
-        <v>-0.005647731056406702</v>
+        <v>0.002915558044008337</v>
       </c>
       <c r="D323">
-        <v>90.87701395037165</v>
+        <v>72.42940118335767</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44617.40625</v>
+        <v>44629.4125</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
       </c>
       <c r="C324">
-        <v>0.0003613732160057115</v>
+        <v>0.00830964974352999</v>
       </c>
       <c r="D324">
-        <v>92.47591004011909</v>
+        <v>72.31851217889999</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44617.4125</v>
+        <v>44629.41805555556</v>
       </c>
       <c r="B325" t="s">
         <v>4</v>
       </c>
       <c r="C325">
-        <v>-0.007187552835037136</v>
+        <v>0.0002545980043681118</v>
       </c>
       <c r="D325">
-        <v>92.05944228380409</v>
+        <v>74.28310352005899</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44617.41597222222</v>
+        <v>44629.42430555556</v>
       </c>
       <c r="B326" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C326">
-        <v>0.0001911599536008612</v>
+        <v>-0.007271206255524465</v>
       </c>
       <c r="D326">
-        <v>94.17517470222909</v>
+        <v>73.90498971768159</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44617.42222222222</v>
+        <v>44629.59166666667</v>
       </c>
       <c r="B327" t="s">
         <v>4</v>
       </c>
       <c r="C327">
-        <v>-0.005707260136425862</v>
+        <v>-0.0004784927438719055</v>
       </c>
       <c r="D327">
-        <v>93.75671899108494</v>
+        <v>75.08644473462073</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44617.42847222222</v>
+        <v>44629.59652777778</v>
       </c>
       <c r="B328" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C328">
-        <v>0.002166794407304717</v>
+        <v>-0.007983723980125812</v>
       </c>
       <c r="D328">
-        <v>96.01242047815778</v>
+        <v>74.72346197087629</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44617.44166666667</v>
+        <v>44629.6</v>
       </c>
       <c r="B329" t="s">
         <v>4</v>
       </c>
       <c r="C329">
-        <v>-0.006894144768322175</v>
+        <v>-0.002264534751345249</v>
       </c>
       <c r="D329">
-        <v>95.59467048529001</v>
+        <v>76.17400313254046</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44617.45138888889</v>
+        <v>44629.60416666666</v>
       </c>
       <c r="B330" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C330">
-        <v>0.000155494192665806</v>
+        <v>-0.007304978284169428</v>
       </c>
       <c r="D330">
-        <v>97.59468312540889</v>
+        <v>75.8090956139669</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44617.45625</v>
+        <v>44629.60833333333</v>
       </c>
       <c r="B331" t="s">
         <v>4</v>
       </c>
       <c r="C331">
-        <v>-0.007115513133092888</v>
+        <v>-0.00188604346704091</v>
       </c>
       <c r="D331">
-        <v>97.17778955690963</v>
+        <v>77.29867567191631</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44617.47013888889</v>
+        <v>44629.61805555555</v>
       </c>
       <c r="B332" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C332">
-        <v>0.001420392747036425</v>
+        <v>-0.009297578762176295</v>
       </c>
       <c r="D332">
-        <v>99.53417589004479</v>
+        <v>76.92864110103966</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44617.57847222222</v>
+        <v>44629.625</v>
       </c>
       <c r="B333" t="s">
         <v>4</v>
       </c>
       <c r="C333">
-        <v>-0.005019758249239503</v>
+        <v>-0.006241410391488178</v>
       </c>
       <c r="D333">
-        <v>99.11968019465104</v>
+        <v>77.67043669479894</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44617.59791666667</v>
+        <v>44630.39791666667</v>
       </c>
       <c r="B334" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C334">
-        <v>-0.0004266684257276943</v>
+        <v>-0.007132165752629094</v>
       </c>
       <c r="D334">
-        <v>100.3710717898963</v>
+        <v>77.29057023150025</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44620.39652777778</v>
+        <v>44630.39861111111</v>
       </c>
       <c r="B335" t="s">
         <v>4</v>
       </c>
       <c r="C335">
-        <v>-0.005567998521382567</v>
+        <v>0.00065151536836483</v>
       </c>
       <c r="D335">
-        <v>99.95259818484426</v>
+        <v>79.27600828766663</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44620.4125</v>
+        <v>44630.40694444445</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
       </c>
       <c r="C336">
-        <v>-0.0007252632321497199</v>
+        <v>0.007811302738760295</v>
       </c>
       <c r="D336">
-        <v>101.1431205230316</v>
+        <v>79.16613086002918</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44620.42430555556</v>
+        <v>44630.61736111111</v>
       </c>
       <c r="B337" t="s">
         <v>4</v>
       </c>
       <c r="C337">
-        <v>-0.005840886050674676</v>
+        <v>0.001559849896331289</v>
       </c>
       <c r="D337">
-        <v>100.7250859301638</v>
+        <v>80.78035583774097</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44620.4375</v>
+        <v>44631.56736111111</v>
       </c>
       <c r="B338" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C338">
-        <v>-0.0003278803271244968</v>
+        <v>-0.008441021941413607</v>
       </c>
       <c r="D338">
-        <v>102.157406048143</v>
+        <v>80.41334804606191</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44620.46180555555</v>
+        <v>44631.57361111111</v>
       </c>
       <c r="B339" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C339">
-        <v>0.006681936564602475</v>
+        <v>-0.002880463846230419</v>
       </c>
       <c r="D339">
-        <v>102.0337056023778</v>
+        <v>81.80840402525946</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44620.47430555556</v>
+        <v>44631.60416666666</v>
       </c>
       <c r="B340" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C340">
-        <v>0.0006497109377068266</v>
+        <v>-0.008345699404423423</v>
       </c>
       <c r="D340">
-        <v>103.1933291280836</v>
+        <v>81.44097222139615</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44620.47708333333</v>
+        <v>44631.60833333333</v>
       </c>
       <c r="B341" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C341">
-        <v>0.01244054170049091</v>
+        <v>-0.002806299190441286</v>
       </c>
       <c r="D341">
-        <v>103.0672703164937</v>
+        <v>82.77609618751809</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44620.625</v>
+        <v>44634.4</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
       </c>
       <c r="C342">
-        <v>0.02225468919332418</v>
+        <v>0.01069896337124621</v>
       </c>
       <c r="D342">
-        <v>99.70104039078787</v>
+        <v>82.67031062080189</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44621.39583333334</v>
+        <v>44634.625</v>
       </c>
       <c r="B343" t="s">
         <v>4</v>
       </c>
       <c r="C343">
-        <v>-0.006456764085567723</v>
+        <v>0.01422504726345186</v>
       </c>
       <c r="D343">
-        <v>99.27424688469573</v>
+        <v>81.56461586002931</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44621.40486111111</v>
+        <v>44635.40902777778</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C344">
-        <v>0.001525610123531473</v>
+        <v>-0.009031970418545643</v>
       </c>
       <c r="D344">
-        <v>102.2634865167908</v>
+        <v>81.21564069836511</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44621.41736111111</v>
+        <v>44635.40972222222</v>
       </c>
       <c r="B345" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C345">
-        <v>0.007546399517927016</v>
+        <v>0.001650736541835895</v>
       </c>
       <c r="D345">
-        <v>102.1350942692425</v>
+        <v>83.88078835482875</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44621.42083333333</v>
+        <v>44635.41319444445</v>
       </c>
       <c r="B346" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C346">
-        <v>0.0001553178668276534</v>
+        <v>-0.008874037038926641</v>
       </c>
       <c r="D346">
-        <v>104.1933585759289</v>
+        <v>83.53599491500705</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44621.44236111111</v>
+        <v>44635.41527777778</v>
       </c>
       <c r="B347" t="s">
         <v>4</v>
       </c>
       <c r="C347">
-        <v>-0.008215727628803737</v>
+        <v>-0.001837727888772345</v>
       </c>
       <c r="D347">
-        <v>103.7658358454683</v>
+        <v>85.25024726953902</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44621.5625</v>
+        <v>44635.43472222222</v>
       </c>
       <c r="B348" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C348">
-        <v>0.002294817716179676</v>
+        <v>-0.007150389398943746</v>
       </c>
       <c r="D348">
-        <v>106.5905492184252</v>
+        <v>84.90201033224332</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44621.58958333333</v>
+        <v>44635.43680555555</v>
       </c>
       <c r="B349" t="s">
         <v>4</v>
       </c>
       <c r="C349">
-        <v>-0.005156221753540136</v>
+        <v>0.0002292030353375774</v>
       </c>
       <c r="D349">
-        <v>106.1651498549779</v>
+        <v>86.75028243714674</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44621.625</v>
+        <v>44635.54722222222</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
       </c>
       <c r="C350">
-        <v>-0.01676333232901461</v>
+        <v>0.007823203341444485</v>
       </c>
       <c r="D350">
-        <v>102.0488399833583</v>
+        <v>86.65008627399665</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44622.39861111111</v>
+        <v>44635.56736111111</v>
       </c>
       <c r="B351" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C351">
-        <v>0.006604520529611912</v>
+        <v>0.002868176645823284</v>
       </c>
       <c r="D351">
-        <v>101.9229542071324</v>
+        <v>87.65124947904872</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44622.40138888889</v>
+        <v>44635.57152777778</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
       </c>
       <c r="C352">
-        <v>-0.001398830793272299</v>
+        <v>0.009263524709253956</v>
       </c>
       <c r="D352">
-        <v>104.2502350136703</v>
+        <v>87.55140333967279</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44622.40416666667</v>
+        <v>44635.58263888889</v>
       </c>
       <c r="B353" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C353">
-        <v>0.006108904761381373</v>
+        <v>0.002698087719570696</v>
       </c>
       <c r="D353">
-        <v>104.125753426449</v>
+        <v>89.06487414323892</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44622.41319444445</v>
+        <v>44635.58611111111</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
       </c>
       <c r="C354">
-        <v>0.0005253458847213066</v>
+        <v>0.009862385015848907</v>
       </c>
       <c r="D354">
-        <v>105.3847209432395</v>
+        <v>88.96694556968765</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44622.41875</v>
+        <v>44635.59513888889</v>
       </c>
       <c r="B355" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C355">
-        <v>0.006450549564298247</v>
+        <v>-0.0002091951830319738</v>
       </c>
       <c r="D355">
-        <v>105.2597805322439</v>
+        <v>91.15053640861785</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44622.57152777778</v>
+        <v>44635.60694444444</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
       </c>
       <c r="C356">
-        <v>0.0006485973557575075</v>
+        <v>0.00861016407769799</v>
       </c>
       <c r="D356">
-        <v>106.381547962556</v>
+        <v>91.05346616493283</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44622.57777777778</v>
+        <v>44635.625</v>
       </c>
       <c r="B357" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C357">
-        <v>0.005180702230473733</v>
+        <v>0.01183009739964458</v>
       </c>
       <c r="D357">
-        <v>106.2558177040122</v>
+        <v>90.00374363060891</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44622.625</v>
+        <v>44636.4125</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
       </c>
       <c r="C358">
-        <v>0.01151747030033468</v>
+        <v>0.007984429442006391</v>
       </c>
       <c r="D358">
-        <v>103.7724840487373</v>
+        <v>89.90683559910816</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44623.42291666667</v>
+        <v>44636.42222222222</v>
       </c>
       <c r="B359" t="s">
         <v>4</v>
       </c>
       <c r="C359">
-        <v>-0.005035875633138009</v>
+        <v>0.0008721430251954487</v>
       </c>
       <c r="D359">
-        <v>103.3495521462113</v>
+        <v>91.28067283417502</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44623.44375</v>
+        <v>44636.42361111111</v>
       </c>
       <c r="B360" t="s">
         <v>5</v>
       </c>
       <c r="C360">
-        <v>-0.0009951898382990487</v>
+        <v>0.008230638704928239</v>
       </c>
       <c r="D360">
-        <v>104.400486106984</v>
+        <v>91.18381392035633</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44623.44513888889</v>
+        <v>44636.43888888889</v>
       </c>
       <c r="B361" t="s">
         <v>4</v>
       </c>
       <c r="C361">
-        <v>-0.005448387302372848</v>
+        <v>0.001521987197695251</v>
       </c>
       <c r="D361">
-        <v>103.9782155227343</v>
+        <v>92.4674503575034</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44623.46736111111</v>
+        <v>44636.45972222222</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
       </c>
       <c r="C362">
-        <v>0.001445507953825587</v>
+        <v>0.007794443624319025</v>
       </c>
       <c r="D362">
-        <v>106.1233154864788</v>
+        <v>92.37134885586892</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44623.46875</v>
+        <v>44636.46666666667</v>
       </c>
       <c r="B363" t="s">
         <v>4</v>
       </c>
       <c r="C363">
-        <v>-0.005515452128955656</v>
+        <v>-0.0008318598534449162</v>
       </c>
       <c r="D363">
-        <v>105.6999927717685</v>
+        <v>94.26732170995511</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44623.56736111111</v>
+        <v>44636.54166666666</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
       </c>
       <c r="C364">
-        <v>0.0001751153801454741</v>
+        <v>0.01218234371282656</v>
       </c>
       <c r="D364">
-        <v>107.1832815916794</v>
+        <v>94.17051226686446</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44623.57916666667</v>
+        <v>44636.54305555556</v>
       </c>
       <c r="B365" t="s">
         <v>4</v>
       </c>
       <c r="C365">
-        <v>-0.005829406096870438</v>
+        <v>0.002591756662622569</v>
       </c>
       <c r="D365">
-        <v>106.7635720805353</v>
+        <v>96.09196336047519</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44623.625</v>
+        <v>44636.54444444444</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
       </c>
       <c r="C366">
-        <v>-0.004939882351617908</v>
+        <v>0.009675787194136198</v>
       </c>
       <c r="D366">
-        <v>106.90149958425</v>
+        <v>95.9948488936104</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44624.40069444444</v>
+        <v>44636.54722222222</v>
       </c>
       <c r="B367" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C367">
-        <v>0.007888319570737323</v>
+        <v>0.001792745305569055</v>
       </c>
       <c r="D367">
-        <v>106.7766731500746</v>
+        <v>97.45338426062378</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>44624.40277777778</v>
+        <v>44636.55972222222</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
       </c>
       <c r="C368">
-        <v>-0.0002800779764653427</v>
+        <v>0.0134873042929835</v>
       </c>
       <c r="D368">
-        <v>108.942020665082</v>
+        <v>97.35307642733994</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>44624.41319444445</v>
+        <v>44636.57638888889</v>
       </c>
       <c r="B369" t="s">
         <v>4</v>
       </c>
       <c r="C369">
-        <v>-0.005213390869306056</v>
+        <v>0.001184419984934237</v>
       </c>
       <c r="D369">
-        <v>108.5217479295694</v>
+        <v>99.80976313194626</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>44624.41666666666</v>
+        <v>44636.57916666667</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
       </c>
       <c r="C370">
-        <v>0.001685652086450995</v>
+        <v>0.009741854890953805</v>
       </c>
       <c r="D370">
-        <v>110.5692681459141</v>
+        <v>99.708230591976</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>44624.41944444444</v>
+        <v>44636.58125</v>
       </c>
       <c r="B371" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C371">
-        <v>0.006287893840356329</v>
+        <v>0.0006879237147112693</v>
       </c>
       <c r="D371">
-        <v>110.4451091708769</v>
+        <v>101.57640846419</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>44624.42430555556</v>
+        <v>44636.58958333333</v>
       </c>
       <c r="B372" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C372">
-        <v>-0.0003580420910499482</v>
+        <v>-0.007578570308221622</v>
       </c>
       <c r="D372">
-        <v>112.0841166487372</v>
+        <v>101.2264523964337</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>44624.43194444444</v>
+        <v>44636.59166666667</v>
       </c>
       <c r="B373" t="s">
         <v>4</v>
       </c>
       <c r="C373">
-        <v>-0.005201503271636598</v>
+        <v>-0.001200854530464701</v>
       </c>
       <c r="D373">
-        <v>111.662787382764</v>
+        <v>102.6854738407131</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>44624.47222222222</v>
+        <v>44636.59722222222</v>
       </c>
       <c r="B374" t="s">
         <v>5</v>
       </c>
       <c r="C374">
-        <v>-0.0006012623393648608</v>
+        <v>0.009205363774340558</v>
       </c>
       <c r="D374">
-        <v>112.8046536885589</v>
+        <v>102.5828641824664</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>44624.55069444444</v>
+        <v>44636.625</v>
       </c>
       <c r="B375" t="s">
         <v>4</v>
       </c>
       <c r="C375">
-        <v>-0.005098439343687255</v>
+        <v>0.03637924637352619</v>
       </c>
       <c r="D375">
-        <v>112.3885964748888</v>
+        <v>95.59557479286754</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2">
-        <v>44624.625</v>
+        <v>44637.39652777778</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
       </c>
       <c r="C376">
-        <v>-0.01316559161099951</v>
+        <v>0.03216219826575872</v>
       </c>
       <c r="D376">
-        <v>109.5726857170878</v>
+        <v>95.48774513343216</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2">
-        <v>44627.39652777778</v>
+        <v>44637.39930555555</v>
       </c>
       <c r="B377" t="s">
         <v>4</v>
       </c>
       <c r="C377">
-        <v>-0.005223080100038802</v>
+        <v>0.002072138770138343</v>
       </c>
       <c r="D377">
-        <v>109.1551717364043</v>
+        <v>103.1373407129269</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2">
-        <v>44627.39930555555</v>
+        <v>44637.41805555556</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
       </c>
       <c r="C378">
-        <v>0.00142723844924264</v>
+        <v>0.01134301487458345</v>
       </c>
       <c r="D378">
-        <v>111.2196317340269</v>
+        <v>103.0313868656759</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
-        <v>44627.40416666667</v>
+        <v>44637.42430555556</v>
       </c>
       <c r="B379" t="s">
         <v>4</v>
       </c>
       <c r="C379">
-        <v>-0.007362541969728187</v>
+        <v>-0.001067033260387484</v>
       </c>
       <c r="D379">
-        <v>110.8058363569095</v>
+        <v>105.6274777904902</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2">
-        <v>44627.40972222222</v>
+        <v>44637.42569444444</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
       </c>
       <c r="C380">
-        <v>5.258166410460063E-05</v>
+        <v>0.01019765046167631</v>
       </c>
       <c r="D380">
-        <v>112.8341014386331</v>
+        <v>105.5205874603267</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
-        <v>44627.4125</v>
+        <v>44637.625</v>
       </c>
       <c r="B381" t="s">
         <v>4</v>
       </c>
       <c r="C381">
-        <v>-0.006026757374817282</v>
+        <v>0.01456738999421736</v>
       </c>
       <c r="D381">
-        <v>112.4250673016346</v>
+        <v>104.4143208630014</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2">
-        <v>44627.42013888889</v>
+        <v>44638.39583333334</v>
       </c>
       <c r="B382" t="s">
         <v>5</v>
       </c>
       <c r="C382">
-        <v>0.001035820541648413</v>
+        <v>0.01126739367619967</v>
       </c>
       <c r="D382">
-        <v>114.4761932121843</v>
+        <v>104.3086923340266</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2">
-        <v>44627.42083333333</v>
+        <v>44638.39652777778</v>
       </c>
       <c r="B383" t="s">
         <v>4</v>
       </c>
       <c r="C383">
-        <v>-0.005725187190724235</v>
+        <v>0.001919928624791067</v>
       </c>
       <c r="D383">
-        <v>114.0679826995543</v>
+        <v>106.5338172641901</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2">
-        <v>44627.42569444444</v>
+        <v>44638.40138888889</v>
       </c>
       <c r="B384" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C384">
-        <v>-0.000989357471185115</v>
+        <v>-0.007399158331496958</v>
       </c>
       <c r="D384">
-        <v>115.3774862808322</v>
+        <v>106.1787567233283</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2">
-        <v>44627.43125</v>
+        <v>44638.625</v>
       </c>
       <c r="B385" t="s">
         <v>4</v>
       </c>
       <c r="C385">
-        <v>-0.005411475422374079</v>
+        <v>-0.01898516062109312</v>
       </c>
       <c r="D385">
-        <v>114.9694664742943</v>
+        <v>103.559414060624</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2">
-        <v>44627.47083333333</v>
+        <v>44641.4</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
       </c>
       <c r="C386">
-        <v>0.0007638108130847421</v>
+        <v>0.01587475942869165</v>
       </c>
       <c r="D386">
-        <v>116.7245709010403</v>
+        <v>103.447757504309</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2">
-        <v>44627.56527777778</v>
+        <v>44641.40069444444</v>
       </c>
       <c r="B387" t="s">
         <v>4</v>
       </c>
       <c r="C387">
-        <v>-0.007267111029529816</v>
+        <v>0.001368594494900899</v>
       </c>
       <c r="D387">
-        <v>116.322780171174</v>
+        <v>107.0800853824665</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2">
-        <v>44627.56875</v>
+        <v>44641.40138888889</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
       </c>
       <c r="C388">
-        <v>-0.0007624341295153769</v>
+        <v>0.01151331155021618</v>
       </c>
       <c r="D388">
-        <v>118.1714341384846</v>
+        <v>106.9691713676077</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2">
-        <v>44627.57152777778</v>
+        <v>44641.625</v>
       </c>
       <c r="B389" t="s">
         <v>4</v>
       </c>
       <c r="C389">
-        <v>-0.006647622543958231</v>
+        <v>0.02214412419112177</v>
       </c>
       <c r="D389">
-        <v>117.7723431878159</v>
+        <v>102.768787415156</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2">
-        <v>44627.625</v>
+        <v>44642.39583333334</v>
       </c>
       <c r="B390" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C390">
-        <v>-0.01530604440569328</v>
+        <v>-0.008229076790336354</v>
       </c>
       <c r="D390">
-        <v>114.9479259515604</v>
+        <v>102.382822184844</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2">
-        <v>44628.39722222222</v>
+        <v>44642.625</v>
       </c>
       <c r="B391" t="s">
         <v>4</v>
       </c>
       <c r="C391">
-        <v>-0.006501997568177709</v>
+        <v>-0.02194420477423054</v>
       </c>
       <c r="D391">
-        <v>114.5457853851413</v>
+        <v>98.01241861872214</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2">
-        <v>44628.39930555555</v>
+        <v>44643.4</v>
       </c>
       <c r="B392" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C392">
-        <v>0.001294076776098607</v>
+        <v>-0.007386922597679924</v>
       </c>
       <c r="D392">
-        <v>116.4652198576524</v>
+        <v>97.63405217117385</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2">
-        <v>44628.40069444444</v>
+        <v>44643.40555555555</v>
       </c>
       <c r="B393" t="s">
         <v>4</v>
       </c>
       <c r="C393">
-        <v>-0.005872329338196813</v>
+        <v>-0.0002357299670692203</v>
       </c>
       <c r="D393">
-        <v>116.0687165557208</v>
+        <v>99.55617946329862</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2">
-        <v>44628.40138888889</v>
+        <v>44643.40694444445</v>
       </c>
       <c r="B394" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C394">
-        <v>0.0008507903421920426</v>
+        <v>-0.007780205150265562</v>
       </c>
       <c r="D394">
-        <v>117.8270910888559</v>
+        <v>99.17994427667159</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2">
-        <v>44628.40208333333</v>
+        <v>44643.45555555556</v>
       </c>
       <c r="B395" t="s">
         <v>4</v>
       </c>
       <c r="C395">
-        <v>-0.006319958311620466</v>
+        <v>-0.0008097353665412754</v>
       </c>
       <c r="D395">
-        <v>117.4316659173849</v>
+        <v>100.883535079049</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>44628.40763888889</v>
+        <v>44643.54791666667</v>
       </c>
       <c r="B396" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C396">
-        <v>-0.000142435296161314</v>
+        <v>-0.007686007357522229</v>
       </c>
       <c r="D396">
-        <v>119.3065081164933</v>
+        <v>100.5104562838038</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>44628.40902777778</v>
+        <v>44643.57638888889</v>
       </c>
       <c r="B397" t="s">
         <v>4</v>
       </c>
       <c r="C397">
-        <v>-0.00501302761855138</v>
+        <v>-0.001043677871065407</v>
       </c>
       <c r="D397">
-        <v>118.9070099292719</v>
+        <v>102.2421385013373</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>44628.42083333333</v>
+        <v>44643.59236111111</v>
       </c>
       <c r="B398" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C398">
-        <v>-0.0007660239708180416</v>
+        <v>-0.007449242738896911</v>
       </c>
       <c r="D398">
-        <v>119.8061200927192</v>
+        <v>101.8686240939079</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2">
-        <v>44628.42361111111</v>
+        <v>44643.625</v>
       </c>
       <c r="B399" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C399">
-        <v>0.006001042209484053</v>
+        <v>-0.01056160441451337</v>
       </c>
       <c r="D399">
-        <v>119.6914653925706</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="2">
-        <v>44628.44097222222</v>
-      </c>
-      <c r="B400" t="s">
-        <v>5</v>
-      </c>
-      <c r="C400">
-        <v>-0.001124370331770042</v>
-      </c>
-      <c r="D400">
-        <v>121.6714250154532</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="2">
-        <v>44628.44444444445</v>
-      </c>
-      <c r="B401" t="s">
-        <v>4</v>
-      </c>
-      <c r="C401">
-        <v>-0.005759597012332751</v>
-      </c>
-      <c r="D401">
-        <v>121.2856351242199</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="2">
-        <v>44628.625</v>
-      </c>
-      <c r="B402" t="s">
-        <v>5</v>
-      </c>
-      <c r="C402">
-        <v>-0.01813826645822469</v>
-      </c>
-      <c r="D402">
-        <v>117.1197529203566</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="2">
-        <v>44629.39583333334</v>
-      </c>
-      <c r="B403" t="s">
-        <v>3</v>
-      </c>
-      <c r="C403">
-        <v>0.009744145423788764</v>
-      </c>
-      <c r="D403">
-        <v>117.0083556921248</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="2">
-        <v>44629.39791666667</v>
-      </c>
-      <c r="B404" t="s">
-        <v>5</v>
-      </c>
-      <c r="C404">
-        <v>0.0007563789734414961</v>
-      </c>
-      <c r="D404">
-        <v>119.2917997625557</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="2">
-        <v>44629.39930555555</v>
-      </c>
-      <c r="B405" t="s">
-        <v>3</v>
-      </c>
-      <c r="C405">
-        <v>0.01268940464748125</v>
-      </c>
-      <c r="D405">
-        <v>119.18072387578</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="2">
-        <v>44629.40277777778</v>
-      </c>
-      <c r="B406" t="s">
-        <v>5</v>
-      </c>
-      <c r="C406">
-        <v>0.0003883558655213282</v>
-      </c>
-      <c r="D406">
-        <v>122.1698512112928</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="2">
-        <v>44629.40416666667</v>
-      </c>
-      <c r="B407" t="s">
-        <v>3</v>
-      </c>
-      <c r="C407">
-        <v>0.007693252107629389</v>
-      </c>
-      <c r="D407">
-        <v>122.058936089153</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="2">
-        <v>44629.41805555556</v>
-      </c>
-      <c r="B408" t="s">
-        <v>5</v>
-      </c>
-      <c r="C408">
-        <v>0.0002545980043681118</v>
-      </c>
-      <c r="D408">
-        <v>123.856939020208</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="2">
-        <v>44629.42222222222</v>
-      </c>
-      <c r="B409" t="s">
-        <v>4</v>
-      </c>
-      <c r="C409">
-        <v>-0.005392204732104999</v>
-      </c>
-      <c r="D409">
-        <v>123.4795572421991</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="2">
-        <v>44629.59166666667</v>
-      </c>
-      <c r="B410" t="s">
-        <v>5</v>
-      </c>
-      <c r="C410">
-        <v>-0.0004784927438719055</v>
-      </c>
-      <c r="D410">
-        <v>124.1606586187222</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="2">
-        <v>44629.59375</v>
-      </c>
-      <c r="B411" t="s">
-        <v>4</v>
-      </c>
-      <c r="C411">
-        <v>-0.006101188787910217</v>
-      </c>
-      <c r="D411">
-        <v>123.7984076793463</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="2">
-        <v>44629.60138888889</v>
-      </c>
-      <c r="B412" t="s">
-        <v>5</v>
-      </c>
-      <c r="C412">
-        <v>0.001924402037606021</v>
-      </c>
-      <c r="D412">
-        <v>125.9250075283805</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="2">
-        <v>44629.60416666666</v>
-      </c>
-      <c r="B413" t="s">
-        <v>4</v>
-      </c>
-      <c r="C413">
-        <v>-0.007304978284169428</v>
-      </c>
-      <c r="D413">
-        <v>125.5601000098069</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="2">
-        <v>44629.61041666667</v>
-      </c>
-      <c r="B414" t="s">
-        <v>5</v>
-      </c>
-      <c r="C414">
-        <v>0.001416397592145069</v>
-      </c>
-      <c r="D414">
-        <v>127.9918437399704</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="2">
-        <v>44629.61527777778</v>
-      </c>
-      <c r="B415" t="s">
-        <v>4</v>
-      </c>
-      <c r="C415">
-        <v>-0.006901925169326195</v>
-      </c>
-      <c r="D415">
-        <v>127.6202064264488</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="2">
-        <v>44629.625</v>
-      </c>
-      <c r="B416" t="s">
-        <v>5</v>
-      </c>
-      <c r="C416">
-        <v>-0.006241410391488178</v>
-      </c>
-      <c r="D416">
-        <v>127.6291208909361</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="2">
-        <v>44630.39583333334</v>
-      </c>
-      <c r="B417" t="s">
-        <v>4</v>
-      </c>
-      <c r="C417">
-        <v>-0.005500922535216501</v>
-      </c>
-      <c r="D417">
-        <v>127.246652154532</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="2">
-        <v>44630.39722222222</v>
-      </c>
-      <c r="B418" t="s">
-        <v>5</v>
-      </c>
-      <c r="C418">
-        <v>0.004178234860794383</v>
-      </c>
-      <c r="D418">
-        <v>129.7311145818722</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="2">
-        <v>44630.39791666667</v>
-      </c>
-      <c r="B419" t="s">
-        <v>4</v>
-      </c>
-      <c r="C419">
-        <v>-0.007132165752629094</v>
-      </c>
-      <c r="D419">
-        <v>129.3512481185736</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="2">
-        <v>44630.39861111111</v>
-      </c>
-      <c r="B420" t="s">
-        <v>5</v>
-      </c>
-      <c r="C420">
-        <v>0.00065151536836483</v>
-      </c>
-      <c r="D420">
-        <v>131.33668617474</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="2">
-        <v>44630.40277777778</v>
-      </c>
-      <c r="B421" t="s">
-        <v>3</v>
-      </c>
-      <c r="C421">
-        <v>0.006011660481411552</v>
-      </c>
-      <c r="D421">
-        <v>131.2269075471025</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="2">
-        <v>44630.61944444444</v>
-      </c>
-      <c r="B422" t="s">
-        <v>5</v>
-      </c>
-      <c r="C422">
-        <v>-0.001132502831256987</v>
-      </c>
-      <c r="D422">
-        <v>133.0369334528975</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="2">
-        <v>44630.62152777778</v>
-      </c>
-      <c r="B423" t="s">
-        <v>4</v>
-      </c>
-      <c r="C423">
-        <v>-0.006228765571913986</v>
-      </c>
-      <c r="D423">
-        <v>132.6651837271917</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="2">
-        <v>44630.625</v>
-      </c>
-      <c r="B424" t="s">
-        <v>5</v>
-      </c>
-      <c r="C424">
-        <v>-0.0002415540385061199</v>
-      </c>
-      <c r="D424">
-        <v>134.1463406285289</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="2">
-        <v>44631.39722222222</v>
-      </c>
-      <c r="B425" t="s">
-        <v>4</v>
-      </c>
-      <c r="C425">
-        <v>-0.006332120568682709</v>
-      </c>
-      <c r="D425">
-        <v>133.7859172317979</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="2">
-        <v>44631.39861111111</v>
-      </c>
-      <c r="B426" t="s">
-        <v>5</v>
-      </c>
-      <c r="C426">
-        <v>0.0004819962336916062</v>
-      </c>
-      <c r="D426">
-        <v>135.5340846490342</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="2">
-        <v>44631.46388888889</v>
-      </c>
-      <c r="B427" t="s">
-        <v>4</v>
-      </c>
-      <c r="C427">
-        <v>-0.006379262606445502</v>
-      </c>
-      <c r="D427">
-        <v>135.1694761304606</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="2">
-        <v>44631.47152777778</v>
-      </c>
-      <c r="B428" t="s">
-        <v>5</v>
-      </c>
-      <c r="C428">
-        <v>-0.0003668874071763861</v>
-      </c>
-      <c r="D428">
-        <v>136.7028250662703</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="2">
-        <v>44631.47847222222</v>
-      </c>
-      <c r="B429" t="s">
-        <v>4</v>
-      </c>
-      <c r="C429">
-        <v>-0.00513379567323935</v>
-      </c>
-      <c r="D429">
-        <v>136.3404513147102</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="2">
-        <v>44631.54236111111</v>
-      </c>
-      <c r="B430" t="s">
-        <v>5</v>
-      </c>
-      <c r="C430">
-        <v>0.001010984390914627</v>
-      </c>
-      <c r="D430">
-        <v>137.9040424728083</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="2">
-        <v>44631.55902777778</v>
-      </c>
-      <c r="B431" t="s">
-        <v>4</v>
-      </c>
-      <c r="C431">
-        <v>-0.006052611982383937</v>
-      </c>
-      <c r="D431">
-        <v>137.5398347664189</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="2">
-        <v>44631.56319444445</v>
-      </c>
-      <c r="B432" t="s">
-        <v>5</v>
-      </c>
-      <c r="C432">
-        <v>-0.0008623569072331305</v>
-      </c>
-      <c r="D432">
-        <v>138.8473325375928</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="2">
-        <v>44631.56527777778</v>
-      </c>
-      <c r="B433" t="s">
-        <v>4</v>
-      </c>
-      <c r="C433">
-        <v>-0.005060188290830325</v>
-      </c>
-      <c r="D433">
-        <v>138.4813951824665</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="2">
-        <v>44631.57430555556</v>
-      </c>
-      <c r="B434" t="s">
-        <v>5</v>
-      </c>
-      <c r="C434">
-        <v>0.001641865153204414</v>
-      </c>
-      <c r="D434">
-        <v>140.1768657233283</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="2">
-        <v>44631.59861111111</v>
-      </c>
-      <c r="B435" t="s">
-        <v>4</v>
-      </c>
-      <c r="C435">
-        <v>-0.00587941306100459</v>
-      </c>
-      <c r="D435">
-        <v>139.8113921803863</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="2">
-        <v>44631.625</v>
-      </c>
-      <c r="B436" t="s">
-        <v>5</v>
-      </c>
-      <c r="C436">
-        <v>-0.01070652947204731</v>
-      </c>
-      <c r="D436">
-        <v>138.4800298731055</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="2">
-        <v>44634.4</v>
-      </c>
-      <c r="B437" t="s">
-        <v>3</v>
-      </c>
-      <c r="C437">
-        <v>0.01069896337124621</v>
-      </c>
-      <c r="D437">
-        <v>138.3742443063892</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="2">
-        <v>44634.625</v>
-      </c>
-      <c r="B438" t="s">
-        <v>5</v>
-      </c>
-      <c r="C438">
-        <v>0.01422504726345186</v>
-      </c>
-      <c r="D438">
-        <v>137.2685495456166</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="2">
-        <v>44635.39861111111</v>
-      </c>
-      <c r="B439" t="s">
-        <v>3</v>
-      </c>
-      <c r="C439">
-        <v>0.005135008639754468</v>
-      </c>
-      <c r="D439">
-        <v>137.1672776288261</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="2">
-        <v>44635.39930555555</v>
-      </c>
-      <c r="B440" t="s">
-        <v>5</v>
-      </c>
-      <c r="C440">
-        <v>0.0005306960824978946</v>
-      </c>
-      <c r="D440">
-        <v>138.0637536160476</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="2">
-        <v>44635.40486111111</v>
-      </c>
-      <c r="B441" t="s">
-        <v>4</v>
-      </c>
-      <c r="C441">
-        <v>-0.005626820282017553</v>
-      </c>
-      <c r="D441">
-        <v>137.7141788421991</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="2">
-        <v>44635.40972222222</v>
-      </c>
-      <c r="B442" t="s">
-        <v>5</v>
-      </c>
-      <c r="C442">
-        <v>0.001650736541835895</v>
-      </c>
-      <c r="D442">
-        <v>139.4615033188709</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="2">
-        <v>44635.41319444445</v>
-      </c>
-      <c r="B443" t="s">
-        <v>4</v>
-      </c>
-      <c r="C443">
-        <v>-0.008874037038926641</v>
-      </c>
-      <c r="D443">
-        <v>139.1167098790492</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="2">
-        <v>44635.41666666666</v>
-      </c>
-      <c r="B444" t="s">
-        <v>5</v>
-      </c>
-      <c r="C444">
-        <v>-0.0007250073754001551</v>
-      </c>
-      <c r="D444">
-        <v>141.2288126445766</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="2">
-        <v>44635.43402777778</v>
-      </c>
-      <c r="B445" t="s">
-        <v>4</v>
-      </c>
-      <c r="C445">
-        <v>-0.006524400928967666</v>
-      </c>
-      <c r="D445">
-        <v>140.8803330011888</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="2">
-        <v>44635.43680555555</v>
-      </c>
-      <c r="B446" t="s">
-        <v>5</v>
-      </c>
-      <c r="C446">
-        <v>0.0002292030353375774</v>
-      </c>
-      <c r="D446">
-        <v>142.5551935161962</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="2">
-        <v>44635.44027777778</v>
-      </c>
-      <c r="B447" t="s">
-        <v>4</v>
-      </c>
-      <c r="C447">
-        <v>-0.005977356967146741</v>
-      </c>
-      <c r="D447">
-        <v>142.2041707997029</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="2">
-        <v>44635.44166666667</v>
-      </c>
-      <c r="B448" t="s">
-        <v>5</v>
-      </c>
-      <c r="C448">
-        <v>0.002178948279036419</v>
-      </c>
-      <c r="D448">
-        <v>144.2281448858842</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="2">
-        <v>44635.45833333334</v>
-      </c>
-      <c r="B449" t="s">
-        <v>3</v>
-      </c>
-      <c r="C449">
-        <v>0.005711820381835042</v>
-      </c>
-      <c r="D449">
-        <v>144.1272078751858</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="2">
-        <v>44635.45972222222</v>
-      </c>
-      <c r="B450" t="s">
-        <v>5</v>
-      </c>
-      <c r="C450">
-        <v>0.0005344226004440067</v>
-      </c>
-      <c r="D450">
-        <v>145.1464563150075</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="2">
-        <v>44635.46111111111</v>
-      </c>
-      <c r="B451" t="s">
-        <v>3</v>
-      </c>
-      <c r="C451">
-        <v>0.006801361066316569</v>
-      </c>
-      <c r="D451">
-        <v>145.0461315988114</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="2">
-        <v>44635.47222222222</v>
-      </c>
-      <c r="B452" t="s">
-        <v>5</v>
-      </c>
-      <c r="C452">
-        <v>0.0009567169376893947</v>
-      </c>
-      <c r="D452">
-        <v>146.1760723417535</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="2">
-        <v>44635.54722222222</v>
-      </c>
-      <c r="B453" t="s">
-        <v>3</v>
-      </c>
-      <c r="C453">
-        <v>0.007823203341444485</v>
-      </c>
-      <c r="D453">
-        <v>146.0758761786034</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="2">
-        <v>44635.59513888889</v>
-      </c>
-      <c r="B454" t="s">
-        <v>5</v>
-      </c>
-      <c r="C454">
-        <v>-0.0002091951830319738</v>
-      </c>
-      <c r="D454">
-        <v>148.0075190234771</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="2">
-        <v>44635.59861111111</v>
-      </c>
-      <c r="B455" t="s">
-        <v>3</v>
-      </c>
-      <c r="C455">
-        <v>0.005921925012699059</v>
-      </c>
-      <c r="D455">
-        <v>147.9094948615157</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="2">
-        <v>44635.625</v>
-      </c>
-      <c r="B456" t="s">
-        <v>5</v>
-      </c>
-      <c r="C456">
-        <v>0.01183009739964458</v>
-      </c>
-      <c r="D456">
-        <v>146.2801809453196</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="2">
-        <v>44636.39791666667</v>
-      </c>
-      <c r="B457" t="s">
-        <v>4</v>
-      </c>
-      <c r="C457">
-        <v>-0.006691949231011574</v>
-      </c>
-      <c r="D457">
-        <v>145.9446643979199</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="2">
-        <v>44636.40069444444</v>
-      </c>
-      <c r="B458" t="s">
-        <v>5</v>
-      </c>
-      <c r="C458">
-        <v>-0.0008271230796708107</v>
-      </c>
-      <c r="D458">
-        <v>147.1686948956911</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="2">
-        <v>44636.40486111111</v>
-      </c>
-      <c r="B459" t="s">
-        <v>3</v>
-      </c>
-      <c r="C459">
-        <v>0.005191256920632492</v>
-      </c>
-      <c r="D459">
-        <v>147.0715573580982</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2">
-        <v>44636.40694444445</v>
-      </c>
-      <c r="B460" t="s">
-        <v>5</v>
-      </c>
-      <c r="C460">
-        <v>-0.0003346427698214249</v>
-      </c>
-      <c r="D460">
-        <v>148.0415734606242</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2">
-        <v>44636.4125</v>
-      </c>
-      <c r="B461" t="s">
-        <v>3</v>
-      </c>
-      <c r="C461">
-        <v>0.007984429442006391</v>
-      </c>
-      <c r="D461">
-        <v>147.9446654291235</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="2">
-        <v>44636.42222222222</v>
-      </c>
-      <c r="B462" t="s">
-        <v>5</v>
-      </c>
-      <c r="C462">
-        <v>0.0008721430251954487</v>
-      </c>
-      <c r="D462">
-        <v>149.3185026641904</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2">
-        <v>44636.42291666667</v>
-      </c>
-      <c r="B463" t="s">
-        <v>3</v>
-      </c>
-      <c r="C463">
-        <v>0.006297190623593574</v>
-      </c>
-      <c r="D463">
-        <v>149.2215555973256</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="2">
-        <v>44636.45138888889</v>
-      </c>
-      <c r="B464" t="s">
-        <v>5</v>
-      </c>
-      <c r="C464">
-        <v>0.0007671925940913038</v>
-      </c>
-      <c r="D464">
-        <v>150.2222212121845</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="2">
-        <v>44636.45972222222</v>
-      </c>
-      <c r="B465" t="s">
-        <v>3</v>
-      </c>
-      <c r="C465">
-        <v>0.007794443624319025</v>
-      </c>
-      <c r="D465">
-        <v>150.12611971055</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="2">
-        <v>44636.46666666667</v>
-      </c>
-      <c r="B466" t="s">
-        <v>5</v>
-      </c>
-      <c r="C466">
-        <v>-0.0008318598534449162</v>
-      </c>
-      <c r="D466">
-        <v>152.0220925646362</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2">
-        <v>44636.46736111111</v>
-      </c>
-      <c r="B467" t="s">
-        <v>3</v>
-      </c>
-      <c r="C467">
-        <v>0.006006023199152666</v>
-      </c>
-      <c r="D467">
-        <v>151.926754157504</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="2">
-        <v>44636.46805555555</v>
-      </c>
-      <c r="B468" t="s">
-        <v>5</v>
-      </c>
-      <c r="C468">
-        <v>-0.00303973189366169</v>
-      </c>
-      <c r="D468">
-        <v>153.7655799468056</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="2">
-        <v>44636.54166666666</v>
-      </c>
-      <c r="B469" t="s">
-        <v>3</v>
-      </c>
-      <c r="C469">
-        <v>0.01218234371282656</v>
-      </c>
-      <c r="D469">
-        <v>153.668770503715</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="2">
-        <v>44636.55069444444</v>
-      </c>
-      <c r="B470" t="s">
-        <v>5</v>
-      </c>
-      <c r="C470">
-        <v>8.690950142442588E-06</v>
-      </c>
-      <c r="D470">
-        <v>156.0764056615158</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="2">
-        <v>44636.55625</v>
-      </c>
-      <c r="B471" t="s">
-        <v>3</v>
-      </c>
-      <c r="C471">
-        <v>0.005748919356549864</v>
-      </c>
-      <c r="D471">
-        <v>155.9774009934623</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="2">
-        <v>44636.55763888889</v>
-      </c>
-      <c r="B472" t="s">
-        <v>5</v>
-      </c>
-      <c r="C472">
-        <v>-0.003805524050289222</v>
-      </c>
-      <c r="D472">
-        <v>157.9681564011889</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="2">
-        <v>44636.55972222222</v>
-      </c>
-      <c r="B473" t="s">
-        <v>3</v>
-      </c>
-      <c r="C473">
-        <v>0.0134873042929835</v>
-      </c>
-      <c r="D473">
-        <v>157.8678485679051</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="2">
-        <v>44636.57777777778</v>
-      </c>
-      <c r="B474" t="s">
-        <v>5</v>
-      </c>
-      <c r="C474">
-        <v>-0.003841152826939531</v>
-      </c>
-      <c r="D474">
-        <v>161.5986487604757</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="2">
-        <v>44636.57916666667</v>
-      </c>
-      <c r="B475" t="s">
-        <v>3</v>
-      </c>
-      <c r="C475">
-        <v>0.009741854890953805</v>
-      </c>
-      <c r="D475">
-        <v>161.4971162205054</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="2">
-        <v>44636.58125</v>
-      </c>
-      <c r="B476" t="s">
-        <v>5</v>
-      </c>
-      <c r="C476">
-        <v>0.0006879237147112693</v>
-      </c>
-      <c r="D476">
-        <v>163.3652940927194</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="2">
-        <v>44636.58541666667</v>
-      </c>
-      <c r="B477" t="s">
-        <v>3</v>
-      </c>
-      <c r="C477">
-        <v>0.005564267558025637</v>
-      </c>
-      <c r="D477">
-        <v>163.2632327405649</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="2">
-        <v>44636.58819444444</v>
-      </c>
-      <c r="B478" t="s">
-        <v>5</v>
-      </c>
-      <c r="C478">
-        <v>-0.003328057253837668</v>
-      </c>
-      <c r="D478">
-        <v>165.0217402677565</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="2">
-        <v>44636.58958333333</v>
-      </c>
-      <c r="B479" t="s">
-        <v>4</v>
-      </c>
-      <c r="C479">
-        <v>-0.007578570308221622</v>
-      </c>
-      <c r="D479">
-        <v>164.6717842000002</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="2">
-        <v>44636.59305555555</v>
-      </c>
-      <c r="B480" t="s">
-        <v>5</v>
-      </c>
-      <c r="C480">
-        <v>-1.8205687028372E-05</v>
-      </c>
-      <c r="D480">
-        <v>166.3956962276377</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="2">
-        <v>44636.59583333333</v>
-      </c>
-      <c r="B481" t="s">
-        <v>3</v>
-      </c>
-      <c r="C481">
-        <v>0.006533226120234659</v>
-      </c>
-      <c r="D481">
-        <v>166.293035016345</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="2">
-        <v>44636.625</v>
-      </c>
-      <c r="B482" t="s">
-        <v>5</v>
-      </c>
-      <c r="C482">
-        <v>0.03637924637352619</v>
-      </c>
-      <c r="D482">
-        <v>158.6719803964341</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="2">
-        <v>44637.39652777778</v>
-      </c>
-      <c r="B483" t="s">
-        <v>3</v>
-      </c>
-      <c r="C483">
-        <v>0.03216219826575872</v>
-      </c>
-      <c r="D483">
-        <v>158.5641507369988</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="2">
-        <v>44637.40416666667</v>
-      </c>
-      <c r="B484" t="s">
-        <v>5</v>
-      </c>
-      <c r="C484">
-        <v>0.0001739313924413732</v>
-      </c>
-      <c r="D484">
-        <v>166.9083200683509</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="2">
-        <v>44637.40625</v>
-      </c>
-      <c r="B485" t="s">
-        <v>3</v>
-      </c>
-      <c r="C485">
-        <v>0.00541012395831264</v>
-      </c>
-      <c r="D485">
-        <v>166.8024377503717</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="2">
-        <v>44637.40694444445</v>
-      </c>
-      <c r="B486" t="s">
-        <v>5</v>
-      </c>
-      <c r="C486">
-        <v>-0.0007227492372865463</v>
-      </c>
-      <c r="D486">
-        <v>168.0752306505203</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="2">
-        <v>44637.4125</v>
-      </c>
-      <c r="B487" t="s">
-        <v>3</v>
-      </c>
-      <c r="C487">
-        <v>0.00576597425390557</v>
-      </c>
-      <c r="D487">
-        <v>167.9695162855872</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="2">
-        <v>44637.42430555556</v>
-      </c>
-      <c r="B488" t="s">
-        <v>5</v>
-      </c>
-      <c r="C488">
-        <v>-0.001067033260387484</v>
-      </c>
-      <c r="D488">
-        <v>169.0710188002975</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="2">
-        <v>44637.425</v>
-      </c>
-      <c r="B489" t="s">
-        <v>3</v>
-      </c>
-      <c r="C489">
-        <v>0.006805841053284745</v>
-      </c>
-      <c r="D489">
-        <v>168.964312070134</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="2">
-        <v>44637.625</v>
-      </c>
-      <c r="B490" t="s">
-        <v>5</v>
-      </c>
-      <c r="C490">
-        <v>0.01456738999421736</v>
-      </c>
-      <c r="D490">
-        <v>166.9400454728086</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="2">
-        <v>44638.39583333334</v>
-      </c>
-      <c r="B491" t="s">
-        <v>3</v>
-      </c>
-      <c r="C491">
-        <v>0.01126739367619967</v>
-      </c>
-      <c r="D491">
-        <v>166.8344169438339</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="2">
-        <v>44638.39722222222</v>
-      </c>
-      <c r="B492" t="s">
-        <v>5</v>
-      </c>
-      <c r="C492">
-        <v>-0.00110491833235693</v>
-      </c>
-      <c r="D492">
-        <v>169.8997098739973</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="2">
-        <v>44638.40138888889</v>
-      </c>
-      <c r="B493" t="s">
-        <v>4</v>
-      </c>
-      <c r="C493">
-        <v>-0.007399158331496958</v>
-      </c>
-      <c r="D493">
-        <v>169.5446493331355</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="2">
-        <v>44638.625</v>
-      </c>
-      <c r="B494" t="s">
-        <v>5</v>
-      </c>
-      <c r="C494">
-        <v>-0.01898516062109312</v>
-      </c>
-      <c r="D494">
-        <v>166.9253066704312</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="2">
-        <v>44641.39583333334</v>
-      </c>
-      <c r="B495" t="s">
-        <v>3</v>
-      </c>
-      <c r="C495">
-        <v>0.005181394310144638</v>
-      </c>
-      <c r="D495">
-        <v>166.8157437384847</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="2">
-        <v>44641.39652777778</v>
-      </c>
-      <c r="B496" t="s">
-        <v>5</v>
-      </c>
-      <c r="C496">
-        <v>-0.001262870362933155</v>
-      </c>
-      <c r="D496">
-        <v>168.29463663477</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="2">
-        <v>44641.39791666667</v>
-      </c>
-      <c r="B497" t="s">
-        <v>3</v>
-      </c>
-      <c r="C497">
-        <v>0.006299928105269137</v>
-      </c>
-      <c r="D497">
-        <v>168.1844506436853</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="2">
-        <v>44641.625</v>
-      </c>
-      <c r="B498" t="s">
-        <v>5</v>
-      </c>
-      <c r="C498">
-        <v>0.02214412419112177</v>
-      </c>
-      <c r="D498">
-        <v>162.4241855619617</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="2">
-        <v>44642.39583333334</v>
-      </c>
-      <c r="B499" t="s">
-        <v>4</v>
-      </c>
-      <c r="C499">
-        <v>-0.008229076790336354</v>
-      </c>
-      <c r="D499">
-        <v>162.0382203316496</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="2">
-        <v>44642.625</v>
-      </c>
-      <c r="B500" t="s">
-        <v>5</v>
-      </c>
-      <c r="C500">
-        <v>-0.02194420477423054</v>
-      </c>
-      <c r="D500">
-        <v>157.6678167655278</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="2">
-        <v>44643.39652777778</v>
-      </c>
-      <c r="B501" t="s">
-        <v>4</v>
-      </c>
-      <c r="C501">
-        <v>-0.005927066336369524</v>
-      </c>
-      <c r="D501">
-        <v>157.2862019265976</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4">
-      <c r="A502" s="2">
-        <v>44643.39722222222</v>
-      </c>
-      <c r="B502" t="s">
-        <v>5</v>
-      </c>
-      <c r="C502">
-        <v>-0.0002516687928325601</v>
-      </c>
-      <c r="D502">
-        <v>158.8257945423481</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
-      <c r="A503" s="2">
-        <v>44643.39930555555</v>
-      </c>
-      <c r="B503" t="s">
-        <v>4</v>
-      </c>
-      <c r="C503">
-        <v>-0.005965897291363875</v>
-      </c>
-      <c r="D503">
-        <v>158.4467115765234</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4">
-      <c r="A504" s="2">
-        <v>44643.40555555555</v>
-      </c>
-      <c r="B504" t="s">
-        <v>5</v>
-      </c>
-      <c r="C504">
-        <v>-0.0002357299670692203</v>
-      </c>
-      <c r="D504">
-        <v>159.9066040989602</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
-      <c r="A505" s="2">
-        <v>44643.40694444445</v>
-      </c>
-      <c r="B505" t="s">
-        <v>4</v>
-      </c>
-      <c r="C505">
-        <v>-0.007780205150265562</v>
-      </c>
-      <c r="D505">
-        <v>159.5303689123331</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
-      <c r="A506" s="2">
-        <v>44643.45555555556</v>
-      </c>
-      <c r="B506" t="s">
-        <v>5</v>
-      </c>
-      <c r="C506">
-        <v>-0.0008097353665412754</v>
-      </c>
-      <c r="D506">
-        <v>161.2339597147105</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4">
-      <c r="A507" s="2">
-        <v>44643.54236111111</v>
-      </c>
-      <c r="B507" t="s">
-        <v>4</v>
-      </c>
-      <c r="C507">
-        <v>-0.005266094579761127</v>
-      </c>
-      <c r="D507">
-        <v>160.861791649926</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4">
-      <c r="A508" s="2">
-        <v>44643.5875</v>
-      </c>
-      <c r="B508" t="s">
-        <v>5</v>
-      </c>
-      <c r="C508">
-        <v>0.00188903269350571</v>
-      </c>
-      <c r="D508">
-        <v>162.8420569613674</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
-      <c r="A509" s="2">
-        <v>44643.59027777778</v>
-      </c>
-      <c r="B509" t="s">
-        <v>4</v>
-      </c>
-      <c r="C509">
-        <v>-0.005792565342510603</v>
-      </c>
-      <c r="D509">
-        <v>162.4690768722143</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
-      <c r="A510" s="2">
-        <v>44643.625</v>
-      </c>
-      <c r="B510" t="s">
-        <v>5</v>
-      </c>
-      <c r="C510">
-        <v>-0.01056160441451337</v>
-      </c>
-      <c r="D510">
-        <v>161.2378661738488</v>
+        <v>101.0861786258543</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_trade.xlsx
+++ b/tmp_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="6">
   <si>
     <t>signal</t>
   </si>
@@ -25,13 +25,13 @@
     <t>net value</t>
   </si>
   <si>
-    <t>1-1</t>
+    <t>-11</t>
   </si>
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>-11</t>
+    <t>1-1</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,44 +422,44 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44544.44027777778</v>
+        <v>44544.39583333334</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>-0.009431035467473814</v>
+        <v>0.005252869952595884</v>
       </c>
       <c r="D3">
-        <v>-0.4225744867756305</v>
+        <v>-0.1295155756315012</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44544.625</v>
+        <v>44544.39791666667</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>-0.009720229596207774</v>
+        <v>0.002855931235364761</v>
       </c>
       <c r="D4">
-        <v>-0.5722887512630349</v>
+        <v>0.1772031866270506</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44545.39722222222</v>
+        <v>44545.39583333334</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>-0.01226962191837666</v>
+        <v>-0.005281255592410217</v>
       </c>
       <c r="D5">
-        <v>-0.9957024867756772</v>
+        <v>-0.2475439732541034</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,21 +473,21 @@
         <v>-0.001425543244441441</v>
       </c>
       <c r="D6">
-        <v>2.166875190787522</v>
+        <v>0.4083873447251282</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44546.39652777778</v>
+        <v>44546.39583333334</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>-0.01040805618121599</v>
+        <v>-0.005796517694205083</v>
       </c>
       <c r="D7">
-        <v>1.751682017236284</v>
+        <v>-0.008401065378855321</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -501,21 +501,21 @@
         <v>-0.002914502944468267</v>
       </c>
       <c r="D8">
-        <v>3.674987082912381</v>
+        <v>0.1794344609213146</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44547.40972222222</v>
+        <v>44547.40347222222</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0.009026419783655593</v>
+        <v>0.005091235417289841</v>
       </c>
       <c r="D9">
-        <v>3.551004545022323</v>
+        <v>0.05443316939084042</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -529,7 +529,7 @@
         <v>0.002789468382308424</v>
       </c>
       <c r="D10">
-        <v>5.038412149777099</v>
+        <v>0.6920725720654389</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -537,13 +537,13 @@
         <v>44550.39583333334</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0.01018222798834778</v>
       </c>
       <c r="D11">
-        <v>4.913755552748881</v>
+        <v>0.5674159750372212</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -557,77 +557,77 @@
         <v>0.002375363766005556</v>
       </c>
       <c r="D12">
-        <v>7.094627874591437</v>
+        <v>2.748288296879776</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44551.425</v>
+        <v>44551.39583333334</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>-0.009357397953964064</v>
+        <v>-0.005163513588804403</v>
       </c>
       <c r="D13">
-        <v>6.689957969093655</v>
+        <v>2.341214130460749</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44551.625</v>
+        <v>44551.39861111111</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>-0.008450177893320365</v>
+        <v>-0.001361812351970304</v>
       </c>
       <c r="D14">
-        <v>6.938331401485975</v>
+        <v>3.425741024962966</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>44552.60277777778</v>
+        <v>44552.39583333334</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>-0.00948260884672858</v>
+        <v>-0.006008605812108492</v>
       </c>
       <c r="D15">
-        <v>6.514035217236355</v>
+        <v>3.01609046716208</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>44552.60902777778</v>
+        <v>44552.39652777778</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>-0.002537208844411998</v>
+        <v>-0.001547192976359968</v>
       </c>
       <c r="D16">
-        <v>8.361942914413147</v>
+        <v>4.21383850757819</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>44553.39791666667</v>
+        <v>44553.39583333334</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0.009612405533093726</v>
+        <v>0.005251487414871359</v>
       </c>
       <c r="D17">
-        <v>8.236021516196196</v>
+        <v>4.087319861812972</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -641,21 +641,21 @@
         <v>0.002433422682815323</v>
       </c>
       <c r="D18">
-        <v>9.917804487072889</v>
+        <v>4.594865091233435</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44554.40277777778</v>
+        <v>44554.40138888889</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.01060016766718064</v>
+        <v>0.006268824383598548</v>
       </c>
       <c r="D19">
-        <v>9.791723676671694</v>
+        <v>4.469074480832241</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -669,63 +669,63 @@
         <v>0.00207787541729676</v>
       </c>
       <c r="D20">
-        <v>12.38399678216951</v>
+        <v>5.610347586330028</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44557.47847222222</v>
+        <v>44557.39722222222</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>-0.009825312310528078</v>
+        <v>0.005759582047592637</v>
       </c>
       <c r="D21">
-        <v>11.96120819791988</v>
+        <v>5.486876306389455</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44557.59861111111</v>
+        <v>44557.39861111111</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>-0.001763345317578491</v>
+        <v>0.002741762549097304</v>
       </c>
       <c r="D22">
-        <v>13.85557165081728</v>
+        <v>5.833374674888726</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44558.61944444444</v>
+        <v>44558.41875</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>-0.01032733665467034</v>
+        <v>0.005901431694894876</v>
       </c>
       <c r="D23">
-        <v>13.43494591530467</v>
+        <v>5.708746452897628</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44558.625</v>
+        <v>44558.42222222222</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>-0.01281623897793827</v>
+        <v>0.002154070753788151</v>
       </c>
       <c r="D24">
-        <v>12.54951690936118</v>
+        <v>6.462031632986822</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -733,13 +733,13 @@
         <v>44559.39583333334</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>0.02124079030652481</v>
       </c>
       <c r="D25">
-        <v>12.42333949836561</v>
+        <v>6.335854221991248</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -753,7 +753,7 @@
         <v>0.002232549573760068</v>
       </c>
       <c r="D26">
-        <v>16.6986524255573</v>
+        <v>10.61116714918293</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -761,13 +761,13 @@
         <v>44560.39861111111</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>-0.01176992054234927</v>
       </c>
       <c r="D27">
-        <v>16.25349247726604</v>
+        <v>10.16600720089167</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -781,7 +781,7 @@
         <v>-0.001980965210581997</v>
       </c>
       <c r="D28">
-        <v>18.91047048618131</v>
+        <v>12.82298520980694</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -789,13 +789,13 @@
         <v>44561.39583333334</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>0.01628498197103423</v>
       </c>
       <c r="D29">
-        <v>18.78025388499258</v>
+        <v>12.69276860861827</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -809,1351 +809,1463 @@
         <v>0.0223322805256877</v>
       </c>
       <c r="D30">
-        <v>17.20145265319464</v>
+        <v>11.11396737682033</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44565.47847222222</v>
+        <v>44565.40833333333</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>-0.01237951685026828</v>
+        <v>0.006094390874376132</v>
       </c>
       <c r="D31">
-        <v>16.77164959227337</v>
+        <v>10.98802650787529</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44565.56527777778</v>
+        <v>44565.40972222222</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>-0.002865245443157693</v>
+        <v>0.001734078254294391</v>
       </c>
       <c r="D32">
-        <v>19.46707684338777</v>
+        <v>11.8125026383359</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44566.56805555556</v>
+        <v>44566.39791666667</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>-0.009545905282448253</v>
+        <v>0.006447476729180002</v>
       </c>
       <c r="D33">
-        <v>19.05911852213962</v>
+        <v>11.68608781634482</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44566.625</v>
+        <v>44566.4</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>-0.01410392616749656</v>
+        <v>0.002339820834090345</v>
       </c>
       <c r="D34">
-        <v>17.56113667964326</v>
+        <v>12.94860173224386</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44568.39930555555</v>
+        <v>44567.40486111111</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>-0.01004454629028773</v>
+        <v>0.005253072551869908</v>
       </c>
       <c r="D35">
-        <v>17.15916941069823</v>
+        <v>12.8279484187223</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44568.55486111111</v>
+        <v>44567.40625</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>-0.001636035660208424</v>
+        <v>0.001564688780229861</v>
       </c>
       <c r="D36">
-        <v>17.39239593907856</v>
+        <v>13.50432696166441</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44571.39583333334</v>
+        <v>44568.39583333334</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>-0.009828783095422899</v>
+        <v>0.006087526266184362</v>
       </c>
       <c r="D37">
-        <v>17.02530477533411</v>
+        <v>13.38551464933155</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44571.625</v>
+        <v>44568.39652777778</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>-0.02209514427054193</v>
+        <v>-0.0005644332684404674</v>
       </c>
       <c r="D38">
-        <v>15.09051532511128</v>
+        <v>15.08184748737008</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44572.39652777778</v>
+        <v>44571.39583333334</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>-0.01026611325446591</v>
+        <v>-0.009828783095422899</v>
       </c>
       <c r="D39">
-        <v>14.70080937295672</v>
+        <v>14.71475632362563</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44572.40347222222</v>
+        <v>44571.625</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40">
-        <v>-0.001359821542850081</v>
+        <v>-0.02209514427054193</v>
       </c>
       <c r="D40">
-        <v>18.85784941901911</v>
+        <v>12.7799668734028</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>44573.39652777778</v>
+        <v>44572.39652777778</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>-0.01033205517825575</v>
+        <v>-0.01026611325446591</v>
       </c>
       <c r="D41">
-        <v>18.45542088915282</v>
+        <v>12.39026092124824</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44573.625</v>
+        <v>44572.40347222222</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>-0.02136928520819437</v>
+        <v>-0.001359821542850081</v>
       </c>
       <c r="D42">
-        <v>15.47689683387795</v>
+        <v>16.54730096731062</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>44574.42361111111</v>
+        <v>44573.39652777778</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43">
-        <v>0.009683875047539425</v>
+        <v>-0.01033205517825575</v>
       </c>
       <c r="D43">
-        <v>15.35780607280812</v>
+        <v>16.14487243744433</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>44574.42986111111</v>
+        <v>44573.625</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44">
-        <v>0.002170668036993173</v>
+        <v>-0.02136928520819437</v>
       </c>
       <c r="D44">
-        <v>16.94459892273382</v>
+        <v>13.16634838216947</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>44575.39583333334</v>
+        <v>44574.39583333334</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>0.01207111774517011</v>
+        <v>0.00573284626760695</v>
       </c>
       <c r="D45">
-        <v>16.8265536329864</v>
+        <v>13.04682412659741</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44575.39791666667</v>
+        <v>44574.39722222222</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>0.0005518786916216545</v>
+        <v>0.001415761869522414</v>
       </c>
       <c r="D46">
-        <v>19.91568161456145</v>
+        <v>14.15247524101048</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>44579.41388888889</v>
+        <v>44575.39583333334</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>0.009211828488453921</v>
+        <v>0.01207111774517011</v>
       </c>
       <c r="D47">
-        <v>19.79980721991062</v>
+        <v>14.03442995126311</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44579.42638888889</v>
+        <v>44575.39791666667</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48">
-        <v>0.002640338454367619</v>
+        <v>0.0005518786916216545</v>
       </c>
       <c r="D48">
-        <v>21.38520376404145</v>
+        <v>17.12355793283815</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>44580.45138888889</v>
+        <v>44578.4</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49">
-        <v>0.01049737599403389</v>
+        <v>0.00614618460205163</v>
       </c>
       <c r="D49">
-        <v>21.26832787488838</v>
+        <v>17.00470810104022</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44580.47569444445</v>
+        <v>44578.40208333333</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50">
-        <v>0.002833481864230492</v>
+        <v>0.002525914455625777</v>
       </c>
       <c r="D50">
-        <v>23.12404517206515</v>
+        <v>17.66745212630023</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>44581.39791666667</v>
+        <v>44579.39652777778</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>0.009783384394910111</v>
+        <v>0.005762049028420368</v>
       </c>
       <c r="D51">
-        <v>23.00782896582445</v>
+        <v>17.55061509569104</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44581.54375</v>
+        <v>44579.39722222222</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>0.002166309307878644</v>
+        <v>0.0004325707695550518</v>
       </c>
       <c r="D52">
-        <v>25.20599924814243</v>
+        <v>18.67941784814277</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>44582.41527777778</v>
+        <v>44580.40625</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>0.0170462002501286</v>
+        <v>0.005765149572891981</v>
       </c>
       <c r="D53">
-        <v>25.08119364873676</v>
+        <v>18.56196551144141</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44582.5625</v>
+        <v>44580.40694444445</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54">
-        <v>0.000601228573530399</v>
+        <v>0.002399215612726158</v>
       </c>
       <c r="D54">
-        <v>30.02038858781542</v>
+        <v>19.15887280326912</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>44585.39722222222</v>
+        <v>44581.39583333334</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>-0.01279339620772291</v>
+        <v>0.007521528555344048</v>
       </c>
       <c r="D55">
-        <v>29.6075648472508</v>
+        <v>19.04279419702839</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44585.41111111111</v>
+        <v>44581.54375</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>-0.001598473112170318</v>
+        <v>0.002166309307878644</v>
       </c>
       <c r="D56">
-        <v>32.90100910728052</v>
+        <v>20.55296447934639</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>44586.39722222222</v>
+        <v>44582.4</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>0.009852585692829097</v>
+        <v>0.005032185683807811</v>
       </c>
       <c r="D57">
-        <v>32.77403446092093</v>
+        <v>20.43288832927207</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44586.42222222222</v>
+        <v>44582.40138888889</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58">
-        <v>0.0001807411373953016</v>
+        <v>0.001622305598469653</v>
       </c>
       <c r="D58">
-        <v>36.18124355037117</v>
+        <v>21.1427960927193</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>44587.40416666667</v>
+        <v>44585.39652777778</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59">
-        <v>-0.01150868389842385</v>
+        <v>-0.005691845892092151</v>
       </c>
       <c r="D59">
-        <v>35.77724136314977</v>
+        <v>20.72866612778619</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44587.41041666667</v>
+        <v>44585.41111111111</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60">
-        <v>-0.002883940498433879</v>
+        <v>-0.001598473112170318</v>
       </c>
       <c r="D60">
-        <v>37.84726025438305</v>
+        <v>21.65146402823194</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>44588.47152777778</v>
+        <v>44586.39722222222</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>0.01166573564924822</v>
+        <v>0.009852585692829097</v>
       </c>
       <c r="D61">
-        <v>37.72814663655245</v>
+        <v>21.52448938187236</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44588.47847222222</v>
+        <v>44586.42222222222</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>0.002507035296327453</v>
+        <v>0.0001807411373953016</v>
       </c>
       <c r="D62">
-        <v>40.27022063358076</v>
+        <v>24.9316984713226</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>44589.39722222222</v>
+        <v>44587.39930555555</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>0.0127560657554332</v>
+        <v>-0.005883253418544676</v>
       </c>
       <c r="D63">
-        <v>40.15453908826132</v>
+        <v>24.52030698306108</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44589.43055555555</v>
+        <v>44587.41041666667</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64">
-        <v>0.001358364033473669</v>
+        <v>-0.002883940498433879</v>
       </c>
       <c r="D64">
-        <v>44.78014315155998</v>
+        <v>23.96774340772674</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>44599.4</v>
+        <v>44588.43333333333</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>0.01010214770513729</v>
+        <v>0.005076446874697549</v>
       </c>
       <c r="D65">
-        <v>44.66343582823158</v>
+        <v>23.84873660148602</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44599.40555555555</v>
+        <v>44588.43402777778</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66">
-        <v>0.001732568644941646</v>
+        <v>0.002922488752876484</v>
       </c>
       <c r="D66">
-        <v>46.67834651233268</v>
+        <v>24.17096986002995</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>44600.39722222222</v>
+        <v>44589.39722222222</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>0.009716283499744849</v>
+        <v>0.0127560657554332</v>
       </c>
       <c r="D67">
-        <v>46.56310581396714</v>
+        <v>24.05528831471051</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44600.39791666667</v>
+        <v>44589.43055555555</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>0.001540249872729493</v>
+        <v>0.001358364033473669</v>
       </c>
       <c r="D68">
-        <v>48.62706183179774</v>
+        <v>28.68089237800917</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>44601.4</v>
+        <v>44599.4</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>-0.009412267711962685</v>
+        <v>0.01010214770513729</v>
       </c>
       <c r="D69">
-        <v>48.25044342436831</v>
+        <v>28.56418505468078</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>44601.4375</v>
+        <v>44599.40555555555</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="C70">
-        <v>-0.000951103368176609</v>
+        <v>0.001732568644941646</v>
       </c>
       <c r="D70">
-        <v>50.78459560089125</v>
+        <v>30.5790957387819</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>44602.39583333334</v>
+        <v>44600.39722222222</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71">
-        <v>-0.009207843137254867</v>
+        <v>0.009716283499744849</v>
       </c>
       <c r="D71">
-        <v>50.39548906448708</v>
+        <v>30.46385504041639</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>44602.625</v>
+        <v>44600.39791666667</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72">
-        <v>-0.01927435362766561</v>
+        <v>0.001540249872729493</v>
       </c>
       <c r="D72">
-        <v>50.51614161842465</v>
+        <v>32.52781105824699</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>44603.39722222222</v>
+        <v>44601.39722222222</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73">
-        <v>-0.009258647385218977</v>
+        <v>-0.005044657375145034</v>
       </c>
       <c r="D73">
-        <v>50.10270855096554</v>
+        <v>32.14879778989631</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>44603.41597222222</v>
+        <v>44601.4375</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74">
-        <v>-0.002520919022752643</v>
+        <v>-0.000951103368176609</v>
       </c>
       <c r="D74">
-        <v>52.64853020624046</v>
+        <v>33.10983406745937</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>44606.39583333334</v>
+        <v>44602.39583333334</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C75">
-        <v>-0.009475380099261188</v>
+        <v>-0.009207843137254867</v>
       </c>
       <c r="D75">
-        <v>52.23999467280809</v>
+        <v>32.7207275310552</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>44606.39652777778</v>
+        <v>44602.625</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76">
-        <v>-0.002817071072104604</v>
+        <v>-0.01927435362766561</v>
       </c>
       <c r="D76">
-        <v>54.53867753937577</v>
+        <v>32.84138008499278</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>44607.39722222222</v>
+        <v>44603.39722222222</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>-0.01057228840665281</v>
+        <v>-0.009258647385218977</v>
       </c>
       <c r="D77">
-        <v>54.1294171084694</v>
+        <v>32.42794701753361</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>44607.625</v>
+        <v>44603.41597222222</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="C78">
-        <v>-0.02480083287598467</v>
+        <v>-0.002520919022752643</v>
       </c>
       <c r="D78">
-        <v>49.07319482020798</v>
+        <v>34.97376867280853</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>44608.40902777778</v>
+        <v>44606.39583333334</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79">
-        <v>0.009281728357139141</v>
+        <v>-0.009475380099261188</v>
       </c>
       <c r="D79">
-        <v>48.9544557414561</v>
+        <v>34.56523313937615</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>44608.41875</v>
+        <v>44606.39652777778</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
       <c r="C80">
-        <v>0.002253434358947981</v>
+        <v>-0.002817071072104604</v>
       </c>
       <c r="D80">
-        <v>50.51950173313521</v>
+        <v>36.86391600594384</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>44609.41944444444</v>
+        <v>44607.39722222222</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81">
-        <v>0.009343217373105173</v>
+        <v>-0.01057228840665281</v>
       </c>
       <c r="D81">
-        <v>50.4013932190193</v>
+        <v>36.45465557503746</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>44609.43611111111</v>
+        <v>44607.625</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82">
-        <v>0.002812749600105802</v>
+        <v>-0.02480083287598467</v>
       </c>
       <c r="D82">
-        <v>51.79263991857353</v>
+        <v>31.39843328677604</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>44610.46875</v>
+        <v>44608.39722222222</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83">
-        <v>-0.009231201775984577</v>
+        <v>0.0075800440280549</v>
       </c>
       <c r="D83">
-        <v>51.37419853789001</v>
+        <v>31.28060013789044</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>44610.54722222222</v>
+        <v>44608.40069444444</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
       <c r="C84">
-        <v>-0.0002520595524111435</v>
+        <v>0.002482977525213648</v>
       </c>
       <c r="D84">
-        <v>54.03973714115886</v>
+        <v>32.31447478870762</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>44614.39930555555</v>
+        <v>44609.39861111111</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>-0.01128858584229131</v>
+        <v>0.006027090186023321</v>
       </c>
       <c r="D85">
-        <v>53.61872922644861</v>
+        <v>32.19644603922769</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>44614.40416666667</v>
+        <v>44609.4</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>0.001508590093743489</v>
+        <v>0.0006466839912638855</v>
       </c>
       <c r="D86">
-        <v>57.44116110193154</v>
+        <v>33.34986267845503</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>44615.60625</v>
+        <v>44610.39861111111</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
       </c>
       <c r="C87">
-        <v>-0.009591216747608433</v>
+        <v>0.007032150465483777</v>
       </c>
       <c r="D87">
-        <v>57.01793832630003</v>
+        <v>33.22709579851448</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>44615.62013888889</v>
+        <v>44610.40069444444</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
       <c r="C88">
-        <v>-0.002941544639062155</v>
+        <v>0.002672194941026662</v>
       </c>
       <c r="D88">
-        <v>58.86750073046041</v>
+        <v>34.03401006300182</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>44616.41736111111</v>
+        <v>44613.42430555556</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>0.01171683491231146</v>
+        <v>0.005556461194810236</v>
       </c>
       <c r="D89">
-        <v>58.7446363200592</v>
+        <v>33.90921433372989</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>44616.59791666667</v>
+        <v>44613.42777777778</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
       </c>
       <c r="C90">
-        <v>0.001387761640990304</v>
+        <v>0.001641295565800061</v>
       </c>
       <c r="D90">
-        <v>62.43375797682001</v>
+        <v>34.55293291827672</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>44617.39583333334</v>
+        <v>44614.39722222222</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>-0.01074463226731859</v>
+        <v>-0.007417827005222311</v>
       </c>
       <c r="D91">
-        <v>62.01814313878138</v>
+        <v>34.13062127310585</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>44617.39930555555</v>
+        <v>44614.40416666667</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92">
-        <v>-0.001550932821925866</v>
+        <v>0.001508590093743489</v>
       </c>
       <c r="D92">
-        <v>64.52662637147084</v>
+        <v>36.63499519910887</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>44620.39861111111</v>
+        <v>44615.40416666667</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>-0.01054803614212929</v>
+        <v>-0.006019770160336169</v>
       </c>
       <c r="D93">
-        <v>64.10762794205036</v>
+        <v>36.21322827221435</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>44620.41180555556</v>
+        <v>44615.40694444445</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
       <c r="C94">
-        <v>-0.00227714987496852</v>
+        <v>-0.001835965211986146</v>
       </c>
       <c r="D94">
-        <v>66.40735008172344</v>
+        <v>37.29156429004499</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>44621.39722222222</v>
+        <v>44616.40694444445</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
       <c r="C95">
-        <v>-0.0101755046700811</v>
+        <v>0.005233312263667411</v>
       </c>
       <c r="D95">
-        <v>65.98186090609195</v>
+        <v>37.16856002050558</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>44621.40486111111</v>
+        <v>44616.59791666667</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
       <c r="C96">
-        <v>0.001525610123531473</v>
+        <v>0.001387761640990304</v>
       </c>
       <c r="D96">
-        <v>70.292158487667</v>
+        <v>38.88238598633024</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>44622.42152777778</v>
+        <v>44617.39583333334</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>0.009599868639899589</v>
+        <v>-0.01074463226731859</v>
       </c>
       <c r="D97">
-        <v>70.1671367120355</v>
+        <v>38.4667711482916</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>44622.57013888889</v>
+        <v>44617.39930555555</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98">
-        <v>0.001518952537657325</v>
+        <v>-0.001550932821925866</v>
       </c>
       <c r="D98">
-        <v>72.15324932243669</v>
+        <v>40.97525438098107</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>44623.43958333333</v>
+        <v>44620.39652777778</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C99">
-        <v>-0.01016263070480283</v>
+        <v>-0.005567998521382567</v>
       </c>
       <c r="D99">
-        <v>71.73150284427919</v>
+        <v>40.55678077592908</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>44623.44375</v>
+        <v>44620.41180555556</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
       <c r="C100">
-        <v>-0.0009951898382990487</v>
+        <v>-0.00227714987496852</v>
       </c>
       <c r="D100">
-        <v>74.54908316463576</v>
+        <v>41.32014927518622</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>44624.55486111111</v>
+        <v>44621.39583333334</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101">
-        <v>-0.009260790580823297</v>
+        <v>-0.006456764085567723</v>
       </c>
       <c r="D101">
-        <v>74.13371976314988</v>
+        <v>40.8933557690941</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>44624.5875</v>
+        <v>44621.40486111111</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
       <c r="C102">
-        <v>-0.002976651368717942</v>
+        <v>0.001525610123531473</v>
       </c>
       <c r="D102">
-        <v>75.95122242407109</v>
+        <v>43.88259540118918</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>44627.43680555555</v>
+        <v>44622.39861111111</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>-0.009114505655874905</v>
+        <v>0.006604520529611912</v>
       </c>
       <c r="D103">
-        <v>75.53901378959858</v>
+        <v>43.75670962496332</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>44627.46458333333</v>
+        <v>44622.40069444444</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
       <c r="C104">
-        <v>-0.002513078493908028</v>
+        <v>0.001824226654529637</v>
       </c>
       <c r="D104">
-        <v>77.14768382852877</v>
+        <v>44.98491194353685</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>44628.43194444444</v>
+        <v>44623.42291666667</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105">
-        <v>0.009237623762376246</v>
+        <v>-0.005035875633138009</v>
       </c>
       <c r="D105">
-        <v>77.03357234056445</v>
+        <v>44.56198004101087</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>44628.44027777778</v>
+        <v>44623.42638888889</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
       <c r="C106">
-        <v>0.002786173354177524</v>
+        <v>-0.00175614767158927</v>
       </c>
       <c r="D106">
-        <v>78.72284306864766</v>
+        <v>45.50810425170926</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>44629.39583333334</v>
+        <v>44624.40069444444</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>0.009744145423788764</v>
+        <v>0.007888319570737323</v>
       </c>
       <c r="D107">
-        <v>78.61144584041585</v>
+        <v>45.38327781753392</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>44629.39722222222</v>
+        <v>44624.40208333333</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
       <c r="C108">
-        <v>0.001908462437065328</v>
+        <v>0.001140514646523982</v>
       </c>
       <c r="D108">
-        <v>80.43988577503688</v>
+        <v>47.03766444457695</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>44630.40763888889</v>
+        <v>44627.39652777778</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109">
-        <v>0.01057475379927908</v>
+        <v>-0.005223080100038802</v>
       </c>
       <c r="D109">
-        <v>80.32979582971743</v>
+        <v>46.62015046389342</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>44630.61736111111</v>
+        <v>44627.39930555555</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
       </c>
       <c r="C110">
-        <v>0.001559849896331289</v>
+        <v>0.00142723844924264</v>
       </c>
       <c r="D110">
-        <v>82.70943239732519</v>
+        <v>48.68461046151598</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>44634.4</v>
+        <v>44628.39722222222</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>0.01069896337124621</v>
+        <v>-0.006501997568177709</v>
       </c>
       <c r="D111">
-        <v>82.60364683060901</v>
+        <v>48.28246989509695</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>44634.625</v>
+        <v>44628.39791666667</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
       <c r="C112">
-        <v>0.01422504726345186</v>
+        <v>-0.001707833941288928</v>
       </c>
       <c r="D112">
-        <v>81.49795206983643</v>
+        <v>49.46568592303149</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>44635.40902777778</v>
+        <v>44629.39583333334</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
       </c>
       <c r="C113">
-        <v>-0.009031970418545643</v>
+        <v>0.009744145423788764</v>
       </c>
       <c r="D113">
-        <v>81.14897690817223</v>
+        <v>49.35428869479972</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>44635.40972222222</v>
+        <v>44629.39722222222</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
       <c r="C114">
-        <v>0.001650736541835895</v>
+        <v>0.001908462437065328</v>
       </c>
       <c r="D114">
-        <v>83.81412456463588</v>
+        <v>51.18272862942075</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>44636.41388888889</v>
+        <v>44630.39583333334</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115">
-        <v>0.009921893483715083</v>
+        <v>-0.005500922535216501</v>
       </c>
       <c r="D115">
-        <v>83.71736580386325</v>
+        <v>50.80025989301659</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>44636.42222222222</v>
+        <v>44630.39722222222</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116">
-        <v>0.0008721430251954487</v>
+        <v>0.004178234860794383</v>
       </c>
       <c r="D116">
-        <v>85.53355667934616</v>
+        <v>53.28472232035689</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>44637.39652777778</v>
+        <v>44631.39722222222</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117">
-        <v>0.03216219826575872</v>
+        <v>-0.006332120568682709</v>
       </c>
       <c r="D117">
-        <v>85.42572701991077</v>
+        <v>52.92429892362583</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>44637.39930555555</v>
+        <v>44631.39861111111</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
       <c r="C118">
-        <v>0.002072138770138343</v>
+        <v>0.0004819962336916062</v>
       </c>
       <c r="D118">
-        <v>93.07532259940555</v>
+        <v>54.67246634086208</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>44638.39583333334</v>
+        <v>44634.4</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>0.01126739367619967</v>
+        <v>0.01069896337124621</v>
       </c>
       <c r="D119">
-        <v>92.96969407043085</v>
+        <v>54.56668077414587</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>44638.39652777778</v>
+        <v>44634.625</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
       </c>
       <c r="C120">
-        <v>0.001919928624791067</v>
+        <v>0.01422504726345186</v>
       </c>
       <c r="D120">
-        <v>95.19481900059431</v>
+        <v>53.46098601337329</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>44641.4</v>
+        <v>44635.39861111111</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>0.01587475942869165</v>
+        <v>0.005135008639754468</v>
       </c>
       <c r="D121">
-        <v>95.08316244427928</v>
+        <v>53.35971409658276</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>44641.40069444444</v>
+        <v>44635.39930555555</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
       <c r="C122">
-        <v>0.001368594494900899</v>
+        <v>0.0005306960824978946</v>
       </c>
       <c r="D122">
-        <v>98.71549032243682</v>
+        <v>54.25619008380423</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>44642.39652777778</v>
+        <v>44636.39791666667</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C123">
-        <v>-0.01252144449237858</v>
+        <v>-0.006691949231011574</v>
       </c>
       <c r="D123">
-        <v>98.32999759821692</v>
+        <v>53.92067353640453</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>44642.625</v>
+        <v>44636.40069444444</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
       </c>
       <c r="C124">
-        <v>-0.02194420477423054</v>
+        <v>-0.0008271230796708107</v>
       </c>
       <c r="D124">
-        <v>95.28200562199103</v>
+        <v>55.14470403417575</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>44643.40138888889</v>
+        <v>44637.39652777778</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
       <c r="C125">
-        <v>-0.0103819940961819</v>
+        <v>0.03216219826575872</v>
       </c>
       <c r="D125">
-        <v>94.90402728053486</v>
+        <v>55.03687437474036</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>44643.40555555555</v>
+        <v>44637.39930555555</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
       </c>
       <c r="C126">
-        <v>-0.0002357299670692203</v>
+        <v>0.002072138770138343</v>
       </c>
       <c r="D126">
-        <v>97.72656616255567</v>
+        <v>62.68646995423514</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
+        <v>44638.39583333334</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>0.01126739367619967</v>
+      </c>
+      <c r="D127">
+        <v>62.58084142526039</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
+        <v>44638.39652777778</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>0.001919928624791067</v>
+      </c>
+      <c r="D128">
+        <v>64.80596635542385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
+        <v>44641.39583333334</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>0.005181394310144638</v>
+      </c>
+      <c r="D129">
+        <v>64.69640342347732</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
+        <v>44641.39652777778</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>-0.001262870362933155</v>
+      </c>
+      <c r="D130">
+        <v>66.17529631976259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
+        <v>44642.39583333334</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>-0.008229076790336354</v>
+      </c>
+      <c r="D131">
+        <v>65.78933108945057</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
+        <v>44642.625</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>-0.02194420477423054</v>
+      </c>
+      <c r="D132">
+        <v>61.41892752332874</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
+        <v>44643.39652777778</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>-0.005927066336369524</v>
+      </c>
+      <c r="D133">
+        <v>61.03731268439857</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
+        <v>44643.39722222222</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>-0.0002516687928325601</v>
+      </c>
+      <c r="D134">
+        <v>62.57690530014897</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_trade.xlsx
+++ b/tmp_trade.xlsx
@@ -431,21 +431,21 @@
         <v>0.005252869952595884</v>
       </c>
       <c r="D3">
-        <v>-0.1295155756315012</v>
+        <v>-0.1404576</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44544.39791666667</v>
+        <v>44544.39861111111</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.002855931235364761</v>
+        <v>-0.005163316008909846</v>
       </c>
       <c r="D4">
-        <v>0.1772031866270506</v>
+        <v>3.373195780451157</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,21 +459,21 @@
         <v>-0.005281255592410217</v>
       </c>
       <c r="D5">
-        <v>-0.2475439732541034</v>
+        <v>2.89125838045117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44545.46527777778</v>
+        <v>44545.55694444444</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.001425543244441441</v>
+        <v>0.0009123161215536246</v>
       </c>
       <c r="D6">
-        <v>0.4083873447251282</v>
+        <v>4.86028673716468</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -487,21 +487,21 @@
         <v>-0.005796517694205083</v>
       </c>
       <c r="D7">
-        <v>-0.008401065378855321</v>
+        <v>4.382886737164699</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44546.40486111111</v>
+        <v>44546.40972222222</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-0.002914502944468267</v>
+        <v>0.001419106743227205</v>
       </c>
       <c r="D8">
-        <v>0.1794344609213146</v>
+        <v>6.677827367343761</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -515,21 +515,21 @@
         <v>0.005091235417289841</v>
       </c>
       <c r="D9">
-        <v>0.05443316939084042</v>
+        <v>6.543426567343753</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44547.45347222222</v>
+        <v>44547.46319444444</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.002789468382308424</v>
+        <v>-0.0006730097114256983</v>
       </c>
       <c r="D10">
-        <v>0.6920725720654389</v>
+        <v>8.330333199734532</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -543,21 +543,21 @@
         <v>0.01018222798834778</v>
       </c>
       <c r="D11">
-        <v>0.5674159750372212</v>
+        <v>8.195967999734526</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44550.40347222222</v>
+        <v>44550.42291666667</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.002375363766005556</v>
+        <v>-0.0002749379807021057</v>
       </c>
       <c r="D12">
-        <v>2.748288296879776</v>
+        <v>11.54495165723196</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -571,21 +571,21 @@
         <v>-0.005163513588804403</v>
       </c>
       <c r="D13">
-        <v>2.341214130460749</v>
+        <v>11.08562565723193</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44551.39861111111</v>
+        <v>44551.40555555555</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>-0.001361812351970304</v>
+        <v>0.001430282745522704</v>
       </c>
       <c r="D14">
-        <v>3.425741024962966</v>
+        <v>13.12268142328939</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -599,21 +599,21 @@
         <v>-0.006008605812108492</v>
       </c>
       <c r="D15">
-        <v>3.01609046716208</v>
+        <v>12.66404282328941</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>44552.39652777778</v>
+        <v>44552.39791666667</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>-0.001547192976359968</v>
+        <v>0.001376582461748432</v>
       </c>
       <c r="D16">
-        <v>4.21383850757819</v>
+        <v>14.91921511344484</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -627,21 +627,21 @@
         <v>0.005251487414871359</v>
       </c>
       <c r="D17">
-        <v>4.087319861812972</v>
+        <v>14.78397871344486</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>44553.40833333333</v>
+        <v>44553.56805555556</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.002433422682815323</v>
+        <v>-7.898912566006722E-05</v>
       </c>
       <c r="D18">
-        <v>4.594865091233435</v>
+        <v>16.43428094190102</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -655,21 +655,21 @@
         <v>0.006268824383598548</v>
       </c>
       <c r="D19">
-        <v>4.469074480832241</v>
+        <v>16.30038174190102</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44554.42013888889</v>
+        <v>44554.42152777778</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.00207787541729676</v>
+        <v>-0.002480333537927093</v>
       </c>
       <c r="D20">
-        <v>5.610347586330028</v>
+        <v>19.09067537018385</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -683,21 +683,21 @@
         <v>0.005759582047592637</v>
       </c>
       <c r="D21">
-        <v>5.486876306389455</v>
+        <v>18.95963177018387</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44557.39861111111</v>
+        <v>44557.4</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.002741762549097304</v>
+        <v>-0.002578775317762405</v>
       </c>
       <c r="D22">
-        <v>5.833374674888726</v>
+        <v>21.5569909394146</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -711,21 +711,21 @@
         <v>0.005901431694894876</v>
       </c>
       <c r="D23">
-        <v>5.708746452897628</v>
+        <v>21.42511933941462</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44558.42222222222</v>
+        <v>44558.42986111111</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.002154070753788151</v>
+        <v>-0.0001355003177696545</v>
       </c>
       <c r="D24">
-        <v>6.462031632986822</v>
+        <v>23.27291394700946</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -739,21 +739,21 @@
         <v>0.02124079030652481</v>
       </c>
       <c r="D25">
-        <v>6.335854221991248</v>
+        <v>23.13925154700944</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44559.59097222222</v>
+        <v>44559.59236111111</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.002232549573760068</v>
+        <v>-0.00369036760492647</v>
       </c>
       <c r="D26">
-        <v>10.61116714918293</v>
+        <v>31.51324806999398</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -767,21 +767,21 @@
         <v>-0.01176992054234927</v>
       </c>
       <c r="D27">
-        <v>10.16600720089167</v>
+        <v>31.02946126999401</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44560.54375</v>
+        <v>44560.59305555555</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.001980965210581997</v>
+        <v>0.0009829530208691484</v>
       </c>
       <c r="D28">
-        <v>12.82298520980694</v>
+        <v>35.32746126999398</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -795,7 +795,7 @@
         <v>0.01628498197103423</v>
       </c>
       <c r="D29">
-        <v>12.69276860861827</v>
+        <v>35.18904886999399</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -809,7 +809,7 @@
         <v>0.0223322805256877</v>
       </c>
       <c r="D30">
-        <v>11.11396737682033</v>
+        <v>32.78076151587803</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -823,21 +823,21 @@
         <v>0.006094390874376132</v>
       </c>
       <c r="D31">
-        <v>10.98802650787529</v>
+        <v>32.64608631587806</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44565.40972222222</v>
+        <v>44565.41319444445</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>0.001734078254294391</v>
+        <v>-0.0008314686776450531</v>
       </c>
       <c r="D32">
-        <v>11.8125026383359</v>
+        <v>34.87201315482326</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -851,21 +851,21 @@
         <v>0.006447476729180002</v>
       </c>
       <c r="D33">
-        <v>11.68608781634482</v>
+        <v>34.73656835482326</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44566.4</v>
+        <v>44566.40486111111</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>0.002339820834090345</v>
+        <v>-4.848710706817361E-05</v>
       </c>
       <c r="D34">
-        <v>12.94860173224386</v>
+        <v>36.80019721558276</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -879,21 +879,21 @@
         <v>0.005253072551869908</v>
       </c>
       <c r="D35">
-        <v>12.8279484187223</v>
+        <v>36.67187721558278</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44567.40625</v>
+        <v>44567.40972222222</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>0.001564688780229861</v>
+        <v>-0.002162459803532912</v>
       </c>
       <c r="D36">
-        <v>13.50432696166441</v>
+        <v>38.95020530332608</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -907,7 +907,7 @@
         <v>0.006087526266184362</v>
       </c>
       <c r="D37">
-        <v>13.38551464933155</v>
+        <v>38.82354650332607</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -921,7 +921,7 @@
         <v>-0.0005644332684404674</v>
       </c>
       <c r="D38">
-        <v>15.08184748737008</v>
+        <v>40.85335260937845</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -935,7 +935,7 @@
         <v>-0.009828783095422899</v>
       </c>
       <c r="D39">
-        <v>14.71475632362563</v>
+        <v>40.44799380937845</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -949,7 +949,7 @@
         <v>-0.02209514427054193</v>
       </c>
       <c r="D40">
-        <v>12.7799668734028</v>
+        <v>36.9255792765065</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -963,21 +963,21 @@
         <v>-0.01026611325446591</v>
       </c>
       <c r="D41">
-        <v>12.39026092124824</v>
+        <v>36.50295707650648</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44572.40347222222</v>
+        <v>44572.40902777778</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>-0.001359821542850081</v>
+        <v>3.291217933476531E-05</v>
       </c>
       <c r="D42">
-        <v>16.54730096731062</v>
+        <v>39.58010100720487</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -991,7 +991,7 @@
         <v>-0.01033205517825575</v>
       </c>
       <c r="D43">
-        <v>16.14487243744433</v>
+        <v>39.14580560720486</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1005,7 +1005,7 @@
         <v>-0.02136928520819437</v>
       </c>
       <c r="D44">
-        <v>13.16634838216947</v>
+        <v>35.66175309426618</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1019,21 +1019,21 @@
         <v>0.00573284626760695</v>
       </c>
       <c r="D45">
-        <v>13.04682412659741</v>
+        <v>35.53717709426621</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44574.39722222222</v>
+        <v>44574.39861111111</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>0.001415761869522414</v>
+        <v>-0.003040255858304586</v>
       </c>
       <c r="D46">
-        <v>14.15247524101048</v>
+        <v>38.15186622573031</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1047,21 +1047,21 @@
         <v>0.01207111774517011</v>
       </c>
       <c r="D47">
-        <v>14.03442995126311</v>
+        <v>38.02834622573032</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44575.39791666667</v>
+        <v>44575.39861111111</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48">
-        <v>0.0005518786916216545</v>
+        <v>-0.001602115080813649</v>
       </c>
       <c r="D48">
-        <v>17.12355793283815</v>
+        <v>42.13337292182331</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1075,21 +1075,21 @@
         <v>0.00614618460205163</v>
       </c>
       <c r="D49">
-        <v>17.00470810104022</v>
+        <v>42.00972972182331</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44578.40208333333</v>
+        <v>44578.41875</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50">
-        <v>0.002525914455625777</v>
+        <v>-0.001190574168208225</v>
       </c>
       <c r="D50">
-        <v>17.66745212630023</v>
+        <v>44.12674411890507</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1103,21 +1103,21 @@
         <v>0.005762049028420368</v>
       </c>
       <c r="D51">
-        <v>17.55061509569104</v>
+        <v>44.00510571890509</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44579.39722222222</v>
+        <v>44579.39791666667</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>0.0004325707695550518</v>
+        <v>-0.00217712684270599</v>
       </c>
       <c r="D52">
-        <v>18.67941784814277</v>
+        <v>46.33438033959478</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1131,21 +1131,21 @@
         <v>0.005765149572891981</v>
       </c>
       <c r="D53">
-        <v>18.56196551144141</v>
+        <v>46.21186793959476</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44580.40694444445</v>
+        <v>44580.41111111111</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54">
-        <v>0.002399215612726158</v>
+        <v>-0.0008730675235569807</v>
       </c>
       <c r="D54">
-        <v>19.15887280326912</v>
+        <v>48.1398171266916</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1159,21 +1159,21 @@
         <v>0.007521528555344048</v>
       </c>
       <c r="D55">
-        <v>19.04279419702839</v>
+        <v>48.01826912669159</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44581.54375</v>
+        <v>44581.54513888889</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>0.002166309307878644</v>
+        <v>-0.001600551094585567</v>
       </c>
       <c r="D56">
-        <v>20.55296447934639</v>
+        <v>50.64459038064108</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1187,21 +1187,21 @@
         <v>0.005032185683807811</v>
       </c>
       <c r="D57">
-        <v>20.43288832927207</v>
+        <v>50.51956438064109</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44582.40138888889</v>
+        <v>44582.40277777778</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58">
-        <v>0.001622305598469653</v>
+        <v>-0.0007383579783712957</v>
       </c>
       <c r="D58">
-        <v>21.1427960927193</v>
+        <v>52.10182300800301</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1215,21 +1215,21 @@
         <v>-0.005691845892092151</v>
       </c>
       <c r="D59">
-        <v>20.72866612778619</v>
+        <v>51.65426540800301</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44585.41111111111</v>
+        <v>44585.41180555556</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60">
-        <v>-0.001598473112170318</v>
+        <v>0.002291987444706267</v>
       </c>
       <c r="D60">
-        <v>21.65146402823194</v>
+        <v>54.10758840759573</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1243,21 +1243,21 @@
         <v>0.009852585692829097</v>
       </c>
       <c r="D61">
-        <v>21.52448938187236</v>
+        <v>53.9724504075957</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44586.42222222222</v>
+        <v>44586.42291666667</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>0.0001807411373953016</v>
+        <v>-0.001286871772490872</v>
       </c>
       <c r="D62">
-        <v>24.9316984713226</v>
+        <v>57.48158670254326</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1271,21 +1271,21 @@
         <v>-0.005883253418544676</v>
       </c>
       <c r="D63">
-        <v>24.52030698306108</v>
+        <v>57.01700230254327</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44587.41041666667</v>
+        <v>44587.41736111111</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64">
-        <v>-0.002883940498433879</v>
+        <v>0.000576537508826136</v>
       </c>
       <c r="D64">
-        <v>23.96774340772674</v>
+        <v>58.90632877696194</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1299,21 +1299,21 @@
         <v>0.005076446874697549</v>
       </c>
       <c r="D65">
-        <v>23.84873660148602</v>
+        <v>58.77892437696197</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44588.43402777778</v>
+        <v>44588.44305555556</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66">
-        <v>0.002922488752876484</v>
+        <v>-0.001183001604041611</v>
       </c>
       <c r="D66">
-        <v>24.17096986002995</v>
+        <v>60.67657574719306</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1327,21 +1327,21 @@
         <v>0.0127560657554332</v>
       </c>
       <c r="D67">
-        <v>24.05528831471051</v>
+        <v>60.55225574719306</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44589.43055555555</v>
+        <v>44589.43125</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>0.001358364033473669</v>
+        <v>-0.0004495256111229917</v>
       </c>
       <c r="D68">
-        <v>28.68089237800917</v>
+        <v>64.42893328900315</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1355,21 +1355,21 @@
         <v>0.01010214770513729</v>
       </c>
       <c r="D69">
-        <v>28.56418505468078</v>
+        <v>64.30517688900316</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>44599.40555555555</v>
+        <v>44599.40833333333</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="C70">
-        <v>0.001732568644941646</v>
+        <v>-0.0007473426998472199</v>
       </c>
       <c r="D70">
-        <v>30.5790957387819</v>
+        <v>67.45072408033114</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1383,21 +1383,21 @@
         <v>0.009716283499744849</v>
       </c>
       <c r="D71">
-        <v>30.46385504041639</v>
+        <v>67.32746408033115</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>44600.39791666667</v>
+        <v>44600.40069444444</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72">
-        <v>0.001540249872729493</v>
+        <v>-0.0006992818948746704</v>
       </c>
       <c r="D72">
-        <v>32.52781105824699</v>
+        <v>70.36598894507618</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1411,21 +1411,21 @@
         <v>-0.005044657375145034</v>
       </c>
       <c r="D73">
-        <v>32.14879778989631</v>
+        <v>69.93958254507621</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>44601.4375</v>
+        <v>44601.43819444445</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74">
-        <v>-0.000951103368176609</v>
+        <v>0.002063530778164901</v>
       </c>
       <c r="D74">
-        <v>33.10983406745937</v>
+        <v>71.99623860426901</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1439,7 +1439,7 @@
         <v>-0.009207843137254867</v>
       </c>
       <c r="D75">
-        <v>32.7207275310552</v>
+        <v>71.55409760426902</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1453,7 +1453,7 @@
         <v>-0.01927435362766561</v>
       </c>
       <c r="D76">
-        <v>32.84138008499278</v>
+        <v>68.42615628785764</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1467,21 +1467,21 @@
         <v>-0.009258647385218977</v>
       </c>
       <c r="D77">
-        <v>32.42794701753361</v>
+        <v>67.96350668785762</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>44603.41597222222</v>
+        <v>44603.625</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="C78">
-        <v>-0.002520919022752643</v>
+        <v>-0.003247327792339494</v>
       </c>
       <c r="D78">
-        <v>34.97376867280853</v>
+        <v>69.83333650305272</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1495,21 +1495,21 @@
         <v>-0.009475380099261188</v>
       </c>
       <c r="D79">
-        <v>34.56523313937615</v>
+        <v>69.37751050305272</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>44606.39652777778</v>
+        <v>44606.625</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
       <c r="C80">
-        <v>-0.002817071072104604</v>
+        <v>-0.03970970632391613</v>
       </c>
       <c r="D80">
-        <v>36.86391600594384</v>
+        <v>59.27761908373816</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1523,7 +1523,7 @@
         <v>-0.01057228840665281</v>
       </c>
       <c r="D81">
-        <v>36.45465557503746</v>
+        <v>58.83668908373816</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1537,7 +1537,7 @@
         <v>-0.02480083287598467</v>
       </c>
       <c r="D82">
-        <v>31.39843328677604</v>
+        <v>54.14309958837268</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1551,21 +1551,21 @@
         <v>0.0075800440280549</v>
       </c>
       <c r="D83">
-        <v>31.28060013789044</v>
+        <v>54.02053878837265</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>44608.40069444444</v>
+        <v>44608.45625</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
       <c r="C84">
-        <v>0.002482977525213648</v>
+        <v>-0.001723152272223194</v>
       </c>
       <c r="D84">
-        <v>32.31447478870762</v>
+        <v>56.77476839425807</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1579,21 +1579,21 @@
         <v>0.006027090186023321</v>
       </c>
       <c r="D85">
-        <v>32.19644603922769</v>
+        <v>56.65282679425805</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>44609.4</v>
+        <v>44609.40138888889</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>0.0006466839912638855</v>
+        <v>-5.059908044502404E-05</v>
       </c>
       <c r="D86">
-        <v>33.34986267845503</v>
+        <v>58.39020181925805</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1607,21 +1607,21 @@
         <v>0.007032150465483777</v>
       </c>
       <c r="D87">
-        <v>33.22709579851448</v>
+        <v>58.26056701925804</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>44610.40069444444</v>
+        <v>44610.40208333333</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
       <c r="C88">
-        <v>0.002672194941026662</v>
+        <v>-0.002503240708705778</v>
       </c>
       <c r="D88">
-        <v>34.03401006300182</v>
+        <v>61.20368886541183</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1635,21 +1635,21 @@
         <v>0.005556461194810236</v>
       </c>
       <c r="D89">
-        <v>33.90921433372989</v>
+        <v>61.07385966541183</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>44613.42777777778</v>
+        <v>44613.42847222222</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
       </c>
       <c r="C90">
-        <v>0.001641295565800061</v>
+        <v>-0.001139212331479511</v>
       </c>
       <c r="D90">
-        <v>34.55293291827672</v>
+        <v>63.08711145598249</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1663,7 +1663,7 @@
         <v>-0.007417827005222311</v>
       </c>
       <c r="D91">
-        <v>34.13062127310585</v>
+        <v>62.6396966559825</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1677,7 +1677,7 @@
         <v>0.001508590093743489</v>
       </c>
       <c r="D92">
-        <v>36.63499519910887</v>
+        <v>65.38914393359447</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1691,21 +1691,21 @@
         <v>-0.006019770160336169</v>
       </c>
       <c r="D93">
-        <v>36.21322827221435</v>
+        <v>64.94179773359447</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>44615.40694444445</v>
+        <v>44615.41041666667</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
       <c r="C94">
-        <v>-0.001835965211986146</v>
+        <v>0.0001984526003595555</v>
       </c>
       <c r="D94">
-        <v>37.29156429004499</v>
+        <v>66.77211454973794</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1719,21 +1719,21 @@
         <v>0.005233312263667411</v>
       </c>
       <c r="D95">
-        <v>37.16856002050558</v>
+        <v>66.64432294973793</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>44616.59791666667</v>
+        <v>44616.625</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
       <c r="C96">
-        <v>0.001387761640990304</v>
+        <v>0.0121934332459378</v>
       </c>
       <c r="D96">
-        <v>38.88238598633024</v>
+        <v>64.23250892319189</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1747,21 +1747,21 @@
         <v>-0.01074463226731859</v>
       </c>
       <c r="D97">
-        <v>38.4667711482916</v>
+        <v>63.78953492319189</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>44617.39930555555</v>
+        <v>44617.40208333333</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98">
-        <v>-0.001550932821925866</v>
+        <v>0.0001079135537069842</v>
       </c>
       <c r="D98">
-        <v>40.97525438098107</v>
+        <v>67.01372662359672</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1775,21 +1775,21 @@
         <v>-0.005567998521382567</v>
       </c>
       <c r="D99">
-        <v>40.55678077592908</v>
+        <v>66.56447082359671</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>44620.41180555556</v>
+        <v>44620.41805555556</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
       <c r="C100">
-        <v>-0.00227714987496852</v>
+        <v>0.001782200385029742</v>
       </c>
       <c r="D100">
-        <v>41.32014927518622</v>
+        <v>68.76512591026005</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1803,7 +1803,7 @@
         <v>-0.006456764085567723</v>
       </c>
       <c r="D101">
-        <v>40.8933557690941</v>
+        <v>68.29881951026005</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1817,7 +1817,7 @@
         <v>0.001525610123531473</v>
       </c>
       <c r="D102">
-        <v>43.88259540118918</v>
+        <v>70.84073116966597</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1831,21 +1831,21 @@
         <v>0.006604520529611912</v>
       </c>
       <c r="D103">
-        <v>43.75670962496332</v>
+        <v>70.70854356966596</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>44622.40069444444</v>
+        <v>44622.40138888889</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
       <c r="C104">
-        <v>0.001824226654529637</v>
+        <v>-0.001398830793272299</v>
       </c>
       <c r="D104">
-        <v>44.98491194353685</v>
+        <v>73.18674971598799</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1859,21 +1859,21 @@
         <v>-0.005035875633138009</v>
       </c>
       <c r="D105">
-        <v>44.56198004101087</v>
+        <v>72.72625611598798</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>44623.42638888889</v>
+        <v>44623.46736111111</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
       <c r="C106">
-        <v>-0.00175614767158927</v>
+        <v>0.001445507953825587</v>
       </c>
       <c r="D106">
-        <v>45.50810425170926</v>
+        <v>74.7409532219291</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1887,21 +1887,21 @@
         <v>0.007888319570737323</v>
       </c>
       <c r="D107">
-        <v>45.38327781753392</v>
+        <v>74.60939842192909</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>44624.40208333333</v>
+        <v>44624.40277777778</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
       <c r="C108">
-        <v>0.001140514646523982</v>
+        <v>-0.0002800779764653427</v>
       </c>
       <c r="D108">
-        <v>47.03766444457695</v>
+        <v>77.14917770164726</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1915,7 +1915,7 @@
         <v>-0.005223080100038802</v>
       </c>
       <c r="D109">
-        <v>46.62015046389342</v>
+        <v>76.70164670164726</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1929,7 +1929,7 @@
         <v>0.00142723844924264</v>
       </c>
       <c r="D110">
-        <v>48.68461046151598</v>
+        <v>78.69759468591344</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1943,21 +1943,21 @@
         <v>-0.006501997568177709</v>
       </c>
       <c r="D111">
-        <v>48.28246989509695</v>
+        <v>78.27280388591343</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>44628.39791666667</v>
+        <v>44628.39930555555</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
       <c r="C112">
-        <v>-0.001707833941288928</v>
+        <v>0.001294076776098607</v>
       </c>
       <c r="D112">
-        <v>49.46568592303149</v>
+        <v>80.48375114439899</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1971,21 +1971,21 @@
         <v>0.009744145423788764</v>
       </c>
       <c r="D113">
-        <v>49.35428869479972</v>
+        <v>80.36895074439899</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>44629.39722222222</v>
+        <v>44629.41875</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
       <c r="C114">
-        <v>0.001908462437065328</v>
+        <v>-0.002730896990394083</v>
       </c>
       <c r="D114">
-        <v>51.18272862942075</v>
+        <v>83.76698408969338</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1999,7 +1999,7 @@
         <v>-0.005500922535216501</v>
       </c>
       <c r="D115">
-        <v>50.80025989301659</v>
+        <v>83.37130768969338</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2013,7 +2013,7 @@
         <v>0.004178234860794383</v>
       </c>
       <c r="D116">
-        <v>53.28472232035689</v>
+        <v>85.90723877240673</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2027,7 +2027,7 @@
         <v>-0.006332120568682709</v>
       </c>
       <c r="D117">
-        <v>52.92429892362583</v>
+        <v>85.53482477240675</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2041,7 +2041,7 @@
         <v>0.0004819962336916062</v>
       </c>
       <c r="D118">
-        <v>54.67246634086208</v>
+        <v>87.29802106004458</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2055,7 +2055,7 @@
         <v>0.01069896337124621</v>
       </c>
       <c r="D119">
-        <v>54.56668077414587</v>
+        <v>87.18986746004457</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2069,7 +2069,7 @@
         <v>0.01422504726345186</v>
       </c>
       <c r="D120">
-        <v>53.46098601337329</v>
+        <v>86.06206732211362</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2083,21 +2083,21 @@
         <v>0.005135008639754468</v>
       </c>
       <c r="D121">
-        <v>53.35971409658276</v>
+        <v>85.95806732211365</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>44635.39930555555</v>
+        <v>44635.40138888889</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
       <c r="C122">
-        <v>0.0005306960824978946</v>
+        <v>-0.0001856382660155864</v>
       </c>
       <c r="D122">
-        <v>54.25619008380423</v>
+        <v>87.26789084298217</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2111,21 +2111,21 @@
         <v>-0.006691949231011574</v>
       </c>
       <c r="D123">
-        <v>53.92067353640453</v>
+        <v>86.91630324298217</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>44636.40069444444</v>
+        <v>44636.40208333333</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
       </c>
       <c r="C124">
-        <v>-0.0008271230796708107</v>
+        <v>0.00298344666442163</v>
       </c>
       <c r="D124">
-        <v>55.14470403417575</v>
+        <v>89.20113229298217</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2139,21 +2139,21 @@
         <v>0.03216219826575872</v>
       </c>
       <c r="D125">
-        <v>55.03687437474036</v>
+        <v>89.08651309298214</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>44637.39930555555</v>
+        <v>44637.40694444445</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
       </c>
       <c r="C126">
-        <v>0.002072138770138343</v>
+        <v>-0.0007227492372865463</v>
       </c>
       <c r="D126">
-        <v>62.68646995423514</v>
+        <v>97.8455004106293</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2167,21 +2167,21 @@
         <v>0.01126739367619967</v>
       </c>
       <c r="D127">
-        <v>62.58084142526039</v>
+        <v>97.73350041062932</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>44638.39652777778</v>
+        <v>44638.39722222222</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
       </c>
       <c r="C128">
-        <v>0.001919928624791067</v>
+        <v>-0.00110491833235693</v>
       </c>
       <c r="D128">
-        <v>64.80596635542385</v>
+        <v>101.060473081288</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2195,7 +2195,7 @@
         <v>0.005181394310144638</v>
       </c>
       <c r="D129">
-        <v>64.69640342347732</v>
+        <v>100.945656281288</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2209,7 +2209,7 @@
         <v>-0.001262870362933155</v>
       </c>
       <c r="D130">
-        <v>66.17529631976259</v>
+        <v>102.6350869958179</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2223,7 +2223,7 @@
         <v>-0.008229076790336354</v>
       </c>
       <c r="D131">
-        <v>65.78933108945057</v>
+        <v>102.2136869958179</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2237,7 +2237,7 @@
         <v>-0.02194420477423054</v>
       </c>
       <c r="D132">
-        <v>61.41892752332874</v>
+        <v>97.91904178508987</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2251,21 +2251,21 @@
         <v>-0.005927066336369524</v>
       </c>
       <c r="D133">
-        <v>61.03731268439857</v>
+        <v>97.50937238508986</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>44643.39722222222</v>
+        <v>44643.46388888889</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>-0.0002516687928325601</v>
+        <v>0.001243762423235539</v>
       </c>
       <c r="D134">
-        <v>62.57690530014897</v>
+        <v>99.47158823586255</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_trade.xlsx
+++ b/tmp_trade.xlsx
@@ -431,7 +431,7 @@
         <v>0.005252869952595884</v>
       </c>
       <c r="D3">
-        <v>-0.1404576</v>
+        <v>-0.14008971</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,7 +445,7 @@
         <v>-0.005163316008909846</v>
       </c>
       <c r="D4">
-        <v>3.373195780451157</v>
+        <v>3.017314782000009</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,7 +459,7 @@
         <v>-0.005281255592410217</v>
       </c>
       <c r="D5">
-        <v>2.89125838045117</v>
+        <v>2.533194110938125</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,7 +473,7 @@
         <v>0.0009123161215536246</v>
       </c>
       <c r="D6">
-        <v>4.86028673716468</v>
+        <v>4.530542424979452</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -487,7 +487,7 @@
         <v>-0.005796517694205083</v>
       </c>
       <c r="D7">
-        <v>4.382886737164699</v>
+        <v>4.050767707610483</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -501,7 +501,7 @@
         <v>0.001419106743227205</v>
       </c>
       <c r="D8">
-        <v>6.677827367343761</v>
+        <v>6.379209187158248</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -515,7 +515,7 @@
         <v>0.005091235417289841</v>
       </c>
       <c r="D9">
-        <v>6.543426567343753</v>
+        <v>6.245148787158267</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -529,7 +529,7 @@
         <v>-0.0006730097114256983</v>
       </c>
       <c r="D10">
-        <v>8.330333199734532</v>
+        <v>7.706085949112019</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -543,7 +543,7 @@
         <v>0.01018222798834778</v>
       </c>
       <c r="D11">
-        <v>8.195967999734526</v>
+        <v>7.572403121302903</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -557,7 +557,7 @@
         <v>-0.0002749379807021057</v>
       </c>
       <c r="D12">
-        <v>11.54495165723196</v>
+        <v>10.61403614274982</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -571,7 +571,7 @@
         <v>-0.005163513588804403</v>
       </c>
       <c r="D13">
-        <v>11.08562565723193</v>
+        <v>10.15266560203998</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -585,7 +585,7 @@
         <v>0.001430282745522704</v>
       </c>
       <c r="D14">
-        <v>13.12268142328939</v>
+        <v>12.19693339222787</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -599,7 +599,7 @@
         <v>-0.006008605812108492</v>
       </c>
       <c r="D15">
-        <v>12.66404282328941</v>
+        <v>11.73594566769959</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -613,7 +613,7 @@
         <v>0.001376582461748432</v>
       </c>
       <c r="D16">
-        <v>14.91921511344484</v>
+        <v>14.01149370543539</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -627,7 +627,7 @@
         <v>0.005251487414871359</v>
       </c>
       <c r="D17">
-        <v>14.78397871344486</v>
+        <v>13.87661125568715</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -641,7 +641,7 @@
         <v>-7.898912566006722E-05</v>
       </c>
       <c r="D18">
-        <v>16.43428094190102</v>
+        <v>15.20546330664386</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -655,7 +655,7 @@
         <v>0.006268824383598548</v>
       </c>
       <c r="D19">
-        <v>16.30038174190102</v>
+        <v>15.07198411787758</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -669,7 +669,7 @@
         <v>-0.002480333537927093</v>
       </c>
       <c r="D20">
-        <v>19.09067537018385</v>
+        <v>17.53929272750642</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -683,7 +683,7 @@
         <v>0.005759582047592637</v>
       </c>
       <c r="D21">
-        <v>18.95963177018387</v>
+        <v>17.4086245359124</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -697,7 +697,7 @@
         <v>-0.002578775317762405</v>
       </c>
       <c r="D22">
-        <v>21.5569909394146</v>
+        <v>19.66765775856744</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -711,7 +711,7 @@
         <v>0.005901431694894876</v>
       </c>
       <c r="D23">
-        <v>21.42511933941462</v>
+        <v>19.53617162828288</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -725,7 +725,7 @@
         <v>-0.0001355003177696545</v>
       </c>
       <c r="D24">
-        <v>23.27291394700946</v>
+        <v>21.04707115064054</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -739,7 +739,7 @@
         <v>0.02124079030652481</v>
       </c>
       <c r="D25">
-        <v>23.13925154700944</v>
+        <v>20.9147974097884</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -753,7 +753,7 @@
         <v>-0.00369036760492647</v>
       </c>
       <c r="D26">
-        <v>31.51324806999398</v>
+        <v>28.58270557269567</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -767,7 +767,7 @@
         <v>-0.01176992054234927</v>
       </c>
       <c r="D27">
-        <v>31.02946126999401</v>
+        <v>28.09400365387717</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -781,7 +781,7 @@
         <v>0.0009829530208691484</v>
       </c>
       <c r="D28">
-        <v>35.32746126999398</v>
+        <v>32.3920720674074</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -795,7 +795,7 @@
         <v>0.01628498197103423</v>
       </c>
       <c r="D29">
-        <v>35.18904886999399</v>
+        <v>32.25479997441499</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -809,7 +809,7 @@
         <v>0.0223322805256877</v>
       </c>
       <c r="D30">
-        <v>32.78076151587803</v>
+        <v>29.67255178312711</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -823,7 +823,7 @@
         <v>0.006094390874376132</v>
       </c>
       <c r="D31">
-        <v>32.64608631587806</v>
+        <v>29.53828961827985</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -837,7 +837,7 @@
         <v>-0.0008314686776450531</v>
       </c>
       <c r="D32">
-        <v>34.87201315482326</v>
+        <v>31.41371710861538</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -851,7 +851,7 @@
         <v>0.006447476729180002</v>
       </c>
       <c r="D33">
-        <v>34.73656835482326</v>
+        <v>31.2787107331645</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -865,7 +865,7 @@
         <v>-4.848710706817361E-05</v>
       </c>
       <c r="D34">
-        <v>36.80019721558276</v>
+        <v>33.01871916703222</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -879,7 +879,7 @@
         <v>0.005253072551869908</v>
       </c>
       <c r="D35">
-        <v>36.67187721558278</v>
+        <v>32.89073988131792</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -893,7 +893,7 @@
         <v>-0.002162459803532912</v>
       </c>
       <c r="D36">
-        <v>38.95020530332608</v>
+        <v>34.8487672813179</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -907,7 +907,7 @@
         <v>0.006087526266184362</v>
       </c>
       <c r="D37">
-        <v>38.82354650332607</v>
+        <v>34.72250247819292</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -921,7 +921,7 @@
         <v>-0.0005644332684404674</v>
       </c>
       <c r="D38">
-        <v>40.85335260937845</v>
+        <v>36.43392391569289</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -935,7 +935,7 @@
         <v>-0.009828783095422899</v>
       </c>
       <c r="D39">
-        <v>40.44799380937845</v>
+        <v>36.02515838084176</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -949,7 +949,7 @@
         <v>-0.02209514427054193</v>
       </c>
       <c r="D40">
-        <v>36.9255792765065</v>
+        <v>32.36066622672625</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -963,7 +963,7 @@
         <v>-0.01026611325446591</v>
       </c>
       <c r="D41">
-        <v>36.50295707650648</v>
+        <v>31.9343420662867</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -977,7 +977,7 @@
         <v>3.291217933476531E-05</v>
       </c>
       <c r="D42">
-        <v>39.58010100720487</v>
+        <v>34.9029211871658</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -991,7 +991,7 @@
         <v>-0.01033205517825575</v>
       </c>
       <c r="D43">
-        <v>39.14580560720486</v>
+        <v>34.46478474233275</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1005,7 +1005,7 @@
         <v>-0.02136928520819437</v>
       </c>
       <c r="D44">
-        <v>35.66175309426618</v>
+        <v>30.91904603814624</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1019,7 +1019,7 @@
         <v>0.00573284626760695</v>
       </c>
       <c r="D45">
-        <v>35.53717709426621</v>
+        <v>30.79482857264495</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1033,7 +1033,7 @@
         <v>-0.003040255858304586</v>
       </c>
       <c r="D46">
-        <v>38.15186622573031</v>
+        <v>33.10622952071687</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1047,7 +1047,7 @@
         <v>0.01207111774517011</v>
       </c>
       <c r="D47">
-        <v>38.02834622573032</v>
+        <v>32.98345382583702</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1061,7 +1061,7 @@
         <v>-0.001602115080813649</v>
       </c>
       <c r="D48">
-        <v>42.13337292182331</v>
+        <v>36.77054738759252</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1075,7 +1075,7 @@
         <v>0.00614618460205163</v>
       </c>
       <c r="D49">
-        <v>42.00972972182331</v>
+        <v>36.64728222465653</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1089,7 +1089,7 @@
         <v>-0.001190574168208225</v>
       </c>
       <c r="D50">
-        <v>44.12674411890507</v>
+        <v>38.47761696718641</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1103,7 +1103,7 @@
         <v>0.005762049028420368</v>
       </c>
       <c r="D51">
-        <v>44.00510571890509</v>
+        <v>38.35633178079185</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1117,7 +1117,7 @@
         <v>-0.00217712684270599</v>
       </c>
       <c r="D52">
-        <v>46.33438033959478</v>
+        <v>40.36229443803936</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1131,7 +1131,7 @@
         <v>0.005765149572891981</v>
       </c>
       <c r="D53">
-        <v>46.21186793959476</v>
+        <v>40.24013593405192</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1145,7 +1145,7 @@
         <v>-0.0008730675235569807</v>
       </c>
       <c r="D54">
-        <v>48.1398171266916</v>
+        <v>41.84816523121877</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1159,7 +1159,7 @@
         <v>0.007521528555344048</v>
       </c>
       <c r="D55">
-        <v>48.01826912669159</v>
+        <v>41.72707480340845</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1173,7 +1173,7 @@
         <v>-0.001600551094585567</v>
       </c>
       <c r="D56">
-        <v>50.64459038064108</v>
+        <v>44.0851107637707</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1187,7 +1187,7 @@
         <v>0.005032185683807811</v>
       </c>
       <c r="D57">
-        <v>50.51956438064109</v>
+        <v>43.96038216594464</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1201,7 +1201,7 @@
         <v>-0.0007383579783712957</v>
       </c>
       <c r="D58">
-        <v>52.10182300800301</v>
+        <v>45.22966259637942</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1215,7 +1215,7 @@
         <v>-0.005691845892092151</v>
       </c>
       <c r="D59">
-        <v>51.65426540800301</v>
+        <v>44.77988312058675</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1229,7 +1229,7 @@
         <v>0.002291987444706267</v>
       </c>
       <c r="D60">
-        <v>54.10758840759573</v>
+        <v>47.24938200604219</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1243,7 +1243,7 @@
         <v>0.009852585692829097</v>
       </c>
       <c r="D61">
-        <v>53.9724504075957</v>
+        <v>47.11489670831607</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1257,7 +1257,7 @@
         <v>-0.001286871772490872</v>
       </c>
       <c r="D62">
-        <v>57.48158670254326</v>
+        <v>50.3433646555622</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1271,7 +1271,7 @@
         <v>-0.005883253418544676</v>
       </c>
       <c r="D63">
-        <v>57.01700230254327</v>
+        <v>49.87647871270505</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1285,7 +1285,7 @@
         <v>0.000576537508826136</v>
       </c>
       <c r="D64">
-        <v>58.90632877696194</v>
+        <v>51.85504986508608</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1299,7 +1299,7 @@
         <v>0.005076446874697549</v>
       </c>
       <c r="D65">
-        <v>58.77892437696197</v>
+        <v>51.72797340456947</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1313,7 +1313,7 @@
         <v>-0.001183001604041611</v>
       </c>
       <c r="D66">
-        <v>60.67657574719306</v>
+        <v>53.30552298980934</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1327,7 +1327,7 @@
         <v>0.0127560657554332</v>
       </c>
       <c r="D67">
-        <v>60.55225574719306</v>
+        <v>53.18199922343378</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1341,7 +1341,7 @@
         <v>-0.0004495256111229917</v>
       </c>
       <c r="D68">
-        <v>64.42893328900315</v>
+        <v>56.88754073260407</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1355,7 +1355,7 @@
         <v>0.01010214770513729</v>
       </c>
       <c r="D69">
-        <v>64.30517688900316</v>
+        <v>56.76439056248785</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1369,7 +1369,7 @@
         <v>-0.0007473426998472199</v>
       </c>
       <c r="D70">
-        <v>67.45072408033114</v>
+        <v>59.58906147029091</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1383,7 +1383,7 @@
         <v>0.009716283499744849</v>
       </c>
       <c r="D71">
-        <v>67.32746408033115</v>
+        <v>59.46639289463777</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1397,7 +1397,7 @@
         <v>-0.0006992818948746704</v>
       </c>
       <c r="D72">
-        <v>70.36598894507618</v>
+        <v>62.21053258657779</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1411,7 +1411,7 @@
         <v>-0.005044657375145034</v>
       </c>
       <c r="D73">
-        <v>69.93958254507621</v>
+        <v>61.78226470800636</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1425,7 +1425,7 @@
         <v>0.002063530778164901</v>
       </c>
       <c r="D74">
-        <v>71.99623860426901</v>
+        <v>63.84600387229206</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1439,7 +1439,7 @@
         <v>-0.009207843137254867</v>
       </c>
       <c r="D75">
-        <v>71.55409760426902</v>
+        <v>63.40034087229205</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1453,7 +1453,7 @@
         <v>-0.01927435362766561</v>
       </c>
       <c r="D76">
-        <v>68.42615628785764</v>
+        <v>60.05602311342989</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1467,7 +1467,7 @@
         <v>-0.009258647385218977</v>
       </c>
       <c r="D77">
-        <v>67.96350668785762</v>
+        <v>59.58964073789472</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1481,7 +1481,7 @@
         <v>-0.003247327792339494</v>
       </c>
       <c r="D78">
-        <v>69.83333650305272</v>
+        <v>61.47681760191103</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1495,7 +1495,7 @@
         <v>-0.009475380099261188</v>
       </c>
       <c r="D79">
-        <v>69.37751050305272</v>
+        <v>61.01723252911803</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1509,7 +1509,7 @@
         <v>-0.03970970632391613</v>
       </c>
       <c r="D80">
-        <v>59.27761908373816</v>
+        <v>50.89194507346499</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1523,7 +1523,7 @@
         <v>-0.01057228840665281</v>
       </c>
       <c r="D81">
-        <v>58.83668908373816</v>
+        <v>50.44698089119692</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1537,7 +1537,7 @@
         <v>-0.02480083287598467</v>
       </c>
       <c r="D82">
-        <v>54.14309958837268</v>
+        <v>45.79855415305263</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1551,7 +1551,7 @@
         <v>0.0075800440280549</v>
       </c>
       <c r="D83">
-        <v>54.02053878837265</v>
+        <v>45.67645725174715</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1565,7 +1565,7 @@
         <v>-0.001723152272223194</v>
       </c>
       <c r="D84">
-        <v>56.77476839425807</v>
+        <v>48.09203257811789</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1579,7 +1579,7 @@
         <v>0.006027090186023321</v>
       </c>
       <c r="D85">
-        <v>56.65282679425805</v>
+        <v>47.97045871138224</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1593,7 +1593,7 @@
         <v>-5.059908044502404E-05</v>
       </c>
       <c r="D86">
-        <v>58.39020181925805</v>
+        <v>49.3992380195043</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1607,7 +1607,7 @@
         <v>0.007032150465483777</v>
       </c>
       <c r="D87">
-        <v>58.26056701925804</v>
+        <v>49.27005561180805</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1621,7 +1621,7 @@
         <v>-0.002503240708705778</v>
       </c>
       <c r="D88">
-        <v>61.20368886541183</v>
+        <v>51.88589130601019</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1635,7 +1635,7 @@
         <v>0.005556461194810236</v>
       </c>
       <c r="D89">
-        <v>61.07385966541183</v>
+        <v>51.75641549694218</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1649,7 +1649,7 @@
         <v>-0.001139212331479511</v>
       </c>
       <c r="D90">
-        <v>63.08711145598249</v>
+        <v>53.43019515487668</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1663,7 +1663,7 @@
         <v>-0.007417827005222311</v>
       </c>
       <c r="D91">
-        <v>62.6396966559825</v>
+        <v>52.9798827647192</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1677,7 +1677,7 @@
         <v>0.001508590093743489</v>
       </c>
       <c r="D92">
-        <v>65.38914393359447</v>
+        <v>55.75826000074287</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1691,7 +1691,7 @@
         <v>-0.006019770160336169</v>
       </c>
       <c r="D93">
-        <v>64.94179773359447</v>
+        <v>55.30861953871566</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1705,7 +1705,7 @@
         <v>0.0001984526003595555</v>
       </c>
       <c r="D94">
-        <v>66.77211454973794</v>
+        <v>57.15609591148424</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1719,7 +1719,7 @@
         <v>0.005233312263667411</v>
       </c>
       <c r="D95">
-        <v>66.64432294973793</v>
+        <v>57.02863945280158</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1733,7 +1733,7 @@
         <v>0.0121934332459378</v>
       </c>
       <c r="D96">
-        <v>64.23250892319189</v>
+        <v>54.36996171906898</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1747,7 +1747,7 @@
         <v>-0.01074463226731859</v>
       </c>
       <c r="D97">
-        <v>63.78953492319189</v>
+        <v>53.9229839725343</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1761,7 +1761,7 @@
         <v>0.0001079135537069842</v>
       </c>
       <c r="D98">
-        <v>67.01372662359672</v>
+        <v>57.16575576044465</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1775,7 +1775,7 @@
         <v>-0.005567998521382567</v>
       </c>
       <c r="D99">
-        <v>66.56447082359671</v>
+        <v>56.71436458178611</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1789,7 +1789,7 @@
         <v>0.001782200385029742</v>
       </c>
       <c r="D100">
-        <v>68.76512591026005</v>
+        <v>58.93573151552598</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1803,7 +1803,7 @@
         <v>-0.006456764085567723</v>
       </c>
       <c r="D101">
-        <v>68.29881951026005</v>
+        <v>58.46685351552595</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1817,7 +1817,7 @@
         <v>0.001525610123531473</v>
       </c>
       <c r="D102">
-        <v>70.84073116966597</v>
+        <v>60.98022238552591</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1831,7 +1831,7 @@
         <v>0.006604520529611912</v>
       </c>
       <c r="D103">
-        <v>70.70854356966596</v>
+        <v>60.84846694043863</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1845,7 +1845,7 @@
         <v>-0.001398830793272299</v>
       </c>
       <c r="D104">
-        <v>73.18674971598799</v>
+        <v>63.00940739949103</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1859,7 +1859,7 @@
         <v>-0.005035875633138009</v>
       </c>
       <c r="D105">
-        <v>72.72625611598798</v>
+        <v>62.54690901740146</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1873,7 +1873,7 @@
         <v>0.001445507953825587</v>
       </c>
       <c r="D106">
-        <v>74.7409532219291</v>
+        <v>64.56503833182933</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1887,7 +1887,7 @@
         <v>0.007888319570737323</v>
       </c>
       <c r="D107">
-        <v>74.60939842192909</v>
+        <v>64.43399808691493</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1901,7 +1901,7 @@
         <v>-0.0002800779764653427</v>
       </c>
       <c r="D108">
-        <v>77.14917770164726</v>
+        <v>66.6401497300167</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1915,7 +1915,7 @@
         <v>-0.005223080100038802</v>
       </c>
       <c r="D109">
-        <v>76.70164670164726</v>
+        <v>66.19061996172402</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1929,7 +1929,7 @@
         <v>0.00142723844924264</v>
       </c>
       <c r="D110">
-        <v>78.69759468591344</v>
+        <v>68.18245917635815</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1943,7 +1943,7 @@
         <v>-0.006501997568177709</v>
       </c>
       <c r="D111">
-        <v>78.27280388591343</v>
+        <v>67.75530425004237</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1957,7 +1957,7 @@
         <v>0.001294076776098607</v>
       </c>
       <c r="D112">
-        <v>80.48375114439899</v>
+        <v>69.99719319741075</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1971,7 +1971,7 @@
         <v>0.009744145423788764</v>
       </c>
       <c r="D113">
-        <v>80.36895074439899</v>
+        <v>69.8829443004511</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1985,7 +1985,7 @@
         <v>-0.002730896990394083</v>
       </c>
       <c r="D114">
-        <v>83.76698408969338</v>
+        <v>73.01834231692419</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1999,7 +1999,7 @@
         <v>-0.005500922535216501</v>
       </c>
       <c r="D115">
-        <v>83.37130768969338</v>
+        <v>72.6208539196422</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2013,7 +2013,7 @@
         <v>0.004178234860794383</v>
       </c>
       <c r="D116">
-        <v>85.90723877240673</v>
+        <v>75.16444872994799</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2027,7 +2027,7 @@
         <v>-0.006332120568682709</v>
       </c>
       <c r="D117">
-        <v>85.53482477240675</v>
+        <v>74.78994589761334</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2041,7 +2041,7 @@
         <v>0.0004819962336916062</v>
       </c>
       <c r="D118">
-        <v>87.29802106004458</v>
+        <v>76.55619949252575</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2055,7 +2055,7 @@
         <v>0.01069896337124621</v>
       </c>
       <c r="D119">
-        <v>87.18986746004457</v>
+        <v>76.44862549388785</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2069,7 +2069,7 @@
         <v>0.01422504726345186</v>
       </c>
       <c r="D120">
-        <v>86.06206732211362</v>
+        <v>75.12687993429654</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2083,7 +2083,7 @@
         <v>0.005135008639754468</v>
       </c>
       <c r="D121">
-        <v>85.95806732211365</v>
+        <v>75.02315228488477</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2097,7 +2097,7 @@
         <v>-0.0001856382660155864</v>
       </c>
       <c r="D122">
-        <v>87.26789084298217</v>
+        <v>76.07139576253181</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2111,7 +2111,7 @@
         <v>-0.006691949231011574</v>
       </c>
       <c r="D123">
-        <v>86.91630324298217</v>
+        <v>75.71781875845018</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2125,7 +2125,7 @@
         <v>0.00298344666442163</v>
       </c>
       <c r="D124">
-        <v>89.20113229298217</v>
+        <v>78.01419325742975</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2139,7 +2139,7 @@
         <v>0.03216219826575872</v>
       </c>
       <c r="D125">
-        <v>89.08651309298214</v>
+        <v>77.90131501008673</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2153,7 +2153,7 @@
         <v>-0.0007227492372865463</v>
       </c>
       <c r="D126">
-        <v>97.8455004106293</v>
+        <v>86.41412328544915</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2167,7 +2167,7 @@
         <v>0.01126739367619967</v>
       </c>
       <c r="D127">
-        <v>97.73350041062932</v>
+        <v>86.30274907649391</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2181,7 +2181,7 @@
         <v>-0.00110491833235693</v>
       </c>
       <c r="D128">
-        <v>101.060473081288</v>
+        <v>89.35074991828502</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2195,7 +2195,7 @@
         <v>0.005181394310144638</v>
       </c>
       <c r="D129">
-        <v>100.945656281288</v>
+        <v>89.23622350434775</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2209,7 +2209,7 @@
         <v>-0.001262870362933155</v>
       </c>
       <c r="D130">
-        <v>102.6350869958179</v>
+        <v>90.64296349319787</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2223,7 +2223,7 @@
         <v>-0.008229076790336354</v>
       </c>
       <c r="D131">
-        <v>102.2136869958179</v>
+        <v>90.21856152598475</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2237,7 +2237,7 @@
         <v>-0.02194420477423054</v>
       </c>
       <c r="D132">
-        <v>97.91904178508987</v>
+        <v>85.92942841123066</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2251,7 +2251,7 @@
         <v>-0.005927066336369524</v>
       </c>
       <c r="D133">
-        <v>97.50937238508986</v>
+        <v>85.51765371726799</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2265,7 +2265,7 @@
         <v>0.001243762423235539</v>
       </c>
       <c r="D134">
-        <v>99.47158823586255</v>
+        <v>87.52544946084656</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_trade.xlsx
+++ b/tmp_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="6">
   <si>
     <t>signal</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2240,34 +2240,6 @@
         <v>85.92942841123066</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
-        <v>44643.39652777778</v>
-      </c>
-      <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133">
-        <v>-0.005927066336369524</v>
-      </c>
-      <c r="D133">
-        <v>85.51765371726799</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2">
-        <v>44643.46388888889</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134">
-        <v>0.001243762423235539</v>
-      </c>
-      <c r="D134">
-        <v>87.52544946084656</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmp_trade.xlsx
+++ b/tmp_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="6">
   <si>
     <t>signal</t>
   </si>
@@ -25,13 +25,13 @@
     <t>net value</t>
   </si>
   <si>
-    <t>-11</t>
+    <t>1-1</t>
   </si>
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>1-1</t>
+    <t>-11</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,1822 +422,1794 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44544.39583333334</v>
+        <v>44643.39652777778</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.005252869952595884</v>
+        <v>-0.005927066336369524</v>
       </c>
       <c r="D3">
-        <v>-0.14008971</v>
+        <v>-0.4117746939626783</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44544.39861111111</v>
+        <v>44643.46388888889</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>-0.005163316008909846</v>
+        <v>0.001243762423235539</v>
       </c>
       <c r="D4">
-        <v>3.017314782000009</v>
+        <v>1.596021049615879</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44545.39583333334</v>
+        <v>44644.4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>-0.005281255592410217</v>
+        <v>-0.01105406746031734</v>
       </c>
       <c r="D5">
-        <v>2.533194110938125</v>
+        <v>1.200207763901614</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44545.55694444444</v>
+        <v>44644.44791666666</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.0009123161215536246</v>
+        <v>0.0002569444444445734</v>
       </c>
       <c r="D6">
-        <v>4.530542424979452</v>
+        <v>4.346164392473083</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44546.39583333334</v>
+        <v>44645.39652777778</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-0.005796517694205083</v>
+        <v>-0.005524756876615911</v>
       </c>
       <c r="D7">
-        <v>4.050767707610483</v>
+        <v>3.944514819409126</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44546.40972222222</v>
+        <v>44645.39930555555</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.001419106743227205</v>
+        <v>0.004298169792012141</v>
       </c>
       <c r="D8">
-        <v>6.379209187158248</v>
+        <v>6.617109264302444</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44547.40347222222</v>
+        <v>44648.39652777778</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.005091235417289841</v>
+        <v>-0.01114758566103868</v>
       </c>
       <c r="D9">
-        <v>6.245148787158267</v>
+        <v>6.2116889275541</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44547.46319444444</v>
+        <v>44648.625</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>-0.0006730097114256983</v>
+        <v>-0.01987574709851037</v>
       </c>
       <c r="D10">
-        <v>7.706085949112019</v>
+        <v>3.54284296363419</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44550.39583333334</v>
+        <v>44649.39583333334</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.01018222798834778</v>
+        <v>-0.008245069265976013</v>
       </c>
       <c r="D11">
-        <v>7.572403121302903</v>
+        <v>3.150875915090511</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44550.42291666667</v>
+        <v>44649.625</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-0.0002749379807021057</v>
+        <v>-0.002289789788486485</v>
       </c>
       <c r="D12">
-        <v>10.61403614274982</v>
+        <v>4.705398984993466</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44551.39583333334</v>
+        <v>44650.40416666667</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>-0.005163513588804403</v>
+        <v>0.005134414437655943</v>
       </c>
       <c r="D13">
-        <v>10.15266560203998</v>
+        <v>4.593505544510415</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44551.40555555555</v>
+        <v>44650.625</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.001430282745522704</v>
+        <v>0.009710200135386593</v>
       </c>
       <c r="D14">
-        <v>12.19693339222787</v>
+        <v>2.929878522083732</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>44552.39583333334</v>
+        <v>44651.39583333334</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>-0.006008605812108492</v>
+        <v>-0.006114883940970706</v>
       </c>
       <c r="D15">
-        <v>11.73594566769959</v>
+        <v>2.531592165562015</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>44552.39791666667</v>
+        <v>44651.40486111111</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.001376582461748432</v>
+        <v>0.00193340149861887</v>
       </c>
       <c r="D16">
-        <v>14.01149370543539</v>
+        <v>4.711057652518495</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>44553.39583333334</v>
+        <v>44652.39583333334</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>0.005251487414871359</v>
+        <v>0.006196360665957967</v>
       </c>
       <c r="D17">
-        <v>13.87661125568715</v>
+        <v>4.598133999892855</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>44553.56805555556</v>
+        <v>44652.39722222222</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>-7.898912566006722E-05</v>
+        <v>-0.002563454479511784</v>
       </c>
       <c r="D18">
-        <v>15.20546330664386</v>
+        <v>6.691706718921687</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44554.40138888889</v>
+        <v>44657.39583333334</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.006268824383598548</v>
+        <v>0.01361099082321515</v>
       </c>
       <c r="D19">
-        <v>15.07198411787758</v>
+        <v>6.568149928132916</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44554.42152777778</v>
+        <v>44657.40138888889</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>-0.002480333537927093</v>
+        <v>-0.001860292028832977</v>
       </c>
       <c r="D20">
-        <v>17.53929272750642</v>
+        <v>10.93102287858294</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44557.39722222222</v>
+        <v>44658.39583333334</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.005759582047592637</v>
+        <v>0.007122486553561513</v>
       </c>
       <c r="D21">
-        <v>17.4086245359124</v>
+        <v>10.80710456050062</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44557.4</v>
+        <v>44658.42638888889</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>-0.002578775317762405</v>
+        <v>-0.0009287113559584004</v>
       </c>
       <c r="D22">
-        <v>19.66765775856744</v>
+        <v>12.86615939009941</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44558.41875</v>
+        <v>44659.39583333334</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.005901431694894876</v>
+        <v>-0.005666311040075422</v>
       </c>
       <c r="D23">
-        <v>19.53617162828288</v>
+        <v>12.43569649904252</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44558.42986111111</v>
+        <v>44659.39722222222</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>-0.0001355003177696545</v>
+        <v>0.001115734705253724</v>
       </c>
       <c r="D24">
-        <v>21.04707115064054</v>
+        <v>14.36055784484202</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44559.39583333334</v>
+        <v>44662.39583333334</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.02124079030652481</v>
+        <v>-0.01008356464274196</v>
       </c>
       <c r="D25">
-        <v>20.9147974097884</v>
+        <v>13.92316600828514</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44559.59236111111</v>
+        <v>44662.625</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>-0.00369036760492647</v>
+        <v>-0.01912323078260569</v>
       </c>
       <c r="D26">
-        <v>28.58270557269567</v>
+        <v>11.02309108288664</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44560.39861111111</v>
+        <v>44663.39722222222</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>-0.01176992054234927</v>
+        <v>-0.007359976201512852</v>
       </c>
       <c r="D27">
-        <v>28.09400365387717</v>
+        <v>10.58840303325314</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44560.59305555555</v>
+        <v>44663.4</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0.0009829530208691484</v>
+        <v>0.0001334915996173969</v>
       </c>
       <c r="D28">
-        <v>32.3920720674074</v>
+        <v>12.75587523241541</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44561.39583333334</v>
+        <v>44664.39583333334</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.01628498197103423</v>
+        <v>-0.01738259652471297</v>
       </c>
       <c r="D29">
-        <v>32.25479997441499</v>
+        <v>12.3136910227312</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44561.625</v>
+        <v>44664.39722222222</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.0223322805256877</v>
+        <v>0.0003955904494370444</v>
       </c>
       <c r="D30">
-        <v>29.67255178312711</v>
+        <v>17.62628994683641</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44565.40833333333</v>
+        <v>44665.39583333334</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>0.006094390874376132</v>
+        <v>0.01212928921568635</v>
       </c>
       <c r="D31">
-        <v>29.53828961827985</v>
+        <v>17.49493814683638</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44565.41319444445</v>
+        <v>44665.40069444444</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>-0.0008314686776450531</v>
+        <v>-0.003694421430543993</v>
       </c>
       <c r="D32">
-        <v>31.41371710861538</v>
+        <v>22.22560467078008</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44566.39791666667</v>
+        <v>44666.39583333334</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>0.006447476729180002</v>
+        <v>0.01660676321345234</v>
       </c>
       <c r="D33">
-        <v>31.2787107331645</v>
+        <v>22.10619482265976</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44566.40486111111</v>
+        <v>44666.45347222222</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>-4.848710706817361E-05</v>
+        <v>-0.001178636245786957</v>
       </c>
       <c r="D34">
-        <v>33.01871916703222</v>
+        <v>27.11324968431388</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44567.40486111111</v>
+        <v>44669.39583333334</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>0.005253072551869908</v>
+        <v>0.009996584632878114</v>
       </c>
       <c r="D35">
-        <v>32.89073988131792</v>
+        <v>26.99931546223078</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44567.40972222222</v>
+        <v>44669.40069444444</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>-0.002162459803532912</v>
+        <v>-0.001924137084187816</v>
       </c>
       <c r="D36">
-        <v>34.8487672813179</v>
+        <v>30.06509833952163</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44568.39583333334</v>
+        <v>44670.39652777778</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.006087526266184362</v>
+        <v>0.007384337646676564</v>
       </c>
       <c r="D37">
-        <v>34.72250247819292</v>
+        <v>29.94810074076527</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44568.39652777778</v>
+        <v>44670.40486111111</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>-0.0005644332684404674</v>
+        <v>-0.001361910950901102</v>
       </c>
       <c r="D38">
-        <v>36.43392391569289</v>
+        <v>32.09389896970814</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44571.39583333334</v>
+        <v>44671.39583333334</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>-0.009828783095422899</v>
+        <v>-0.00632656900761619</v>
       </c>
       <c r="D39">
-        <v>36.02515838084176</v>
+        <v>31.68728863471945</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44571.625</v>
+        <v>44671.40208333333</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40">
-        <v>-0.02209514427054193</v>
+        <v>0.003920895421503867</v>
       </c>
       <c r="D40">
-        <v>32.36066622672625</v>
+        <v>34.54170974126572</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>44572.39652777778</v>
+        <v>44672.40347222222</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41">
-        <v>-0.01026611325446591</v>
+        <v>0.006251093349419423</v>
       </c>
       <c r="D41">
-        <v>31.9343420662867</v>
+        <v>34.42807205358664</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44572.40902777778</v>
+        <v>44672.425</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>3.291217933476531E-05</v>
+        <v>-0.0002084250741467564</v>
       </c>
       <c r="D42">
-        <v>34.9029211871658</v>
+        <v>35.87965012292764</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>44573.39652777778</v>
+        <v>44673.39652777778</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43">
-        <v>-0.01033205517825575</v>
+        <v>0.006786871162270836</v>
       </c>
       <c r="D43">
-        <v>34.46478474233275</v>
+        <v>35.77201855926952</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>44573.625</v>
+        <v>44673.39791666667</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44">
-        <v>-0.02136928520819437</v>
+        <v>-0.0009724233131681581</v>
       </c>
       <c r="D44">
-        <v>30.91904603814624</v>
+        <v>37.52588980123006</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>44574.39583333334</v>
+        <v>44676.39583333334</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.00573284626760695</v>
+        <v>0.01124371787150413</v>
       </c>
       <c r="D45">
-        <v>30.79482857264495</v>
+        <v>37.42266967231063</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44574.39861111111</v>
+        <v>44676.40208333333</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>-0.003040255858304586</v>
+        <v>-0.0002257203703894817</v>
       </c>
       <c r="D46">
-        <v>33.10622952071687</v>
+        <v>40.05004692128001</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>44575.39583333334</v>
+        <v>44677.39583333334</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>0.01207111774517011</v>
+        <v>0.0130737687320196</v>
       </c>
       <c r="D47">
-        <v>32.98345382583702</v>
+        <v>39.95661467128</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44575.39861111111</v>
+        <v>44677.40625</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48">
-        <v>-0.001602115080813649</v>
+        <v>-0.0008446047490229258</v>
       </c>
       <c r="D48">
-        <v>36.77054738759252</v>
+        <v>42.88090783127998</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>44578.4</v>
+        <v>44678.39583333334</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C49">
-        <v>0.00614618460205163</v>
+        <v>0.01184506614381065</v>
       </c>
       <c r="D49">
-        <v>36.64728222465653</v>
+        <v>42.79064241985139</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44578.41875</v>
+        <v>44678.625</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50">
-        <v>-0.001190574168208225</v>
+        <v>0.02666233462500567</v>
       </c>
       <c r="D50">
-        <v>38.47761696718641</v>
+        <v>39.04149402413714</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>44579.39652777778</v>
+        <v>44679.39583333334</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>0.005762049028420368</v>
+        <v>0.007150637097355861</v>
       </c>
       <c r="D51">
-        <v>38.35633178079185</v>
+        <v>38.94601937254703</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44579.39791666667</v>
+        <v>44679.625</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>-0.00217712684270599</v>
+        <v>0.01751121697129243</v>
       </c>
       <c r="D52">
-        <v>40.36229443803936</v>
+        <v>36.13891540646929</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>44580.40625</v>
+        <v>44680.39722222222</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C53">
-        <v>0.005765149572891981</v>
+        <v>0.0166835777243961</v>
       </c>
       <c r="D53">
-        <v>40.24013593405192</v>
+        <v>36.04348080500944</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44580.41111111111</v>
+        <v>44680.54444444444</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54">
-        <v>-0.0008730675235569807</v>
+        <v>-0.002051802867150787</v>
       </c>
       <c r="D54">
-        <v>41.84816523121877</v>
+        <v>40.12681024588535</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>44581.39583333334</v>
+        <v>44686.39583333334</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>0.007521528555344048</v>
+        <v>0.01160264697954694</v>
       </c>
       <c r="D55">
-        <v>41.72707480340845</v>
+        <v>40.028482567905</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44581.54513888889</v>
+        <v>44686.45277777778</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>-0.001600551094585567</v>
+        <v>-0.0009054163944610671</v>
       </c>
       <c r="D56">
-        <v>44.0851107637707</v>
+        <v>42.75208608824158</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>44582.4</v>
+        <v>44687.46111111111</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>0.005032185683807811</v>
+        <v>-0.006504663059454852</v>
       </c>
       <c r="D57">
-        <v>43.96038216594464</v>
+        <v>42.41168336443206</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44582.40277777778</v>
+        <v>44687.47083333333</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58">
-        <v>-0.0007383579783712957</v>
+        <v>0.001299790672318335</v>
       </c>
       <c r="D58">
-        <v>45.22966259637942</v>
+        <v>44.24533465994624</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>44585.39652777778</v>
+        <v>44690.39583333334</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59">
-        <v>-0.005691845892092151</v>
+        <v>0.01128405233645302</v>
       </c>
       <c r="D59">
-        <v>44.77988312058675</v>
+        <v>44.14848216916611</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44585.41180555556</v>
+        <v>44690.625</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60">
-        <v>0.002291987444706267</v>
+        <v>0.01782406646815948</v>
       </c>
       <c r="D60">
-        <v>47.24938200604219</v>
+        <v>42.24385274505265</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>44586.39722222222</v>
+        <v>44691.39583333334</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>0.009852585692829097</v>
+        <v>0.008283683741327597</v>
       </c>
       <c r="D61">
-        <v>47.11489670831607</v>
+        <v>42.14715524674755</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44586.42291666667</v>
+        <v>44691.625</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>-0.001286871772490872</v>
+        <v>0.01063705594530795</v>
       </c>
       <c r="D62">
-        <v>50.3433646555622</v>
+        <v>41.2204872241487</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>44587.39930555555</v>
+        <v>44692.39583333334</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>-0.005883253418544676</v>
+        <v>0.0170803110760902</v>
       </c>
       <c r="D63">
-        <v>49.87647871270505</v>
+        <v>41.11841497985805</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44587.41736111111</v>
+        <v>44692.625</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64">
-        <v>0.000576537508826136</v>
+        <v>0.06524552399876637</v>
       </c>
       <c r="D64">
-        <v>51.85504986508608</v>
+        <v>28.58718271065393</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>44588.43333333333</v>
+        <v>44693.39583333334</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C65">
-        <v>0.005076446874697549</v>
+        <v>0.04305445037978761</v>
       </c>
       <c r="D65">
-        <v>51.72797340456947</v>
+        <v>28.47334106335931</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44588.44305555556</v>
+        <v>44693.55486111111</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66">
-        <v>-0.001183001604041611</v>
+        <v>-0.000786155550029588</v>
       </c>
       <c r="D66">
-        <v>53.30552298980934</v>
+        <v>40.28018306977214</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>44589.39722222222</v>
+        <v>44694.4</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>0.0127560657554332</v>
+        <v>-0.005120883661675069</v>
       </c>
       <c r="D67">
-        <v>53.18199922343378</v>
+        <v>39.89213996427316</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44589.43125</v>
+        <v>44694.40347222222</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>-0.0004495256111229917</v>
+        <v>0.007171300700498651</v>
       </c>
       <c r="D68">
-        <v>56.88754073260407</v>
+        <v>43.20318448647276</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>44599.4</v>
+        <v>44697.39583333334</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0.01010214770513729</v>
+        <v>0.009740236530063617</v>
       </c>
       <c r="D69">
-        <v>56.76439056248785</v>
+        <v>43.09468261510347</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>44599.40833333333</v>
+        <v>44697.40902777778</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="C70">
-        <v>-0.0007473426998472199</v>
+        <v>-0.001700607642936003</v>
       </c>
       <c r="D70">
-        <v>59.58906147029091</v>
+        <v>45.7720597346056</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>44600.39722222222</v>
+        <v>44698.39652777778</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>0.009716283499744849</v>
+        <v>0.00557887200948759</v>
       </c>
       <c r="D71">
-        <v>59.46639289463777</v>
+        <v>45.66258547574963</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>44600.40069444444</v>
+        <v>44698.625</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72">
-        <v>-0.0006992818948746704</v>
+        <v>0.02219065393411257</v>
       </c>
       <c r="D72">
-        <v>62.21053258657779</v>
+        <v>40.73927992261385</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>44601.39722222222</v>
+        <v>44699.39583333334</v>
       </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
       <c r="C73">
-        <v>-0.005044657375145034</v>
+        <v>0.01024334446763064</v>
       </c>
       <c r="D73">
-        <v>61.78226470800636</v>
+        <v>40.6266510766511</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>44601.43819444445</v>
+        <v>44699.625</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
       </c>
       <c r="C74">
-        <v>0.002063530778164901</v>
+        <v>0.01545060777341922</v>
       </c>
       <c r="D74">
-        <v>63.84600387229206</v>
+        <v>38.78971974248957</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>44602.39583333334</v>
+        <v>44700.39583333334</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75">
-        <v>-0.009207843137254867</v>
+        <v>0.02443037974683537</v>
       </c>
       <c r="D75">
-        <v>63.40034087229205</v>
+        <v>38.6794677602111</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>44602.625</v>
+        <v>44700.40486111111</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
       </c>
       <c r="C76">
-        <v>-0.01927435362766561</v>
+        <v>-0.002247393024092048</v>
       </c>
       <c r="D76">
-        <v>60.05602311342989</v>
+        <v>45.709341367806</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>44603.39722222222</v>
+        <v>44701.39583333334</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77">
-        <v>-0.009258647385218977</v>
+        <v>0.009476003224474727</v>
       </c>
       <c r="D77">
-        <v>59.58964073789472</v>
+        <v>45.59609831918723</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>44603.625</v>
+        <v>44701.4</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
       </c>
       <c r="C78">
-        <v>-0.003247327792339494</v>
+        <v>-0.00091427616444828</v>
       </c>
       <c r="D78">
-        <v>61.47681760191103</v>
+        <v>48.11834293355189</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>44606.39583333334</v>
+        <v>44704.39722222222</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>-0.009475380099261188</v>
+        <v>-0.01064679694260895</v>
       </c>
       <c r="D79">
-        <v>61.01723252911803</v>
+        <v>47.71910672997556</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>44606.625</v>
+        <v>44704.625</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
       </c>
       <c r="C80">
-        <v>-0.03970970632391613</v>
+        <v>-0.01834440458307363</v>
       </c>
       <c r="D80">
-        <v>50.89194507346499</v>
+        <v>45.4412609372658</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>44607.39722222222</v>
+        <v>44705.39861111111</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81">
-        <v>-0.01057228840665281</v>
+        <v>0.00613857406551066</v>
       </c>
       <c r="D81">
-        <v>50.44698089119692</v>
+        <v>45.32918706052943</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>44607.625</v>
+        <v>44705.41388888889</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
       </c>
       <c r="C82">
-        <v>-0.02480083287598467</v>
+        <v>-7.238549045351927E-05</v>
       </c>
       <c r="D82">
-        <v>45.79855415305263</v>
+        <v>46.68714260011132</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>44608.39722222222</v>
+        <v>44706.40347222222</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
       </c>
       <c r="C83">
-        <v>0.0075800440280549</v>
+        <v>-0.006659204771626515</v>
       </c>
       <c r="D83">
-        <v>45.67645725174715</v>
+        <v>46.31235119269334</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>44608.45625</v>
+        <v>44706.41111111111</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
       </c>
       <c r="C84">
-        <v>-0.001723152272223194</v>
+        <v>6.171679465616364E-05</v>
       </c>
       <c r="D84">
-        <v>48.09203257811789</v>
+        <v>48.00084073334958</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>44609.39861111111</v>
+        <v>44707.39583333334</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>0.006027090186023321</v>
+        <v>0.01200520490462986</v>
       </c>
       <c r="D85">
-        <v>47.97045871138224</v>
+        <v>47.89506733108326</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>44609.40138888889</v>
+        <v>44707.625</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>-5.059908044502404E-05</v>
+        <v>0.0148764498770444</v>
       </c>
       <c r="D86">
-        <v>49.3992380195043</v>
+        <v>46.75999601663567</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>44610.39861111111</v>
+        <v>44708.39583333334</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>0.007032150465483777</v>
+        <v>0.005090756337251312</v>
       </c>
       <c r="D87">
-        <v>49.27005561180805</v>
+        <v>46.65246785284258</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>44610.40208333333</v>
+        <v>44708.625</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
       </c>
       <c r="C88">
-        <v>-0.002503240708705778</v>
+        <v>0.007939753436888686</v>
       </c>
       <c r="D88">
-        <v>51.88589130601019</v>
+        <v>45.52055791893449</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>44613.42430555556</v>
+        <v>44711.39791666667</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89">
-        <v>0.005556461194810236</v>
+        <v>0.007098373593471541</v>
       </c>
       <c r="D89">
-        <v>51.75641549694218</v>
+        <v>45.4122961720844</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>44613.42847222222</v>
+        <v>44711.44930555556</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
       </c>
       <c r="C90">
-        <v>-0.001139212331479511</v>
+        <v>-0.004409378754471449</v>
       </c>
       <c r="D90">
-        <v>53.43019515487668</v>
+        <v>48.09424908403226</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>44614.39722222222</v>
+        <v>44712.39583333334</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>-0.007417827005222311</v>
+        <v>-0.01466338419538848</v>
       </c>
       <c r="D91">
-        <v>52.9798827647192</v>
+        <v>47.68523659088159</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>44614.40416666667</v>
+        <v>44712.625</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
       </c>
       <c r="C92">
-        <v>0.001508590093743489</v>
+        <v>-0.03638424413786379</v>
       </c>
       <c r="D92">
-        <v>55.75826000074287</v>
+        <v>41.46901015252545</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>44615.40416666667</v>
+        <v>44713.39583333334</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>-0.006019770160336169</v>
+        <v>-0.01079793088134118</v>
       </c>
       <c r="D93">
-        <v>55.30861953871566</v>
+        <v>41.08451615118316</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>44615.41041666667</v>
+        <v>44713.625</v>
       </c>
       <c r="B94" t="s">
         <v>4</v>
       </c>
       <c r="C94">
-        <v>0.0001984526003595555</v>
+        <v>-0.02043263169518006</v>
       </c>
       <c r="D94">
-        <v>57.15609591148424</v>
+        <v>38.30973311225697</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>44616.40694444445</v>
+        <v>44714.39930555555</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
       </c>
       <c r="C95">
-        <v>0.005233312263667411</v>
+        <v>-0.006609518763735389</v>
       </c>
       <c r="D95">
-        <v>57.02863945280158</v>
+        <v>37.9137203018639</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>44616.625</v>
+        <v>44714.625</v>
       </c>
       <c r="B96" t="s">
         <v>4</v>
       </c>
       <c r="C96">
-        <v>0.0121934332459378</v>
+        <v>-0.05323902696124083</v>
       </c>
       <c r="D96">
-        <v>54.36996171906898</v>
+        <v>25.06907148227705</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>44617.39583333334</v>
+        <v>44718.39583333334</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>-0.01074463226731859</v>
+        <v>0.01496605614160518</v>
       </c>
       <c r="D97">
-        <v>53.9229839725343</v>
+        <v>24.95592932164901</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>44617.40208333333</v>
+        <v>44718.625</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
       <c r="C98">
-        <v>0.0001079135537069842</v>
+        <v>0.02802315214799644</v>
       </c>
       <c r="D98">
-        <v>57.16575576044465</v>
+        <v>20.82334844604517</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>44620.39652777778</v>
+        <v>44719.40347222222</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>-0.005567998521382567</v>
+        <v>-0.006403515082546773</v>
       </c>
       <c r="D99">
-        <v>56.71436458178611</v>
+        <v>20.41586629651243</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>44620.41805555556</v>
+        <v>44719.40416666667</v>
       </c>
       <c r="B100" t="s">
         <v>4</v>
       </c>
       <c r="C100">
-        <v>0.001782200385029742</v>
+        <v>0.002790527327782844</v>
       </c>
       <c r="D100">
-        <v>58.93573151552598</v>
+        <v>22.92647992392672</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>44621.39583333334</v>
+        <v>44720.40138888889</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101">
-        <v>-0.006456764085567723</v>
+        <v>0.005839558341358297</v>
       </c>
       <c r="D101">
-        <v>58.46685351552595</v>
+        <v>22.81206330027345</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>44621.40486111111</v>
+        <v>44720.58125</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
       </c>
       <c r="C102">
-        <v>0.001525610123531473</v>
+        <v>-0.001093753337179426</v>
       </c>
       <c r="D102">
-        <v>60.98022238552591</v>
+        <v>24.4050492512332</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>44622.39861111111</v>
+        <v>44721.39583333334</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C103">
-        <v>0.006604520529611912</v>
+        <v>0.02157359764800704</v>
       </c>
       <c r="D103">
-        <v>60.84846694043863</v>
+        <v>24.29047606533339</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>44622.40138888889</v>
+        <v>44721.625</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
       </c>
       <c r="C104">
-        <v>-0.001398830793272299</v>
+        <v>0.03969511400504433</v>
       </c>
       <c r="D104">
-        <v>63.00940739949103</v>
+        <v>18.70726087646507</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>44623.42291666667</v>
+        <v>44722.39583333334</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>-0.005035875633138009</v>
+        <v>-0.006219918960656989</v>
       </c>
       <c r="D105">
-        <v>62.54690901740146</v>
+        <v>18.29587953765909</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>44623.46736111111</v>
+        <v>44722.39652777778</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
       </c>
       <c r="C106">
-        <v>0.001445507953825587</v>
+        <v>0.00457147438805583</v>
       </c>
       <c r="D106">
-        <v>64.56503833182933</v>
+        <v>21.36891483094265</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>44624.40069444444</v>
+        <v>44725.39791666667</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C107">
-        <v>0.007888319570737323</v>
+        <v>0.00580470858983817</v>
       </c>
       <c r="D107">
-        <v>64.43399808691493</v>
+        <v>21.24949931662282</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>44624.40277777778</v>
+        <v>44725.625</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
       </c>
       <c r="C108">
-        <v>-0.0002800779764653427</v>
+        <v>0.06664201252531088</v>
       </c>
       <c r="D108">
-        <v>66.6401497300167</v>
+        <v>2.546866727124033</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>44627.39652777778</v>
+        <v>44726.39583333334</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C109">
-        <v>-0.005223080100038802</v>
+        <v>-0.009741755771651595</v>
       </c>
       <c r="D109">
-        <v>66.19061996172402</v>
+        <v>2.091251811624614</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>44627.39930555555</v>
+        <v>44726.41041666667</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
       </c>
       <c r="C110">
-        <v>0.00142723844924264</v>
+        <v>0.01623795180722887</v>
       </c>
       <c r="D110">
-        <v>68.18245917635815</v>
+        <v>10.58263652781292</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>44628.39722222222</v>
+        <v>44727.39791666667</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>-0.006501997568177709</v>
+        <v>-0.007406193459255861</v>
       </c>
       <c r="D111">
-        <v>67.75530425004237</v>
+        <v>10.0856151768314</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>44628.39930555555</v>
+        <v>44727.42222222222</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
       </c>
       <c r="C112">
-        <v>0.001294076776098607</v>
+        <v>0.008890538703575146</v>
       </c>
       <c r="D112">
-        <v>69.99719319741075</v>
+        <v>15.71290541261384</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>44629.39583333334</v>
+        <v>44728.39652777778</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
       </c>
       <c r="C113">
-        <v>0.009744145423788764</v>
+        <v>-0.01187039929194755</v>
       </c>
       <c r="D113">
-        <v>69.8829443004511</v>
+        <v>15.2263423040105</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>44629.41875</v>
+        <v>44728.625</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
       </c>
       <c r="C114">
-        <v>-0.002730896990394083</v>
+        <v>-0.02296663523199127</v>
       </c>
       <c r="D114">
-        <v>73.01834231692419</v>
+        <v>11.20653120847971</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>44630.39583333334</v>
+        <v>44729.39583333334</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>-0.005500922535216501</v>
+        <v>-0.006014761986678496</v>
       </c>
       <c r="D115">
-        <v>72.6208539196422</v>
+        <v>10.72664398410297</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>44630.39722222222</v>
+        <v>44729.625</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
       </c>
       <c r="C116">
-        <v>0.004178234860794383</v>
+        <v>-0.03845269235035864</v>
       </c>
       <c r="D116">
-        <v>75.16444872994799</v>
+        <v>-0.5877257787779824</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>44631.39722222222</v>
+        <v>44732.39583333334</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>-0.006332120568682709</v>
+        <v>-0.03657276227841033</v>
       </c>
       <c r="D117">
-        <v>74.78994589761334</v>
+        <v>-1.059083307420121</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>44631.39861111111</v>
+        <v>44732.625</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
       </c>
       <c r="C118">
-        <v>0.0004819962336916062</v>
+        <v>-0.06192826181855948</v>
       </c>
       <c r="D118">
-        <v>76.55619949252575</v>
+        <v>-9.66034705519365</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>44634.4</v>
+        <v>44733.39722222222</v>
       </c>
       <c r="B119" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>0.01069896337124621</v>
+        <v>0.006702758176907242</v>
       </c>
       <c r="D119">
-        <v>76.44862549388785</v>
+        <v>-9.788745441702019</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>44634.625</v>
+        <v>44733.40694444445</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
       </c>
       <c r="C120">
-        <v>0.01422504726345186</v>
+        <v>-0.006300562391538644</v>
       </c>
       <c r="D120">
-        <v>75.12687993429654</v>
+        <v>-6.079912094913055</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>44635.39861111111</v>
+        <v>44734.39722222222</v>
       </c>
       <c r="B121" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C121">
-        <v>0.005135008639754468</v>
+        <v>0.005915632067837295</v>
       </c>
       <c r="D121">
-        <v>75.02315228488477</v>
+        <v>-6.20834559570226</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>44635.40138888889</v>
+        <v>44734.39791666667</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
       </c>
       <c r="C122">
-        <v>-0.0001856382660155864</v>
+        <v>-0.00192830662396859</v>
       </c>
       <c r="D122">
-        <v>76.07139576253181</v>
+        <v>-4.101321335724845</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>44636.39791666667</v>
+        <v>44735.39791666667</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C123">
-        <v>-0.006691949231011574</v>
+        <v>-0.006396304741586478</v>
       </c>
       <c r="D123">
-        <v>75.71781875845018</v>
+        <v>-4.54672378299756</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>44636.40208333333</v>
+        <v>44735.39861111111</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
       </c>
       <c r="C124">
-        <v>0.00298344666442163</v>
+        <v>0.00088527880130429</v>
       </c>
       <c r="D124">
-        <v>78.01419325742975</v>
+        <v>-2.392418932088518</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>44637.39652777778</v>
+        <v>44736.39583333334</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
       </c>
       <c r="C125">
-        <v>0.03216219826575872</v>
+        <v>-0.01216676593210253</v>
       </c>
       <c r="D125">
-        <v>77.90131501008673</v>
+        <v>-2.835844419045025</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>44637.40694444445</v>
+        <v>44736.40069444444</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
       </c>
       <c r="C126">
-        <v>-0.0007227492372865463</v>
+        <v>0.0005253827558420188</v>
       </c>
       <c r="D126">
-        <v>86.41412328544915</v>
+        <v>0.9777621113897752</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>44638.39583333334</v>
+        <v>44739.39583333334</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
       </c>
       <c r="C127">
-        <v>0.01126739367619967</v>
+        <v>-0.006643437839373822</v>
       </c>
       <c r="D127">
-        <v>86.30274907649391</v>
+        <v>0.4912499141869824</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>44638.39722222222</v>
+        <v>44739.39652777778</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
       </c>
       <c r="C128">
-        <v>-0.00110491833235693</v>
+        <v>0.00381607072173118</v>
       </c>
       <c r="D128">
-        <v>89.35074991828502</v>
+        <v>3.952633140760468</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>44641.39583333334</v>
+        <v>44740.39861111111</v>
       </c>
       <c r="B129" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C129">
-        <v>0.005181394310144638</v>
+        <v>0.01404847055918357</v>
       </c>
       <c r="D129">
-        <v>89.23622350434775</v>
+        <v>3.79947732483302</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>44641.39652777778</v>
+        <v>44740.40555555555</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
       </c>
       <c r="C130">
-        <v>-0.001262870362933155</v>
+        <v>-0.007369256762544296</v>
       </c>
       <c r="D130">
-        <v>90.64296349319787</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
-        <v>44642.39583333334</v>
-      </c>
-      <c r="B131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131">
-        <v>-0.008229076790336354</v>
-      </c>
-      <c r="D131">
-        <v>90.21856152598475</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
-        <v>44642.625</v>
-      </c>
-      <c r="B132" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132">
-        <v>-0.02194420477423054</v>
-      </c>
-      <c r="D132">
-        <v>85.92942841123066</v>
+        <v>11.53508856455074</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_trade.xlsx
+++ b/tmp_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="6">
   <si>
     <t>signal</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,450 +422,2578 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44714.39583333334</v>
+        <v>44544.61527777778</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.2857015221921938</v>
+        <v>0.01159684911119363</v>
       </c>
       <c r="D3">
-        <v>-0.04638491823899216</v>
+        <v>-0.05145314505314791</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44714.625</v>
+        <v>44544.625</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.2820301049822838</v>
+        <v>0.007393822714888532</v>
       </c>
       <c r="D4">
-        <v>0.3052077559748346</v>
+        <v>0.324495102371239</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44718.39583333334</v>
+        <v>44545.41875</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0.01743615791561581</v>
+        <v>-0.01132111427262494</v>
       </c>
       <c r="D5">
-        <v>0.2509169590609894</v>
+        <v>0.1425824963106241</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44718.40416666667</v>
+        <v>44545.625</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-4.066714115813497E-05</v>
+        <v>-0.0100160244222085</v>
       </c>
       <c r="D6">
-        <v>2.46912731465466</v>
+        <v>0.2597830953005196</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44719.39583333334</v>
+        <v>44546.41944444444</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>-0.008131423114175584</v>
+        <v>-0.01388424466141336</v>
       </c>
       <c r="D7">
-        <v>2.264456790202991</v>
+        <v>0.07265011339097227</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44719.625</v>
+        <v>44546.625</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-0.006579451881464804</v>
+        <v>-0.0113140401269054</v>
       </c>
       <c r="D8">
-        <v>2.4306901201786</v>
+        <v>0.3504574048482706</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44720.39652777778</v>
+        <v>44551.46041666667</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.008859911263217946</v>
+        <v>0.01197277556440901</v>
       </c>
       <c r="D9">
-        <v>2.374366485891032</v>
+        <v>0.2981406861231712</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44720.40625</v>
+        <v>44551.625</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>-0.00211134776436761</v>
+        <v>0.01755804056501276</v>
       </c>
       <c r="D10">
-        <v>3.737256358821462</v>
+        <v>-0.6205493003310233</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44721.39583333334</v>
+        <v>44553.40347222222</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0.005677373311979594</v>
+        <v>-0.01123540675349033</v>
       </c>
       <c r="D11">
-        <v>3.679872434910185</v>
+        <v>-0.8094277509019834</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44721.39722222222</v>
+        <v>44553.61736111111</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>-9.323570584718333E-05</v>
+        <v>-0.001602213231041594</v>
       </c>
       <c r="D12">
-        <v>4.312263270914731</v>
+        <v>0.4041043358843467</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44722.39583333334</v>
+        <v>44554.42569444444</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.01059552540385389</v>
+        <v>0.01174049861370341</v>
       </c>
       <c r="D13">
-        <v>4.254358604724605</v>
+        <v>0.3515512220605739</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44722.43541666667</v>
+        <v>44554.625</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>-9.06645158653685E-05</v>
+        <v>0.005348331613967749</v>
       </c>
       <c r="D14">
-        <v>5.600572949891816</v>
+        <v>1.009667800233605</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>44725.39583333334</v>
+        <v>44557.40555555555</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>0.02316493793246566</v>
+        <v>-0.01192668000141195</v>
       </c>
       <c r="D15">
-        <v>5.540513241596187</v>
+        <v>0.8197023957101899</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>44725.57986111111</v>
+        <v>44557.625</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>-0.00211116226075525</v>
+        <v>-0.00743474963264501</v>
       </c>
       <c r="D16">
-        <v>9.129899595743961</v>
+        <v>1.362084237390315</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>44726.39583333334</v>
+        <v>44558.55069444444</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.01226737521095922</v>
+        <v>0.01157445036766069</v>
       </c>
       <c r="D17">
-        <v>9.070884770133549</v>
+        <v>1.309125853937655</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>44726.625</v>
+        <v>44558.625</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.02073358843879103</v>
+        <v>0.007916787485408805</v>
       </c>
       <c r="D18">
-        <v>7.598319405404522</v>
+        <v>1.613408908830234</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44727.39583333334</v>
+        <v>44571.40486111111</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19">
-        <v>-0.00556827021306272</v>
+        <v>-0.01191314448665426</v>
       </c>
       <c r="D19">
-        <v>7.395431399614868</v>
+        <v>1.424999748434184</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44727.39722222222</v>
+        <v>44571.46805555555</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.001848573779858587</v>
+        <v>-0.001829614230305476</v>
       </c>
       <c r="D20">
-        <v>8.409737985333781</v>
+        <v>2.707103906189926</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44729.39722222222</v>
+        <v>44575.54583333333</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>-0.005545788846210042</v>
+        <v>-0.01221808719560091</v>
       </c>
       <c r="D21">
-        <v>8.202011501500875</v>
+        <v>2.521219837768875</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44729.625</v>
+        <v>44575.62013888889</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>-0.02904190136708329</v>
+        <v>-0.001098782403770593</v>
       </c>
       <c r="D22">
-        <v>4.700957223945954</v>
+        <v>3.958253232505743</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44732.39583333334</v>
+        <v>44578.41527777778</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23">
-        <v>-0.005296816686108707</v>
+        <v>-0.01270526122153126</v>
       </c>
       <c r="D23">
-        <v>4.489141072571869</v>
+        <v>3.767448322796196</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44732.54583333333</v>
+        <v>44578.625</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.0007611370895126424</v>
+        <v>-0.002102164316030164</v>
       </c>
       <c r="D24">
-        <v>5.332680745045204</v>
+        <v>5.114921683626077</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44733.39583333334</v>
+        <v>44579.39791666667</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>0.01042134510598336</v>
+        <v>-0.01111210020648112</v>
       </c>
       <c r="D25">
-        <v>5.274129529500685</v>
+        <v>4.920178921256183</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44733.44166666667</v>
+        <v>44579.625</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>-0.001170280220119002</v>
+        <v>-0.01888176037906342</v>
       </c>
       <c r="D26">
-        <v>6.789270769145217</v>
+        <v>3.802253604682939</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44734.39791666667</v>
+        <v>44580.42569444444</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>-0.005720031911317092</v>
+        <v>0.01121999887701985</v>
       </c>
       <c r="D27">
-        <v>6.585981729867497</v>
+        <v>3.748503457364319</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44734.39861111111</v>
+        <v>44580.625</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0.001347245101305683</v>
+        <v>0.01925718710713342</v>
       </c>
       <c r="D28">
-        <v>7.546448499525643</v>
+        <v>2.466223235282276</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44736.4</v>
+        <v>44582.40555555555</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>-0.005370012581204398</v>
+        <v>0.01158539852621165</v>
       </c>
       <c r="D29">
-        <v>7.335945234016954</v>
+        <v>2.413334697136264</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44736.40277777778</v>
+        <v>44582.41111111111</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.002186554371545801</v>
+        <v>0.0007741460013117596</v>
       </c>
       <c r="D30">
-        <v>8.391214203413158</v>
+        <v>3.680690134379889</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44739.39861111111</v>
+        <v>44585.54513888889</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>-0.005621472084667456</v>
+        <v>0.0114970913707646</v>
       </c>
       <c r="D31">
-        <v>8.176965707588995</v>
+        <v>3.627268146451665</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44739.40416666667</v>
+        <v>44585.625</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>0.0004178440085085278</v>
+        <v>0.02218751172169975</v>
       </c>
       <c r="D32">
-        <v>9.024759022753853</v>
+        <v>2.002717431932911</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44740.39861111111</v>
+        <v>44586.62152777778</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0.00543254254484371</v>
+        <v>0.01690817134095068</v>
       </c>
       <c r="D33">
-        <v>8.965238694395632</v>
+        <v>1.950461208599589</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44740.46111111111</v>
+        <v>44586.625</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>-0.004953987365350354</v>
+        <v>0.01440817134095063</v>
       </c>
       <c r="D34">
-        <v>10.3167580376792</v>
+        <v>2.105249528599622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>44587.41041666667</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>-0.01197413535508729</v>
+      </c>
+      <c r="D35">
+        <v>1.918838786731102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
+        <v>44587.43055555555</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>-0.00078144816174186</v>
+      </c>
+      <c r="D36">
+        <v>3.340846109222448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
+        <v>44588.60138888889</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>-0.01229315056409896</v>
+      </c>
+      <c r="D37">
+        <v>3.15717778537966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
+        <v>44588.625</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>-0.0003590822635054502</v>
+      </c>
+      <c r="D38">
+        <v>4.678760977694118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
+        <v>44589.39583333334</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>0.01453891544988573</v>
+      </c>
+      <c r="D39">
+        <v>4.62661331572228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
+        <v>44589.39722222222</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>1.19524486366096E-05</v>
+      </c>
+      <c r="D40">
+        <v>6.344264552341972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
+        <v>44599.54375</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>-0.01220772463478093</v>
+      </c>
+      <c r="D41">
+        <v>6.157578773394601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
+        <v>44599.55555555555</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>-0.0015776132346077</v>
+      </c>
+      <c r="D42">
+        <v>7.502556931289328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
+        <v>44600.44375</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0.01109633784034758</v>
+      </c>
+      <c r="D43">
+        <v>7.449953388680624</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
+        <v>44600.55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>-0.004425160440564513</v>
+      </c>
+      <c r="D44">
+        <v>9.321681342767597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <v>44602.41458333333</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>-0.01286558572316165</v>
+      </c>
+      <c r="D45">
+        <v>9.13032773276759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
+        <v>44602.43611111111</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>-0.001423971927890122</v>
+      </c>
+      <c r="D46">
+        <v>10.60446055000896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
+        <v>44606.47638888889</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>-0.01264891517575439</v>
+      </c>
+      <c r="D47">
+        <v>10.41665792661914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
+        <v>44606.625</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>-0.03721212887880265</v>
+      </c>
+      <c r="D48">
+        <v>7.043366353907299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
+        <v>44607.40277777778</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>-0.01242823894491862</v>
+      </c>
+      <c r="D49">
+        <v>6.863226753907302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
+        <v>44607.625</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>-0.0176580408948257</v>
+      </c>
+      <c r="D50">
+        <v>6.137647658270001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>44608.40763888889</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>0.01119418226254743</v>
+      </c>
+      <c r="D51">
+        <v>6.086533123350711</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>44608.56666666667</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>0.001487760464028431</v>
+      </c>
+      <c r="D52">
+        <v>7.14318717925555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
+        <v>44610.45902777778</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>-0.0112505831733738</v>
+      </c>
+      <c r="D53">
+        <v>6.958660541280864</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
+        <v>44610.625</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>-0.006676937371707936</v>
+      </c>
+      <c r="D54">
+        <v>7.497462893179599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
+        <v>44614.42222222222</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>-0.01160945842868033</v>
+      </c>
+      <c r="D55">
+        <v>7.312391893179603</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>44614.55069444444</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>-0.001634248665140947</v>
+      </c>
+      <c r="D56">
+        <v>8.567701043179579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>44623.61527777778</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>-0.01187288151883492</v>
+      </c>
+      <c r="D57">
+        <v>8.383794125187951</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
+        <v>44623.625</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>-0.003894160841177108</v>
+      </c>
+      <c r="D58">
+        <v>9.373589330208887</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
+        <v>44627.40069444444</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>-0.01133310016622968</v>
+      </c>
+      <c r="D59">
+        <v>9.193350662412277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>44627.44166666667</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>-0.001071520734188036</v>
+      </c>
+      <c r="D60">
+        <v>10.47033309631057</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
+        <v>44628.43194444444</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>0.01220546656374466</v>
+      </c>
+      <c r="D61">
+        <v>10.42115028071265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
+        <v>44628.45208333333</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>0.001778231173844902</v>
+      </c>
+      <c r="D62">
+        <v>11.56276926338163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <v>44629.39583333334</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>0.0117599648943173</v>
+      </c>
+      <c r="D63">
+        <v>11.51459865453207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
+        <v>44629.625</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>0.02397871717984357</v>
+      </c>
+      <c r="D64">
+        <v>9.872595537717913</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
+        <v>44630.39791666667</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>0.01147992572463696</v>
+      </c>
+      <c r="D65">
+        <v>9.823812641857762</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
+        <v>44630.57083333333</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>0.001953301416464992</v>
+      </c>
+      <c r="D66">
+        <v>10.79017496954865</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>44634.56041666667</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>0.01184544494384276</v>
+      </c>
+      <c r="D67">
+        <v>10.74200165849745</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
+        <v>44634.625</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>0.01313946760223328</v>
+      </c>
+      <c r="D68">
+        <v>10.417205378174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
+        <v>44635.39583333334</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>0.01573154056517789</v>
+      </c>
+      <c r="D69">
+        <v>10.36922791071729</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
+        <v>44635.625</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>0.03535042314623449</v>
+      </c>
+      <c r="D70">
+        <v>7.830317707435608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
+        <v>44636.46736111111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>0.01207018511326052</v>
+      </c>
+      <c r="D71">
+        <v>7.784183562261866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
+        <v>44636.47638888889</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>0.001995816609063339</v>
+      </c>
+      <c r="D72">
+        <v>8.817543842184648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
+        <v>44637.40277777778</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>0.01164329187615776</v>
+      </c>
+      <c r="D73">
+        <v>8.768891042184663</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
+        <v>44637.41875</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>0.00173471916680179</v>
+      </c>
+      <c r="D74">
+        <v>9.79714205412496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
+        <v>44638.40902777778</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>0.0116662474104765</v>
+      </c>
+      <c r="D75">
+        <v>9.747707777060727</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
+        <v>44638.55208333334</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>-0.001370227878070396</v>
+      </c>
+      <c r="D76">
+        <v>11.19193882293228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
+        <v>44641.39930555555</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>0.01348087489990601</v>
+      </c>
+      <c r="D77">
+        <v>11.14192259128554</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>44641.41805555556</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>0.001697828452402739</v>
+      </c>
+      <c r="D78">
+        <v>12.42999304519537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
+        <v>44644.42708333334</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>-0.01132447702413619</v>
+      </c>
+      <c r="D79">
+        <v>12.25762972224607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
+        <v>44644.625</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>-0.01347997712705862</v>
+      </c>
+      <c r="D80">
+        <v>11.94130293146264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
+        <v>44648.39583333334</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>0.01596930419954479</v>
+      </c>
+      <c r="D81">
+        <v>11.89391181150013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
+        <v>44648.43819444445</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>0.001943055207660138</v>
+      </c>
+      <c r="D82">
+        <v>13.4097020607972</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
+        <v>44649.47083333333</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>0.01133248277714161</v>
+      </c>
+      <c r="D83">
+        <v>13.36285650245601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
+        <v>44649.625</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0.009996547716380033</v>
+      </c>
+      <c r="D84">
+        <v>13.35704631206959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
+        <v>44650.43055555555</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>0.01171151344746479</v>
+      </c>
+      <c r="D85">
+        <v>13.30940433115357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
+        <v>44650.625</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>0.004903957352277999</v>
+      </c>
+      <c r="D86">
+        <v>13.948946593749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
+        <v>44652.42430555556</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>0.01112539405235746</v>
+      </c>
+      <c r="D87">
+        <v>13.90180838386307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
+        <v>44652.625</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>0.01497373493580112</v>
+      </c>
+      <c r="D88">
+        <v>13.2750027397566</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
+        <v>44657.40833333333</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>0.01338330806211119</v>
+      </c>
+      <c r="D89">
+        <v>13.22705674814556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
+        <v>44657.625</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0.01094963023589357</v>
+      </c>
+      <c r="D90">
+        <v>13.35547476968989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
+        <v>44658.56388888889</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>0.01107608393864268</v>
+      </c>
+      <c r="D91">
+        <v>13.30835964980687</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
+        <v>44658.58402777778</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>0.0006862544627407319</v>
+      </c>
+      <c r="D92">
+        <v>14.38540519873473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
+        <v>44659.40347222222</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>0.01112309441221915</v>
+      </c>
+      <c r="D93">
+        <v>14.33814837114851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
+        <v>44659.4125</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>0.0003550295857988051</v>
+      </c>
+      <c r="D94">
+        <v>15.44638204011402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
+        <v>44662.43611111111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>0.01195997867281562</v>
+      </c>
+      <c r="D95">
+        <v>15.4000044755471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
+        <v>44662.45138888889</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>0.001652729914341289</v>
+      </c>
+      <c r="D96">
+        <v>16.45296340625579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
+        <v>44663.40347222222</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>0.01106067136058719</v>
+      </c>
+      <c r="D97">
+        <v>16.4068596634566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
+        <v>44663.55486111111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>0.0009755886223453691</v>
+      </c>
+      <c r="D98">
+        <v>17.43023376933897</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
+        <v>44664.39583333334</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>0.01311481007255644</v>
+      </c>
+      <c r="D99">
+        <v>17.38438152145164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
+        <v>44664.5625</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>-0.0005609414060117057</v>
+      </c>
+      <c r="D100">
+        <v>18.80159307074741</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
+        <v>44665.44236111111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>0.0114109203868239</v>
+      </c>
+      <c r="D101">
+        <v>18.7549874605372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
+        <v>44665.625</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0.007257894727774161</v>
+      </c>
+      <c r="D102">
+        <v>19.07439468295962</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
+        <v>44669.39583333334</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>0.01958995123650309</v>
+      </c>
+      <c r="D103">
+        <v>19.02847756982831</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
+        <v>44669.625</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>0.01081504702194347</v>
+      </c>
+      <c r="D104">
+        <v>19.88519191326267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
+        <v>44670.40347222222</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>-0.01222210817933167</v>
+      </c>
+      <c r="D105">
+        <v>19.72014266249815</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
+        <v>44670.625</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>-0.01139727104135191</v>
+      </c>
+      <c r="D106">
+        <v>19.7686838653524</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
+        <v>44671.42986111111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>0.01187566062281475</v>
+      </c>
+      <c r="D107">
+        <v>19.72192678089025</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
+        <v>44671.625</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>0.01608796108084654</v>
+      </c>
+      <c r="D108">
+        <v>19.06646138009343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
+        <v>44672.39652777778</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>0.01248606485341008</v>
+      </c>
+      <c r="D109">
+        <v>19.02049500185934</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
+        <v>44672.625</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>0.02314993323629366</v>
+      </c>
+      <c r="D110">
+        <v>17.62731613409753</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
+        <v>44673.39583333334</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>0.02528111343484207</v>
+      </c>
+      <c r="D111">
+        <v>17.58244903955208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
+        <v>44673.625</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>0.004933468026461219</v>
+      </c>
+      <c r="D112">
+        <v>19.74426463227935</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
+        <v>44676.39583333334</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>0.0141061550013083</v>
+      </c>
+      <c r="D113">
+        <v>19.69977639685819</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
+        <v>44676.625</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0.04912326058009675</v>
+      </c>
+      <c r="D114">
+        <v>15.57791283227936</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
+        <v>44677.40763888889</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>0.011332790812563</v>
+      </c>
+      <c r="D115">
+        <v>15.53429644162515</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
+        <v>44677.43958333333</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>0.001496443725595098</v>
+      </c>
+      <c r="D116">
+        <v>16.46721446031673</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
+        <v>44678.39722222222</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>0.0160147070306117</v>
+      </c>
+      <c r="D117">
+        <v>16.42369533834794</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
+        <v>44678.40416666667</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0.001755149103105147</v>
+      </c>
+      <c r="D118">
+        <v>17.84185476595897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
+        <v>44679.40694444445</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>0.01111091252035279</v>
+      </c>
+      <c r="D119">
+        <v>17.79726318154035</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
+        <v>44679.61111111111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>0.001630639167490955</v>
+      </c>
+      <c r="D120">
+        <v>18.694338200145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
+        <v>44680.41111111111</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>0.01277501241235135</v>
+      </c>
+      <c r="D121">
+        <v>18.64903486460969</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
+        <v>44680.45694444444</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0.001825829268111701</v>
+      </c>
+      <c r="D122">
+        <v>19.72415293476915</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
+        <v>44686.45208333333</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>-0.01319843234560381</v>
+      </c>
+      <c r="D123">
+        <v>19.55911759966981</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
+        <v>44686.625</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>-0.01493943240495565</v>
+      </c>
+      <c r="D124">
+        <v>19.31153578951528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
+        <v>44690.39652777778</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>0.01215368087038304</v>
+      </c>
+      <c r="D125">
+        <v>19.26557721149805</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
+        <v>44690.44305555556</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>0.001720628417128944</v>
+      </c>
+      <c r="D126">
+        <v>20.31423773563594</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
+        <v>44691.39652777778</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>0.01215571604459942</v>
+      </c>
+      <c r="D127">
+        <v>20.26862804272427</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
+        <v>44691.40763888889</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>-0.00048649611547813</v>
+      </c>
+      <c r="D128">
+        <v>21.56705137860214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
+        <v>44692.39583333334</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>0.01102477223779175</v>
+      </c>
+      <c r="D129">
+        <v>21.52075319430895</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
+        <v>44692.43402777778</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>0.001333231204548868</v>
+      </c>
+      <c r="D130">
+        <v>22.48266616813092</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
+        <v>44693.39583333334</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>0.01136992223425259</v>
+      </c>
+      <c r="D131">
+        <v>22.43567665835961</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
+        <v>44693.40902777778</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0.001139955624943845</v>
+      </c>
+      <c r="D132">
+        <v>23.48493858892094</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
+        <v>44694.41736111111</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>0.01102252145718563</v>
+      </c>
+      <c r="D133">
+        <v>23.43768624791375</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
+        <v>44694.56597222222</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>0.00129760614248875</v>
+      </c>
+      <c r="D134">
+        <v>24.42206173198364</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
+        <v>44698.57986111111</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>0.01101859164527497</v>
+      </c>
+      <c r="D135">
+        <v>24.37440391726862</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
+        <v>44698.625</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>0.003350944515311927</v>
+      </c>
+      <c r="D136">
+        <v>25.11426054607693</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
+        <v>44700.42986111111</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>0.0116562910367124</v>
+      </c>
+      <c r="D137">
+        <v>25.06682690898677</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
+        <v>44700.625</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>0.005535294374027</v>
+      </c>
+      <c r="D138">
+        <v>25.63061969177364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
+        <v>44701.39861111111</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>-0.01340777192927822</v>
+      </c>
+      <c r="D139">
+        <v>25.45929968764993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
+        <v>44701.44444444445</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>-0.0002175018947061513</v>
+      </c>
+      <c r="D140">
+        <v>26.98304948146438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
+        <v>44704.40763888889</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>-0.01278365892418565</v>
+      </c>
+      <c r="D141">
+        <v>26.81240535095078</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
+        <v>44704.625</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>-0.01725353789266815</v>
+      </c>
+      <c r="D142">
+        <v>26.22253477975239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
+        <v>44705.40138888889</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>0.01147201369488871</v>
+      </c>
+      <c r="D143">
+        <v>26.17389070755726</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
+        <v>44705.40555555555</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>-0.003925846916046027</v>
+      </c>
+      <c r="D144">
+        <v>27.89138494911822</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
+        <v>44706.43472222222</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>-0.01104310351373949</v>
+      </c>
+      <c r="D145">
+        <v>27.72219710117439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
+        <v>44706.625</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>-0.009271699913238063</v>
+      </c>
+      <c r="D146">
+        <v>27.88452625002096</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
+        <v>44707.47777777778</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>-0.01115011313811132</v>
+      </c>
+      <c r="D147">
+        <v>27.71340275002097</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
+        <v>44707.575</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>0.001358762470748287</v>
+      </c>
+      <c r="D148">
+        <v>29.17277967002097</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
+        <v>44708.54166666666</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>0.01123422280889341</v>
+      </c>
+      <c r="D149">
+        <v>29.12401680755679</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
+        <v>44708.625</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>0.01567066848295862</v>
+      </c>
+      <c r="D150">
+        <v>28.41335361481562</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
+        <v>44712.45416666667</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>-0.01141340259944712</v>
+      </c>
+      <c r="D151">
+        <v>28.24095362061272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
+        <v>44712.60902777778</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>-0.001997461554355207</v>
+      </c>
+      <c r="D152">
+        <v>29.34714014621658</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
+        <v>44713.42430555556</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>-0.01116934452717377</v>
+      </c>
+      <c r="D153">
+        <v>29.17395375575857</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
+        <v>44713.625</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>-0.01911640724593155</v>
+      </c>
+      <c r="D154">
+        <v>28.14418255041505</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
+        <v>44714.45902777778</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>-0.01130219952597389</v>
+      </c>
+      <c r="D155">
+        <v>27.97053555490944</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
+        <v>44714.625</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>-0.01986126749635364</v>
+      </c>
+      <c r="D156">
+        <v>26.86527562794315</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
+        <v>44718.55416666667</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>-0.01200771712786053</v>
+      </c>
+      <c r="D157">
+        <v>26.68774012519086</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
+        <v>44718.6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>-0.001622975926724557</v>
+      </c>
+      <c r="D158">
+        <v>27.91876513436516</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
+        <v>44719.41111111111</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>-0.0124970163503999</v>
+      </c>
+      <c r="D159">
+        <v>27.73903550936516</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
+        <v>44719.625</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>-0.005455354656482614</v>
+      </c>
+      <c r="D160">
+        <v>28.57379522811518</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
+        <v>44720.43958333333</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>-0.011766221017673</v>
+      </c>
+      <c r="D161">
+        <v>28.39611975082221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
+        <v>44720.625</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>-0.01919770733738746</v>
+      </c>
+      <c r="D162">
+        <v>27.41414094868507</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
+        <v>44721.42569444444</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>-0.01152954764500969</v>
+      </c>
+      <c r="D163">
+        <v>27.23613667519426</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
+        <v>44721.625</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>-0.0131993835376929</v>
+      </c>
+      <c r="D164">
+        <v>26.97652626294579</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
+        <v>44725.40416666667</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>0.01135756276388589</v>
+      </c>
+      <c r="D165">
+        <v>26.92670799650981</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
+        <v>44725.625</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>0.01248849141935082</v>
+      </c>
+      <c r="D166">
+        <v>26.61137979374164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
+        <v>44726.55694444444</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>-0.01103493438669934</v>
+      </c>
+      <c r="D167">
+        <v>26.43438759056705</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
+        <v>44726.625</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>-0.01629873672893023</v>
+      </c>
+      <c r="D168">
+        <v>25.72594864241889</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
+        <v>44727.41180555556</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>0.01127403236992397</v>
+      </c>
+      <c r="D169">
+        <v>25.67599938974185</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
+        <v>44727.46875</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>0.001676048381245909</v>
+      </c>
+      <c r="D170">
+        <v>26.70420459285068</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
+        <v>44729.39583333334</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>0.01220139350299243</v>
+      </c>
+      <c r="D171">
+        <v>26.65353601857246</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
+        <v>44729.39652777778</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>-0.0009644698849504696</v>
+      </c>
+      <c r="D172">
+        <v>28.15442762487167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
+        <v>44732.41805555556</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>0.01245003237385989</v>
+      </c>
+      <c r="D173">
+        <v>28.10384754819045</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
+        <v>44732.425</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>0.0003163662510959897</v>
+      </c>
+      <c r="D174">
+        <v>29.47963753980618</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
+        <v>44733.61041666667</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>-0.01128287301267294</v>
+      </c>
+      <c r="D175">
+        <v>29.30138936812476</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
+        <v>44733.625</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>-0.01113633045763263</v>
+      </c>
+      <c r="D176">
+        <v>29.26936270440796</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
+        <v>44734.46180555555</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>0.01114022566050621</v>
+      </c>
+      <c r="D177">
+        <v>29.21908502695437</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
+        <v>44734.625</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>0.006952825272107277</v>
+      </c>
+      <c r="D178">
+        <v>29.5724477643549</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
+        <v>44735.47708333333</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>-0.01134468721014126</v>
+      </c>
+      <c r="D179">
+        <v>29.39462473854845</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
+        <v>44735.625</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>-0.03157414087281118</v>
+      </c>
+      <c r="D180">
+        <v>26.81090252349469</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
+        <v>44736.39652777778</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>0.01156723894068534</v>
+      </c>
+      <c r="D181">
+        <v>26.76062568432658</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
+        <v>44736.625</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>0.01798176093186221</v>
+      </c>
+      <c r="D182">
+        <v>25.78135309819141</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
+        <v>44739.42708333334</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>-0.01109271423153468</v>
+      </c>
+      <c r="D183">
+        <v>25.59915798092585</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
+        <v>44739.44027777778</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>-0.0001991624080757148</v>
+      </c>
+      <c r="D184">
+        <v>26.9237259015218</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
+        <v>44740.60972222222</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>-0.01140485319781814</v>
+      </c>
+      <c r="D185">
+        <v>26.74104077052266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
+        <v>44740.625</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>-0.007406676333589601</v>
+      </c>
+      <c r="D186">
+        <v>27.20425305882328</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_trade.xlsx
+++ b/tmp_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="6">
   <si>
     <t>signal</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,926 +422,2578 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44680.39583333334</v>
+        <v>44544.61527777778</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.03298580287292574</v>
+        <v>0.01159684911119363</v>
       </c>
       <c r="D3">
-        <v>-0.07670680580404721</v>
+        <v>-0.05145314505314791</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44680.625</v>
+        <v>44544.625</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.008976439473926678</v>
+        <v>0.007393822714888532</v>
       </c>
       <c r="D4">
-        <v>4.212979434558029</v>
+        <v>0.324495102371239</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44686.40208333333</v>
+        <v>44545.41875</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0.01506771753676861</v>
+        <v>-0.01132111427262494</v>
       </c>
       <c r="D5">
-        <v>4.132844306095487</v>
+        <v>0.1425824963106241</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44686.58958333333</v>
+        <v>44545.625</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.00145570037507059</v>
+        <v>-0.0100160244222085</v>
       </c>
       <c r="D6">
-        <v>7.052144549301807</v>
+        <v>0.2597830953005196</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44687.41041666667</v>
+        <v>44546.41944444444</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>0.012640453558312</v>
+        <v>-0.01388424466141336</v>
       </c>
       <c r="D7">
-        <v>6.971096714639756</v>
+        <v>0.07265011339097227</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44687.625</v>
+        <v>44546.625</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>0.01510293124882256</v>
+        <v>-0.0113140401269054</v>
       </c>
       <c r="D8">
-        <v>6.184347274085225</v>
+        <v>0.3504574048482706</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44690.42083333333</v>
+        <v>44551.46041666667</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.01283211717288801</v>
+        <v>0.01197277556440901</v>
       </c>
       <c r="D9">
-        <v>6.102564258042431</v>
+        <v>0.2981406861231712</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44690.44861111111</v>
+        <v>44551.625</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>-0.0008998972629802315</v>
+        <v>0.01755804056501276</v>
       </c>
       <c r="D10">
-        <v>8.606868173550438</v>
+        <v>-0.6205493003310233</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44691.41805555556</v>
+        <v>44553.40347222222</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0.01215229979948129</v>
+        <v>-0.01123540675349033</v>
       </c>
       <c r="D11">
-        <v>8.526582827784296</v>
+        <v>-0.8094277509019834</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44691.625</v>
+        <v>44553.61736111111</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.001356311766952611</v>
+        <v>-0.001602213231041594</v>
       </c>
       <c r="D12">
-        <v>10.43273951125204</v>
+        <v>0.4041043358843467</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44693.46388888889</v>
+        <v>44554.42569444444</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.01286484589328629</v>
+        <v>0.01174049861370341</v>
       </c>
       <c r="D13">
-        <v>10.35125580144812</v>
+        <v>0.3515512220605739</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44693.625</v>
+        <v>44554.625</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>-0.006423682581802814</v>
+        <v>0.005348331613967749</v>
       </c>
       <c r="D14">
-        <v>13.96383121321282</v>
+        <v>1.009667800233605</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>44694.39583333334</v>
+        <v>44557.40555555555</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>0.01248753765126565</v>
+        <v>-0.01192668000141195</v>
       </c>
       <c r="D15">
-        <v>13.88296881422037</v>
+        <v>0.8197023957101899</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>44694.625</v>
+        <v>44557.625</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.02108102225230701</v>
+        <v>-0.00743474963264501</v>
       </c>
       <c r="D16">
-        <v>11.88298230187775</v>
+        <v>1.362084237390315</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>44698.43263888889</v>
+        <v>44558.55069444444</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.01296123814831895</v>
+        <v>0.01157445036766069</v>
       </c>
       <c r="D17">
-        <v>11.80274902798031</v>
+        <v>1.309125853937655</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>44698.625</v>
+        <v>44558.625</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.02203208402777956</v>
+        <v>0.007916787485408805</v>
       </c>
       <c r="D18">
-        <v>9.707264961929003</v>
+        <v>1.613408908830234</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44699.39583333334</v>
+        <v>44571.40486111111</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.02612836162948295</v>
+        <v>-0.01191314448665426</v>
       </c>
       <c r="D19">
-        <v>9.62429913018134</v>
+        <v>1.424999748434184</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44699.625</v>
+        <v>44571.46805555555</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.01171812704537623</v>
+        <v>-0.001829614230305476</v>
       </c>
       <c r="D20">
-        <v>12.27146401539338</v>
+        <v>2.707103906189926</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44700.39583333334</v>
+        <v>44575.54583333333</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.01247491927255906</v>
+        <v>-0.01221808719560091</v>
       </c>
       <c r="D21">
-        <v>12.19190110714813</v>
+        <v>2.521219837768875</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44700.39930555555</v>
+        <v>44575.62013888889</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>-0.0005689417605416747</v>
+        <v>-0.001098782403770593</v>
       </c>
       <c r="D22">
-        <v>14.53776874604877</v>
+        <v>3.958253232505743</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44701.42430555556</v>
+        <v>44578.41527777778</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>0.01354618988822942</v>
+        <v>-0.01270526122153126</v>
       </c>
       <c r="D23">
-        <v>14.45713789351144</v>
+        <v>3.767448322796196</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44701.47638888889</v>
+        <v>44578.625</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>-0.0003057243125634823</v>
+        <v>-0.002102164316030164</v>
       </c>
       <c r="D24">
-        <v>16.87659389948155</v>
+        <v>5.114921683626077</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44705.39722222222</v>
+        <v>44579.39791666667</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>0.01223513008207389</v>
+        <v>-0.01111210020648112</v>
       </c>
       <c r="D25">
-        <v>16.79689695171085</v>
+        <v>4.920178921256183</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44705.46319444444</v>
+        <v>44579.625</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>-0.001801660487371959</v>
+        <v>-0.01888176037906342</v>
       </c>
       <c r="D26">
-        <v>19.34540329565988</v>
+        <v>3.802253604682939</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44707.40555555555</v>
+        <v>44580.42569444444</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.01208857637468252</v>
+        <v>0.01121999887701985</v>
       </c>
       <c r="D27">
-        <v>19.2701436423413</v>
+        <v>3.748503457364319</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44707.625</v>
+        <v>44580.625</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0.01110475427646107</v>
+        <v>0.01925718710713342</v>
       </c>
       <c r="D28">
-        <v>19.18886615229702</v>
+        <v>2.466223235282276</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44708.57638888889</v>
+        <v>44582.40555555555</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.01270307379311819</v>
+        <v>0.01158539852621165</v>
       </c>
       <c r="D29">
-        <v>19.11176669507555</v>
+        <v>2.413334697136264</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44708.625</v>
+        <v>44582.41111111111</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.0004629006847804984</v>
+        <v>0.0007741460013117596</v>
       </c>
       <c r="D30">
-        <v>21.21755405958721</v>
+        <v>3.680690134379889</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44712.43263888889</v>
+        <v>44585.54513888889</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0.01238153199939329</v>
+        <v>0.0114970913707646</v>
       </c>
       <c r="D31">
-        <v>21.14085206302878</v>
+        <v>3.627268146451665</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44712.55208333334</v>
+        <v>44585.625</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>-7.249542906695439E-05</v>
+        <v>0.02218751172169975</v>
       </c>
       <c r="D32">
-        <v>23.28488390721417</v>
+        <v>2.002717431932911</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44714.59722222222</v>
+        <v>44586.62152777778</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>-0.01318271565814144</v>
+        <v>0.01690817134095068</v>
       </c>
       <c r="D33">
-        <v>23.01085978575803</v>
+        <v>1.950461208599589</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44714.625</v>
+        <v>44586.625</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>-0.01552536457240561</v>
+        <v>0.01440817134095063</v>
       </c>
       <c r="D34">
-        <v>22.48140510853798</v>
+        <v>2.105249528599622</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44718.55347222222</v>
+        <v>44587.41041666667</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>0.01202729226536547</v>
+        <v>-0.01197413535508729</v>
       </c>
       <c r="D35">
-        <v>22.40282134999213</v>
+        <v>1.918838786731102</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44718.625</v>
+        <v>44587.43055555555</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>0.008420722568684313</v>
+        <v>-0.00078144816174186</v>
       </c>
       <c r="D36">
-        <v>22.82307545742569</v>
+        <v>3.340846109222448</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44719.45069444444</v>
+        <v>44588.60138888889</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.01232453179977488</v>
+        <v>-0.01229315056409896</v>
       </c>
       <c r="D37">
-        <v>22.74160447019844</v>
+        <v>3.15717778537966</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44719.57777777778</v>
+        <v>44588.625</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>-0.0002107653143192945</v>
+        <v>-0.0003590822635054502</v>
       </c>
       <c r="D38">
-        <v>24.94571868818673</v>
+        <v>4.678760977694118</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44720.54791666667</v>
+        <v>44589.39583333334</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0.01299736307940025</v>
+        <v>0.01453891544988573</v>
       </c>
       <c r="D39">
-        <v>24.86489068166102</v>
+        <v>4.62661331572228</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44720.58611111111</v>
+        <v>44589.39722222222</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40">
-        <v>-0.0003154106065504925</v>
+        <v>1.19524486366096E-05</v>
       </c>
       <c r="D40">
-        <v>27.29634717563128</v>
+        <v>6.344264552341972</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>44722.41527777778</v>
+        <v>44599.54375</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>0.01264418377321586</v>
+        <v>-0.01220772463478093</v>
       </c>
       <c r="D41">
-        <v>27.21194377563127</v>
+        <v>6.157578773394601</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44722.625</v>
+        <v>44599.55555555555</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>0.01318869134897338</v>
+        <v>-0.0015776132346077</v>
       </c>
       <c r="D42">
-        <v>26.80438281313129</v>
+        <v>7.502556931289328</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>44725.42777777778</v>
+        <v>44600.44375</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>-0.01552558376134616</v>
+        <v>0.01109633784034758</v>
       </c>
       <c r="D43">
-        <v>26.49802380056506</v>
+        <v>7.449953388680624</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>44725.625</v>
+        <v>44600.55</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44">
-        <v>-0.01152933588049043</v>
+        <v>-0.004425160440564513</v>
       </c>
       <c r="D44">
-        <v>27.26505628807452</v>
+        <v>9.321681342767597</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>44726.43402777778</v>
+        <v>44602.41458333333</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45">
-        <v>-0.01389783566159575</v>
+        <v>-0.01286558572316165</v>
       </c>
       <c r="D45">
-        <v>26.9622260174863</v>
+        <v>9.13032773276759</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44726.57222222222</v>
+        <v>44602.43611111111</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>6.183180667751476E-05</v>
+        <v>-0.001423971927890122</v>
       </c>
       <c r="D46">
-        <v>29.91514471748624</v>
+        <v>10.60446055000896</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>44727.45902777778</v>
+        <v>44606.47638888889</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>0.0122435962137134</v>
+        <v>-0.01264891517575439</v>
       </c>
       <c r="D47">
-        <v>29.82760450228157</v>
+        <v>10.41665792661914</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44727.60277777778</v>
+        <v>44606.625</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48">
-        <v>-0.0007616207774455708</v>
+        <v>-0.03721212887880265</v>
       </c>
       <c r="D48">
-        <v>32.36223850890924</v>
+        <v>7.043366353907299</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>44728.43888888889</v>
+        <v>44607.40277777778</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49">
-        <v>-0.01249086057165782</v>
+        <v>-0.01242823894491862</v>
       </c>
       <c r="D49">
-        <v>32.06288318771964</v>
+        <v>6.863226753907302</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44728.625</v>
+        <v>44607.625</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50">
-        <v>-0.007697515343784711</v>
+        <v>-0.0176580408948257</v>
       </c>
       <c r="D50">
-        <v>33.0180258494297</v>
+        <v>6.137647658270001</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>44729.55208333334</v>
+        <v>44608.40763888889</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>-0.01232723731966345</v>
+        <v>0.01119418226254743</v>
       </c>
       <c r="D51">
-        <v>32.71869298928276</v>
+        <v>6.086533123350711</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44729.625</v>
+        <v>44608.56666666667</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>-0.009722216037075571</v>
+        <v>0.001487760464028431</v>
       </c>
       <c r="D52">
-        <v>33.18148866397235</v>
+        <v>7.14318717925555</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>44732.42361111111</v>
+        <v>44610.45902777778</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53">
-        <v>-0.01258925216084184</v>
+        <v>-0.0112505831733738</v>
       </c>
       <c r="D53">
-        <v>32.88399266397235</v>
+        <v>6.958660541280864</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44732.60069444445</v>
+        <v>44610.625</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54">
-        <v>0.0002600633355807069</v>
+        <v>-0.006676937371707936</v>
       </c>
       <c r="D54">
-        <v>35.53486801930737</v>
+        <v>7.497462893179599</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>44733.58194444444</v>
+        <v>44614.42222222222</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55">
-        <v>-0.01499042804413397</v>
+        <v>-0.01160945842868033</v>
       </c>
       <c r="D55">
-        <v>35.24640480264906</v>
+        <v>7.312391893179603</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44733.625</v>
+        <v>44614.55069444444</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>-0.02494580132041591</v>
+        <v>-0.001634248665140947</v>
       </c>
       <c r="D56">
-        <v>33.07609705904646</v>
+        <v>8.567701043179579</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>44734.39930555555</v>
+        <v>44623.61527777778</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>0.01465399615311802</v>
+        <v>-0.01187288151883492</v>
       </c>
       <c r="D57">
-        <v>32.99543612689455</v>
+        <v>8.383794125187951</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44734.54861111111</v>
+        <v>44623.625</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58">
-        <v>-0.0005727218719410176</v>
+        <v>-0.003894160841177108</v>
       </c>
       <c r="D58">
-        <v>35.80003993955278</v>
+        <v>9.373589330208887</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>44735.55833333333</v>
+        <v>44627.40069444444</v>
       </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59">
-        <v>-0.01358549650285013</v>
+        <v>-0.01133310016622968</v>
       </c>
       <c r="D59">
-        <v>35.51631412952436</v>
+        <v>9.193350662412277</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44735.625</v>
+        <v>44627.44166666667</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60">
-        <v>-0.008982206367165402</v>
+        <v>-0.001071520734188036</v>
       </c>
       <c r="D60">
-        <v>36.36257629401134</v>
+        <v>10.47033309631057</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>44736.54513888889</v>
+        <v>44628.43194444444</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0.01245898983273164</v>
+        <v>0.01220546656374466</v>
       </c>
       <c r="D61">
-        <v>36.28093181529772</v>
+        <v>10.42115028071265</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44736.57569444444</v>
+        <v>44628.45208333333</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>-0.0001104291724567386</v>
+        <v>0.001778231173844902</v>
       </c>
       <c r="D62">
-        <v>38.5373655607801</v>
+        <v>11.56276926338163</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>44739.59513888889</v>
+        <v>44629.39583333334</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>-0.01332706926680771</v>
+        <v>0.0117599648943173</v>
       </c>
       <c r="D63">
-        <v>38.24224955591934</v>
+        <v>11.51459865453207</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44739.625</v>
+        <v>44629.625</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64">
-        <v>-0.01955438206467952</v>
+        <v>0.02397871717984357</v>
       </c>
       <c r="D64">
-        <v>36.87711103683075</v>
+        <v>9.872595537717913</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>44740.46111111111</v>
+        <v>44630.39791666667</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
       </c>
       <c r="C65">
-        <v>0.01529460030604746</v>
+        <v>0.01147992572463696</v>
       </c>
       <c r="D65">
-        <v>36.79034722312127</v>
+        <v>9.823812641857762</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44740.46388888889</v>
+        <v>44630.57083333333</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66">
-        <v>-0.003082874078381925</v>
+        <v>0.001953301416464992</v>
       </c>
       <c r="D66">
-        <v>40.2842483245318</v>
+        <v>10.79017496954865</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>44741.59513888889</v>
+        <v>44634.56041666667</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>0.01226393258525182</v>
+        <v>0.01184544494384276</v>
       </c>
       <c r="D67">
-        <v>40.19668652641946</v>
+        <v>10.74200165849745</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44741.625</v>
+        <v>44634.625</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>0.02066903500952577</v>
+        <v>0.01313946760223328</v>
       </c>
       <c r="D68">
-        <v>38.07896181665073</v>
+        <v>10.417205378174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
+        <v>44635.39583333334</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>0.01573154056517789</v>
+      </c>
+      <c r="D69">
+        <v>10.36922791071729</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
+        <v>44635.625</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>0.03535042314623449</v>
+      </c>
+      <c r="D70">
+        <v>7.830317707435608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
+        <v>44636.46736111111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>0.01207018511326052</v>
+      </c>
+      <c r="D71">
+        <v>7.784183562261866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
+        <v>44636.47638888889</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>0.001995816609063339</v>
+      </c>
+      <c r="D72">
+        <v>8.817543842184648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
+        <v>44637.40277777778</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>0.01164329187615776</v>
+      </c>
+      <c r="D73">
+        <v>8.768891042184663</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
+        <v>44637.41875</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>0.00173471916680179</v>
+      </c>
+      <c r="D74">
+        <v>9.79714205412496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
+        <v>44638.40902777778</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>0.0116662474104765</v>
+      </c>
+      <c r="D75">
+        <v>9.747707777060727</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
+        <v>44638.55208333334</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>-0.001370227878070396</v>
+      </c>
+      <c r="D76">
+        <v>11.19193882293228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
+        <v>44641.39930555555</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>0.01348087489990601</v>
+      </c>
+      <c r="D77">
+        <v>11.14192259128554</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>44641.41805555556</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>0.001697828452402739</v>
+      </c>
+      <c r="D78">
+        <v>12.42999304519537</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
+        <v>44644.42708333334</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>-0.01132447702413619</v>
+      </c>
+      <c r="D79">
+        <v>12.25762972224607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
+        <v>44644.625</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>-0.01347997712705862</v>
+      </c>
+      <c r="D80">
+        <v>11.94130293146264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
+        <v>44648.39583333334</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>0.01596930419954479</v>
+      </c>
+      <c r="D81">
+        <v>11.89391181150013</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
+        <v>44648.43819444445</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>0.001943055207660138</v>
+      </c>
+      <c r="D82">
+        <v>13.4097020607972</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
+        <v>44649.47083333333</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>0.01133248277714161</v>
+      </c>
+      <c r="D83">
+        <v>13.36285650245601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
+        <v>44649.625</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>0.009996547716380033</v>
+      </c>
+      <c r="D84">
+        <v>13.35704631206959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
+        <v>44650.43055555555</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>0.01171151344746479</v>
+      </c>
+      <c r="D85">
+        <v>13.30940433115357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
+        <v>44650.625</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>0.004903957352277999</v>
+      </c>
+      <c r="D86">
+        <v>13.948946593749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
+        <v>44652.42430555556</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>0.01112539405235746</v>
+      </c>
+      <c r="D87">
+        <v>13.90180838386307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
+        <v>44652.625</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>0.01497373493580112</v>
+      </c>
+      <c r="D88">
+        <v>13.2750027397566</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
+        <v>44657.40833333333</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>0.01338330806211119</v>
+      </c>
+      <c r="D89">
+        <v>13.22705674814556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
+        <v>44657.625</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0.01094963023589357</v>
+      </c>
+      <c r="D90">
+        <v>13.35547476968989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
+        <v>44658.56388888889</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>0.01107608393864268</v>
+      </c>
+      <c r="D91">
+        <v>13.30835964980687</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
+        <v>44658.58402777778</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>0.0006862544627407319</v>
+      </c>
+      <c r="D92">
+        <v>14.38540519873473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
+        <v>44659.40347222222</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>0.01112309441221915</v>
+      </c>
+      <c r="D93">
+        <v>14.33814837114851</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
+        <v>44659.4125</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>0.0003550295857988051</v>
+      </c>
+      <c r="D94">
+        <v>15.44638204011402</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
+        <v>44662.43611111111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>0.01195997867281562</v>
+      </c>
+      <c r="D95">
+        <v>15.4000044755471</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
+        <v>44662.45138888889</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>0.001652729914341289</v>
+      </c>
+      <c r="D96">
+        <v>16.45296340625579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
+        <v>44663.40347222222</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>0.01106067136058719</v>
+      </c>
+      <c r="D97">
+        <v>16.4068596634566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
+        <v>44663.55486111111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>0.0009755886223453691</v>
+      </c>
+      <c r="D98">
+        <v>17.43023376933897</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
+        <v>44664.39583333334</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <v>0.01311481007255644</v>
+      </c>
+      <c r="D99">
+        <v>17.38438152145164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
+        <v>44664.5625</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>-0.0005609414060117057</v>
+      </c>
+      <c r="D100">
+        <v>18.80159307074741</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
+        <v>44665.44236111111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>0.0114109203868239</v>
+      </c>
+      <c r="D101">
+        <v>18.7549874605372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
+        <v>44665.625</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0.007257894727774161</v>
+      </c>
+      <c r="D102">
+        <v>19.07439468295962</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
+        <v>44669.39583333334</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>0.01958995123650309</v>
+      </c>
+      <c r="D103">
+        <v>19.02847756982831</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
+        <v>44669.625</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>0.01081504702194347</v>
+      </c>
+      <c r="D104">
+        <v>19.88519191326267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
+        <v>44670.40347222222</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105">
+        <v>-0.01222210817933167</v>
+      </c>
+      <c r="D105">
+        <v>19.72014266249815</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
+        <v>44670.625</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>-0.01139727104135191</v>
+      </c>
+      <c r="D106">
+        <v>19.7686838653524</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
+        <v>44671.42986111111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>0.01187566062281475</v>
+      </c>
+      <c r="D107">
+        <v>19.72192678089025</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
+        <v>44671.625</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>0.01608796108084654</v>
+      </c>
+      <c r="D108">
+        <v>19.06646138009343</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
+        <v>44672.39652777778</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>0.01248606485341008</v>
+      </c>
+      <c r="D109">
+        <v>19.02049500185934</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
+        <v>44672.625</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>0.02314993323629366</v>
+      </c>
+      <c r="D110">
+        <v>17.62731613409753</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
+        <v>44673.39583333334</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>0.02528111343484207</v>
+      </c>
+      <c r="D111">
+        <v>17.58244903955208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
+        <v>44673.625</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>0.004933468026461219</v>
+      </c>
+      <c r="D112">
+        <v>19.74426463227935</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
+        <v>44676.39583333334</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>0.0141061550013083</v>
+      </c>
+      <c r="D113">
+        <v>19.69977639685819</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
+        <v>44676.625</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0.04912326058009675</v>
+      </c>
+      <c r="D114">
+        <v>15.57791283227936</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
+        <v>44677.40763888889</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>0.011332790812563</v>
+      </c>
+      <c r="D115">
+        <v>15.53429644162515</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
+        <v>44677.43958333333</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>0.001496443725595098</v>
+      </c>
+      <c r="D116">
+        <v>16.46721446031673</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
+        <v>44678.39722222222</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>0.0160147070306117</v>
+      </c>
+      <c r="D117">
+        <v>16.42369533834794</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
+        <v>44678.40416666667</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0.001755149103105147</v>
+      </c>
+      <c r="D118">
+        <v>17.84185476595897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
+        <v>44679.40694444445</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>0.01111091252035279</v>
+      </c>
+      <c r="D119">
+        <v>17.79726318154035</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
+        <v>44679.61111111111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>0.001630639167490955</v>
+      </c>
+      <c r="D120">
+        <v>18.694338200145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
+        <v>44680.41111111111</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>0.01277501241235135</v>
+      </c>
+      <c r="D121">
+        <v>18.64903486460969</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
+        <v>44680.45694444444</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0.001825829268111701</v>
+      </c>
+      <c r="D122">
+        <v>19.72415293476915</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
+        <v>44686.45208333333</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123">
+        <v>-0.01319843234560381</v>
+      </c>
+      <c r="D123">
+        <v>19.55911759966981</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
+        <v>44686.625</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>-0.01493943240495565</v>
+      </c>
+      <c r="D124">
+        <v>19.31153578951528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
+        <v>44690.39652777778</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>0.01215368087038304</v>
+      </c>
+      <c r="D125">
+        <v>19.26557721149805</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
+        <v>44690.44305555556</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>0.001720628417128944</v>
+      </c>
+      <c r="D126">
+        <v>20.31423773563594</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
+        <v>44691.39652777778</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>0.01215571604459942</v>
+      </c>
+      <c r="D127">
+        <v>20.26862804272427</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
+        <v>44691.40763888889</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>-0.00048649611547813</v>
+      </c>
+      <c r="D128">
+        <v>21.56705137860214</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
+        <v>44692.39583333334</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>0.01102477223779175</v>
+      </c>
+      <c r="D129">
+        <v>21.52075319430895</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
+        <v>44692.43402777778</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>0.001333231204548868</v>
+      </c>
+      <c r="D130">
+        <v>22.48266616813092</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
+        <v>44693.39583333334</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>0.01136992223425259</v>
+      </c>
+      <c r="D131">
+        <v>22.43567665835961</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
+        <v>44693.40902777778</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0.001139955624943845</v>
+      </c>
+      <c r="D132">
+        <v>23.48493858892094</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
+        <v>44694.41736111111</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>0.01102252145718563</v>
+      </c>
+      <c r="D133">
+        <v>23.43768624791375</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
+        <v>44694.56597222222</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>0.00129760614248875</v>
+      </c>
+      <c r="D134">
+        <v>24.42206173198364</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
+        <v>44698.57986111111</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>0.01101859164527497</v>
+      </c>
+      <c r="D135">
+        <v>24.37440391726862</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
+        <v>44698.625</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>0.003350944515311927</v>
+      </c>
+      <c r="D136">
+        <v>25.11426054607693</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
+        <v>44700.42986111111</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>0.0116562910367124</v>
+      </c>
+      <c r="D137">
+        <v>25.06682690898677</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
+        <v>44700.625</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>0.005535294374027</v>
+      </c>
+      <c r="D138">
+        <v>25.63061969177364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
+        <v>44701.39861111111</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>-0.01340777192927822</v>
+      </c>
+      <c r="D139">
+        <v>25.45929968764993</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
+        <v>44701.44444444445</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>-0.0002175018947061513</v>
+      </c>
+      <c r="D140">
+        <v>26.98304948146438</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
+        <v>44704.40763888889</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>-0.01278365892418565</v>
+      </c>
+      <c r="D141">
+        <v>26.81240535095078</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
+        <v>44704.625</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>-0.01725353789266815</v>
+      </c>
+      <c r="D142">
+        <v>26.22253477975239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
+        <v>44705.40138888889</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>0.01147201369488871</v>
+      </c>
+      <c r="D143">
+        <v>26.17389070755726</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
+        <v>44705.40555555555</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>-0.003925846916046027</v>
+      </c>
+      <c r="D144">
+        <v>27.89138494911822</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
+        <v>44706.43472222222</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>-0.01104310351373949</v>
+      </c>
+      <c r="D145">
+        <v>27.72219710117439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
+        <v>44706.625</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>-0.009271699913238063</v>
+      </c>
+      <c r="D146">
+        <v>27.88452625002096</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
+        <v>44707.47777777778</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>-0.01115011313811132</v>
+      </c>
+      <c r="D147">
+        <v>27.71340275002097</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
+        <v>44707.575</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>0.001358762470748287</v>
+      </c>
+      <c r="D148">
+        <v>29.17277967002097</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
+        <v>44708.54166666666</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>0.01123422280889341</v>
+      </c>
+      <c r="D149">
+        <v>29.12401680755679</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
+        <v>44708.625</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>0.01567066848295862</v>
+      </c>
+      <c r="D150">
+        <v>28.41335361481562</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
+        <v>44712.45416666667</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>-0.01141340259944712</v>
+      </c>
+      <c r="D151">
+        <v>28.24095362061272</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
+        <v>44712.60902777778</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>-0.001997461554355207</v>
+      </c>
+      <c r="D152">
+        <v>29.34714014621658</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
+        <v>44713.42430555556</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>-0.01116934452717377</v>
+      </c>
+      <c r="D153">
+        <v>29.17395375575857</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
+        <v>44713.625</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>-0.01911640724593155</v>
+      </c>
+      <c r="D154">
+        <v>28.14418255041505</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
+        <v>44714.45902777778</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155">
+        <v>-0.01130219952597389</v>
+      </c>
+      <c r="D155">
+        <v>27.97053555490944</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
+        <v>44714.625</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>-0.01986126749635364</v>
+      </c>
+      <c r="D156">
+        <v>26.86527562794315</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
+        <v>44718.55416666667</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>-0.01200771712786053</v>
+      </c>
+      <c r="D157">
+        <v>26.68774012519086</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
+        <v>44718.6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>-0.001622975926724557</v>
+      </c>
+      <c r="D158">
+        <v>27.91876513436516</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
+        <v>44719.41111111111</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>-0.0124970163503999</v>
+      </c>
+      <c r="D159">
+        <v>27.73903550936516</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
+        <v>44719.625</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>-0.005455354656482614</v>
+      </c>
+      <c r="D160">
+        <v>28.57379522811518</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
+        <v>44720.43958333333</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>-0.011766221017673</v>
+      </c>
+      <c r="D161">
+        <v>28.39611975082221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
+        <v>44720.625</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>-0.01919770733738746</v>
+      </c>
+      <c r="D162">
+        <v>27.41414094868507</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
+        <v>44721.42569444444</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>-0.01152954764500969</v>
+      </c>
+      <c r="D163">
+        <v>27.23613667519426</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
+        <v>44721.625</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>-0.0131993835376929</v>
+      </c>
+      <c r="D164">
+        <v>26.97652626294579</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
+        <v>44725.40416666667</v>
+      </c>
+      <c r="B165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>0.01135756276388589</v>
+      </c>
+      <c r="D165">
+        <v>26.92670799650981</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
+        <v>44725.625</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>0.01248849141935082</v>
+      </c>
+      <c r="D166">
+        <v>26.61137979374164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
+        <v>44726.55694444444</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>-0.01103493438669934</v>
+      </c>
+      <c r="D167">
+        <v>26.43438759056705</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
+        <v>44726.625</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>-0.01629873672893023</v>
+      </c>
+      <c r="D168">
+        <v>25.72594864241889</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
+        <v>44727.41180555556</v>
+      </c>
+      <c r="B169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>0.01127403236992397</v>
+      </c>
+      <c r="D169">
+        <v>25.67599938974185</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
+        <v>44727.46875</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>0.001676048381245909</v>
+      </c>
+      <c r="D170">
+        <v>26.70420459285068</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
+        <v>44729.39583333334</v>
+      </c>
+      <c r="B171" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>0.01220139350299243</v>
+      </c>
+      <c r="D171">
+        <v>26.65353601857246</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
+        <v>44729.39652777778</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>-0.0009644698849504696</v>
+      </c>
+      <c r="D172">
+        <v>28.15442762487167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
+        <v>44732.41805555556</v>
+      </c>
+      <c r="B173" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>0.01245003237385989</v>
+      </c>
+      <c r="D173">
+        <v>28.10384754819045</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
+        <v>44732.425</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>0.0003163662510959897</v>
+      </c>
+      <c r="D174">
+        <v>29.47963753980618</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
+        <v>44733.61041666667</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>-0.01128287301267294</v>
+      </c>
+      <c r="D175">
+        <v>29.30138936812476</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
+        <v>44733.625</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>-0.01113633045763263</v>
+      </c>
+      <c r="D176">
+        <v>29.26936270440796</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
+        <v>44734.46180555555</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>0.01114022566050621</v>
+      </c>
+      <c r="D177">
+        <v>29.21908502695437</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
+        <v>44734.625</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>0.006952825272107277</v>
+      </c>
+      <c r="D178">
+        <v>29.5724477643549</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
+        <v>44735.47708333333</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>-0.01134468721014126</v>
+      </c>
+      <c r="D179">
+        <v>29.39462473854845</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
+        <v>44735.625</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>-0.03157414087281118</v>
+      </c>
+      <c r="D180">
+        <v>26.81090252349469</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
+        <v>44736.39652777778</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>0.01156723894068534</v>
+      </c>
+      <c r="D181">
+        <v>26.76062568432658</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
+        <v>44736.625</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>0.01798176093186221</v>
+      </c>
+      <c r="D182">
+        <v>25.78135309819141</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
+        <v>44739.42708333334</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>-0.01109271423153468</v>
+      </c>
+      <c r="D183">
+        <v>25.59915798092585</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
+        <v>44739.44027777778</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>-0.0001991624080757148</v>
+      </c>
+      <c r="D184">
+        <v>26.9237259015218</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
+        <v>44740.60972222222</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>-0.01140485319781814</v>
+      </c>
+      <c r="D185">
+        <v>26.74104077052266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
+        <v>44740.625</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186">
+        <v>-0.007406676333589601</v>
+      </c>
+      <c r="D186">
+        <v>27.20425305882328</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_trade.xlsx
+++ b/tmp_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="6">
   <si>
     <t>signal</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,282 +422,534 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44558.57986111111</v>
+        <v>44722.39583333334</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.02983358708214012</v>
+        <v>0.4066012727130643</v>
       </c>
       <c r="D3">
-        <v>-0.3622218855761483</v>
+        <v>-0.1173854975000097</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44558.625</v>
+        <v>44722.625</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01709968866221145</v>
+        <v>0.3937769966675907</v>
       </c>
       <c r="D4">
-        <v>1.068973708299747</v>
+        <v>4.291740224705877</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44587.4</v>
+        <v>44725.40763888889</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0.03039414830173204</v>
+        <v>-0.02470018610681812</v>
       </c>
       <c r="D5">
-        <v>0.7169025787660726</v>
+        <v>3.74516261291317</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44587.625</v>
+        <v>44725.625</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.02509394788892771</v>
+        <v>-0.01607814327494661</v>
       </c>
       <c r="D6">
-        <v>1.006006882738411</v>
+        <v>6.827346579560038</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44601.61388888889</v>
+        <v>44728.45277777778</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-0.02911234645386873</v>
+        <v>0.02492735520626344</v>
       </c>
       <c r="D7">
-        <v>0.4819839616857724</v>
+        <v>6.669868020722806</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44601.625</v>
+        <v>44728.45763888889</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-0.02666786215965811</v>
+        <v>-0.00521310268062436</v>
       </c>
       <c r="D8">
-        <v>0.4721998213349</v>
+        <v>17.5120145193274</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44606.61875</v>
+        <v>44732.39583333334</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-0.03564777951431453</v>
+        <v>-0.03365524231595751</v>
       </c>
       <c r="D9">
-        <v>-0.03345597091572117</v>
+        <v>16.9794731082675</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44606.625</v>
+        <v>44732.625</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>-0.03383130076954144</v>
+        <v>-0.04395492758828501</v>
       </c>
       <c r="D10">
-        <v>-0.1113065430509279</v>
+        <v>12.93314404467308</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44617.42291666667</v>
+        <v>44733.39722222222</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.02963749836979623</v>
+        <v>0.02419338787256042</v>
       </c>
       <c r="D11">
-        <v>-0.4648759987886204</v>
+        <v>12.78857527339282</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44617.625</v>
+        <v>44733.625</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.01029335868834624</v>
+        <v>0.04077550518392548</v>
       </c>
       <c r="D12">
-        <v>1.881081081539246</v>
+        <v>6.296034802112599</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44627.57291666666</v>
+        <v>44734.40833333333</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>-0.04241822535032591</v>
+        <v>0.02623247327652889</v>
       </c>
       <c r="D13">
-        <v>1.39727846526972</v>
+        <v>6.148380259137895</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44627.625</v>
+        <v>44734.625</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>-0.0268197383724128</v>
+        <v>0.03116029460260117</v>
       </c>
       <c r="D14">
-        <v>3.317342507997782</v>
+        <v>3.8278433055811</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>44635.60277777778</v>
+        <v>44735.41527777778</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.02955665024630538</v>
+        <v>0.0254735045173875</v>
       </c>
       <c r="D15">
-        <v>3.005582507997779</v>
+        <v>3.674916662898172</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>44635.625</v>
+        <v>44735.41875</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.05143220437943585</v>
+        <v>-0.006645404142791467</v>
       </c>
       <c r="D16">
-        <v>-0.4027819625904571</v>
+        <v>14.95390331899562</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>44636.57291666666</v>
+        <v>44739.39722222222</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17">
-        <v>-0.02934635283407527</v>
+        <v>-0.02301322195433009</v>
       </c>
       <c r="D17">
-        <v>-0.8586016872558591</v>
+        <v>14.40602111899563</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>44636.60833333333</v>
+        <v>44739.43680555555</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.002963743608997316</v>
+        <v>0.001628866298730491</v>
       </c>
       <c r="D18">
-        <v>3.076689134923878</v>
+        <v>23.79694051899567</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44678.4</v>
+        <v>44740.425</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.03055124449268742</v>
+        <v>-0.02483756952858718</v>
       </c>
       <c r="D19">
-        <v>2.771114572072086</v>
+        <v>23.22285425261404</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44678.625</v>
+        <v>44740.55972222222</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.007793811075729407</v>
+        <v>0.01846815537517155</v>
       </c>
       <c r="D20">
-        <v>5.247323482015809</v>
+        <v>40.11638558580486</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44694.43125</v>
+        <v>44741.42847222222</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.03232238674429655</v>
+        <v>-0.02444113750608257</v>
       </c>
       <c r="D21">
-        <v>4.920751855584097</v>
+        <v>39.52139279420484</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44694.625</v>
+        <v>44741.625</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.005854056913819239</v>
+        <v>-0.01810289964400547</v>
       </c>
       <c r="D22">
-        <v>7.993618096993766</v>
+        <v>42.07969765150477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>44742.43125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0.02855245780249693</v>
+      </c>
+      <c r="D23">
+        <v>41.91386359089243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>44742.625</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0.003248014745991679</v>
+      </c>
+      <c r="D24">
+        <v>51.61909001331077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>44747.46666666667</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>0.02379282051148945</v>
+      </c>
+      <c r="D25">
+        <v>51.46244355260789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>44747.625</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>0.02453092177975758</v>
+      </c>
+      <c r="D26">
+        <v>50.62126850532356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>44748.41597222222</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>0.02437324046818845</v>
+      </c>
+      <c r="D27">
+        <v>50.45241384116643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>44748.42152777778</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>-0.006006764188140279</v>
+      </c>
+      <c r="D28">
+        <v>61.991246132383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>44753.47569444445</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>-0.02500219075549182</v>
+      </c>
+      <c r="D29">
+        <v>61.43723489895984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>44753.625</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>-0.03454955118653924</v>
+      </c>
+      <c r="D30">
+        <v>57.52515122780086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>44754.60625</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>0.02428223421335363</v>
+      </c>
+      <c r="D31">
+        <v>57.37285168440462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>44754.625</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>0.01659624894876399</v>
+      </c>
+      <c r="D32">
+        <v>59.84185240767508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>44756.62222222222</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>0.02679749468929915</v>
+      </c>
+      <c r="D33">
+        <v>59.68912122393527</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
+        <v>44756.625</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>0.02734468333643048</v>
+      </c>
+      <c r="D34">
+        <v>58.94884447596776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>44757.40902777778</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>0.0247777777777779</v>
+      </c>
+      <c r="D35">
+        <v>58.79625467596775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
+        <v>44757.43402777778</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>-0.003490956072351503</v>
+      </c>
+      <c r="D36">
+        <v>69.18840387596782</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
+        <v>44767.60416666666</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>0.02310048966426947</v>
+      </c>
+      <c r="D37">
+        <v>69.03849865129472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
+        <v>44767.625</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>0.02561761197971835</v>
+      </c>
+      <c r="D38">
+        <v>67.55444224651932</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
+        <v>44770.40208333333</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>0.03607489655975038</v>
+      </c>
+      <c r="D39">
+        <v>67.38737875363718</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
+        <v>44770.41875</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>-0.001682028807076019</v>
+      </c>
+      <c r="D40">
+        <v>81.2071304948274</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_trade.xlsx
+++ b/tmp_trade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="6">
   <si>
     <t>signal</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,534 +422,2326 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44722.39583333334</v>
+        <v>44550.43333333333</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.4066012727130643</v>
+        <v>0.01310319110943037</v>
       </c>
       <c r="D3">
-        <v>-0.1173854975000097</v>
+        <v>-0.06473021533161072</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44722.625</v>
+        <v>44550.475</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.3937769966675907</v>
+        <v>0.001822703304552364</v>
       </c>
       <c r="D4">
-        <v>4.291740224705877</v>
+        <v>1.560158492678708</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44725.40763888889</v>
+        <v>44558.59444444445</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-0.02470018610681812</v>
+        <v>-0.01307960199004976</v>
       </c>
       <c r="D5">
-        <v>3.74516261291317</v>
+        <v>1.33305785267871</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44725.625</v>
+        <v>44558.625</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>-0.01607814327494661</v>
+        <v>-0.01565257048092872</v>
       </c>
       <c r="D6">
-        <v>6.827346579560038</v>
+        <v>0.8545931326786712</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44728.45277777778</v>
+        <v>44566.41388888889</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.02492735520626344</v>
+        <v>0.01666630225073673</v>
       </c>
       <c r="D7">
-        <v>6.669868020722806</v>
+        <v>0.7873017873487673</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44728.45763888889</v>
+        <v>44566.625</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-0.00521310268062436</v>
+        <v>0.03117916665365172</v>
       </c>
       <c r="D8">
-        <v>17.5120145193274</v>
+        <v>-1.83258718437357</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44732.39583333334</v>
+        <v>44567.39791666667</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>-0.03365524231595751</v>
+        <v>-0.01660874553750635</v>
       </c>
       <c r="D9">
-        <v>16.9794731082675</v>
+        <v>-2.069865206691176</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44732.625</v>
+        <v>44567.625</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>-0.04395492758828501</v>
+        <v>-0.01564364385154171</v>
       </c>
       <c r="D10">
-        <v>12.93314404467308</v>
+        <v>-1.974974889094617</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44733.39722222222</v>
+        <v>44568.55833333333</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.02419338787256042</v>
+        <v>0.01380393936411162</v>
       </c>
       <c r="D11">
-        <v>12.78857527339282</v>
+        <v>-2.043904754527762</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44733.625</v>
+        <v>44568.60833333333</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.04077550518392548</v>
+        <v>0.001120317139697624</v>
       </c>
       <c r="D12">
-        <v>6.296034802112599</v>
+        <v>-0.1226553913654504</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44734.40833333333</v>
+        <v>44572.61180555556</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.02623247327652889</v>
+        <v>-0.01317388301617683</v>
       </c>
       <c r="D13">
-        <v>6.148380259137895</v>
+        <v>-0.3585820911160651</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44734.625</v>
+        <v>44572.625</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>0.03116029460260117</v>
+        <v>-0.006562560348746471</v>
       </c>
       <c r="D14">
-        <v>3.8278433055811</v>
+        <v>0.7110603354841131</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>44735.41527777778</v>
+        <v>44574.43263888889</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>0.0254735045173875</v>
+        <v>-0.01459994986231861</v>
       </c>
       <c r="D15">
-        <v>3.674916662898172</v>
+        <v>0.4707151741395825</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>44735.41875</v>
+        <v>44574.625</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>-0.006645404142791467</v>
+        <v>-0.01330862109297681</v>
       </c>
       <c r="D16">
-        <v>14.95390331899562</v>
+        <v>0.6232149153160504</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>44739.39722222222</v>
+        <v>44575.55833333333</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>-0.02301322195433009</v>
+        <v>0.01316199517509831</v>
       </c>
       <c r="D17">
-        <v>14.40602111899563</v>
+        <v>0.5573088951140348</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>44739.43680555555</v>
+        <v>44575.625</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>0.001628866298730491</v>
+        <v>0.01309451473239442</v>
       </c>
       <c r="D18">
-        <v>23.79694051899567</v>
+        <v>0.3388771442722692</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44740.425</v>
+        <v>44579.58958333333</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19">
-        <v>-0.02483756952858718</v>
+        <v>-0.01325097380509443</v>
       </c>
       <c r="D19">
-        <v>23.22285425261404</v>
+        <v>0.1067759442722602</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44740.55972222222</v>
+        <v>44579.625</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
-        <v>0.01846815537517155</v>
+        <v>-0.015220868931479</v>
       </c>
       <c r="D20">
-        <v>40.11638558580486</v>
+        <v>-0.2865320464254049</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44741.42847222222</v>
+        <v>44581.60277777778</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>-0.02444113750608257</v>
+        <v>0.01590335200979132</v>
       </c>
       <c r="D21">
-        <v>39.52139279420484</v>
+        <v>-0.354882961875322</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44741.625</v>
+        <v>44581.62152777778</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>-0.01810289964400547</v>
+        <v>0.001780782792483615</v>
       </c>
       <c r="D22">
-        <v>42.07969765150477</v>
+        <v>1.762016173269003</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44742.43125</v>
+        <v>44586.41388888889</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.02855245780249693</v>
+        <v>0.01556988005484206</v>
       </c>
       <c r="D23">
-        <v>41.91386359089243</v>
+        <v>1.695664019109397</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44742.625</v>
+        <v>44586.625</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>0.003248014745991679</v>
+        <v>0.03344706115865737</v>
       </c>
       <c r="D24">
-        <v>51.61909001331077</v>
+        <v>-1.569242841332028</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44747.46666666667</v>
+        <v>44587.42291666667</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.02379282051148945</v>
+        <v>0.01463278261100931</v>
       </c>
       <c r="D25">
-        <v>51.46244355260789</v>
+        <v>-1.637151043114558</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44747.625</v>
+        <v>44587.425</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
-        <v>0.02453092177975758</v>
+        <v>0.001814872163248049</v>
       </c>
       <c r="D26">
-        <v>50.62126850532356</v>
+        <v>0.273825146190276</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44748.41597222222</v>
+        <v>44588.39583333334</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.02437324046818845</v>
+        <v>0.02161588609382548</v>
       </c>
       <c r="D27">
-        <v>50.45241384116643</v>
+        <v>0.2075160722079614</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44748.42152777778</v>
+        <v>44588.625</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.006006764188140279</v>
+        <v>0.00939183708613478</v>
       </c>
       <c r="D28">
-        <v>61.991246132383</v>
+        <v>2.023218386190271</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44753.47569444445</v>
+        <v>44589.42638888889</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29">
-        <v>-0.02500219075549182</v>
+        <v>-0.01401743096218133</v>
       </c>
       <c r="D29">
-        <v>61.43723489895984</v>
+        <v>1.791915345318345</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44753.625</v>
+        <v>44589.625</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>-0.03454955118653924</v>
+        <v>-0.00877511187674096</v>
       </c>
       <c r="D30">
-        <v>57.52515122780086</v>
+        <v>2.588108133692542</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44754.60625</v>
+        <v>44599.46597222222</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>0.02428223421335363</v>
+        <v>-0.01341634888810272</v>
       </c>
       <c r="D31">
-        <v>57.37285168440462</v>
+        <v>2.354859726498299</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44754.625</v>
+        <v>44599.625</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>0.01659624894876399</v>
+        <v>-0.01628419668636683</v>
       </c>
       <c r="D32">
-        <v>59.84185240767508</v>
+        <v>1.816115192685336</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44756.62222222222</v>
+        <v>44602.55277777778</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0.02679749468929915</v>
+        <v>0.01423648266111766</v>
       </c>
       <c r="D33">
-        <v>59.68912122393527</v>
+        <v>1.749468603505589</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44756.625</v>
+        <v>44602.60902777778</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>0.02734468333643048</v>
+        <v>-8.167284338123082E-05</v>
       </c>
       <c r="D34">
-        <v>58.94884447596776</v>
+        <v>3.869515650276971</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44757.40902777778</v>
+        <v>44603.58680555555</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.0247777777777779</v>
+        <v>0.01340866787629813</v>
       </c>
       <c r="D35">
-        <v>58.79625467596775</v>
+        <v>3.801962845441056</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44757.43402777778</v>
+        <v>44603.59930555556</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>-0.003490956072351503</v>
+        <v>9.570000013670033E-05</v>
       </c>
       <c r="D36">
-        <v>69.18840387596782</v>
+        <v>5.786099266857296</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44767.60416666666</v>
+        <v>44606.40347222222</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.02310048966426947</v>
+        <v>-0.0139491385321846</v>
       </c>
       <c r="D37">
-        <v>69.03849865129472</v>
+        <v>5.549399864286597</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44767.625</v>
+        <v>44606.625</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>0.02561761197971835</v>
+        <v>-0.041731550056327</v>
       </c>
       <c r="D38">
-        <v>67.55444224651932</v>
+        <v>0.768842659830694</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44770.40208333333</v>
+        <v>44607.40486111111</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>0.03607489655975038</v>
+        <v>-0.01461930359830144</v>
       </c>
       <c r="D39">
-        <v>67.38737875363718</v>
+        <v>0.5475845332965421</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44770.41875</v>
+        <v>44607.625</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40">
-        <v>-0.001682028807076019</v>
+        <v>-0.03688867357733938</v>
       </c>
       <c r="D40">
-        <v>81.2071304948274</v>
+        <v>-3.105492835242772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
+        <v>44613.43958333333</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>0.01860439174478135</v>
+      </c>
+      <c r="D41">
+        <v>-3.170032028346233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
+        <v>44613.44583333333</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>-0.003262404421132903</v>
+      </c>
+      <c r="D42">
+        <v>-0.02866663248420709</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
+        <v>44616.54236111111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0.01349508847715097</v>
+      </c>
+      <c r="D43">
+        <v>-0.09245196053700822</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
+        <v>44616.625</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0.004399448645921011</v>
+      </c>
+      <c r="D44">
+        <v>1.149537933852463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <v>44617.42638888889</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>0.01487689277692517</v>
+      </c>
+      <c r="D45">
+        <v>1.084737283474623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
+        <v>44617.46527777778</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>0.0003491270792119749</v>
+      </c>
+      <c r="D46">
+        <v>3.167250969620696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
+        <v>44620.39583333334</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>0.02305003224087487</v>
+      </c>
+      <c r="D47">
+        <v>3.099995725710188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
+        <v>44620.40208333333</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>0.001108778756057971</v>
+      </c>
+      <c r="D48">
+        <v>6.408881982545326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
+        <v>44621.45347222222</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>0.01331204122085394</v>
+      </c>
+      <c r="D49">
+        <v>6.342915914626957</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
+        <v>44621.57222222222</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>0.00198444567806344</v>
+      </c>
+      <c r="D50">
+        <v>8.008896401810603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>44622.44444444445</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>0.01426695376556164</v>
+      </c>
+      <c r="D51">
+        <v>7.942813952641167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>44622.46597222222</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>0.0003786250587520801</v>
+      </c>
+      <c r="D52">
+        <v>10.00817867024915</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
+        <v>44623.42430555556</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>0.0161402336552674</v>
+      </c>
+      <c r="D53">
+        <v>9.939436965298656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
+        <v>44623.42986111111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.001748841430516235</v>
+      </c>
+      <c r="D54">
+        <v>12.09260595143727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
+        <v>44624.39722222222</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>-0.01355222725630234</v>
+      </c>
+      <c r="D55">
+        <v>11.85697818482359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>44624.47847222222</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>-0.00188463082948398</v>
+      </c>
+      <c r="D56">
+        <v>13.78052860421947</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>44627.39652777778</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>0.01499729351199941</v>
+      </c>
+      <c r="D57">
+        <v>13.71287811328146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
+        <v>44627.54166666666</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>0.001176934287228426</v>
+      </c>
+      <c r="D58">
+        <v>15.80245033299526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
+        <v>44628.45625</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>-0.0147664988777152</v>
+      </c>
+      <c r="D59">
+        <v>15.57596416170571</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>44628.47152777778</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>-0.001669341102083055</v>
+      </c>
+      <c r="D60">
+        <v>17.65808326211119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
+        <v>44629.39930555555</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>-0.01355277869367444</v>
+      </c>
+      <c r="D61">
+        <v>17.4371331224822</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
+        <v>44629.57222222222</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>-0.001385590552990923</v>
+      </c>
+      <c r="D62">
+        <v>19.28473967155472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <v>44630.40069444444</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>0.01364936042136944</v>
+      </c>
+      <c r="D63">
+        <v>19.22188293822138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
+        <v>44630.625</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>0.03461087821132935</v>
+      </c>
+      <c r="D64">
+        <v>15.75401810488805</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
+        <v>44631.40972222222</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>-0.01345427442153779</v>
+      </c>
+      <c r="D65">
+        <v>15.53191233326868</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
+        <v>44631.575</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>-0.000532643880611916</v>
+      </c>
+      <c r="D66">
+        <v>17.53827777600659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>44634.54375</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>0.0207220709612429</v>
+      </c>
+      <c r="D67">
+        <v>17.47608311214105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
+        <v>44634.58333333334</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>0.001525020799870047</v>
+      </c>
+      <c r="D68">
+        <v>20.27486852222507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
+        <v>44635.39583333334</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>0.01324100596049205</v>
+      </c>
+      <c r="D69">
+        <v>20.21425743651078</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
+        <v>44635.40069444444</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>0.0014646310149522</v>
+      </c>
+      <c r="D70">
+        <v>21.81798543651081</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
+        <v>44636.45416666667</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>-0.01409413397099579</v>
+      </c>
+      <c r="D71">
+        <v>21.61200249190114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
+        <v>44636.46666666667</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>-0.0008130411480008481</v>
+      </c>
+      <c r="D72">
+        <v>23.54343935714278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
+        <v>44637.41875</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>0.01317411950112368</v>
+      </c>
+      <c r="D73">
+        <v>23.48218104775353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
+        <v>44637.47708333333</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>0.00170701437710008</v>
+      </c>
+      <c r="D74">
+        <v>24.98194954292218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
+        <v>44638.40277777778</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>0.01647650375939835</v>
+      </c>
+      <c r="D75">
+        <v>24.92037722863645</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
+        <v>44638.43472222222</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>0.001980263157894679</v>
+      </c>
+      <c r="D76">
+        <v>26.90961560006501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
+        <v>44641.45416666667</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>-0.01427772728241883</v>
+      </c>
+      <c r="D77">
+        <v>26.69029446956103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>44641.56041666667</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>-0.001013760186570289</v>
+      </c>
+      <c r="D78">
+        <v>28.6772237533807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
+        <v>44644.57083333333</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>-0.01316957194140711</v>
+      </c>
+      <c r="D79">
+        <v>28.46058837381738</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
+        <v>44644.625</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>-0.009717683241014741</v>
+      </c>
+      <c r="D80">
+        <v>28.9348760150401</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
+        <v>44645.47847222222</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>-0.01333615213822059</v>
+      </c>
+      <c r="D81">
+        <v>28.72092649894511</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
+        <v>44645.625</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>-0.01465288565062584</v>
+      </c>
+      <c r="D82">
+        <v>28.45981875048426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
+        <v>44649.46111111111</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>-0.01320537301376024</v>
+      </c>
+      <c r="D83">
+        <v>28.25045744878328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
+        <v>44649.59305555555</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>-0.0004191646961761997</v>
+      </c>
+      <c r="D84">
+        <v>30.09292334099452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
+        <v>44650.41111111111</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>0.01516139068211864</v>
+      </c>
+      <c r="D85">
+        <v>30.03197466657593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
+        <v>44650.45416666667</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>0.0007956755075055888</v>
+      </c>
+      <c r="D86">
+        <v>31.96901482936663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
+        <v>44652.45277777778</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>0.01391959035553847</v>
+      </c>
+      <c r="D87">
+        <v>31.9069231819982</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
+        <v>44652.625</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>0.03100197847502018</v>
+      </c>
+      <c r="D88">
+        <v>29.08571251884031</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
+        <v>44657.45347222222</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>-0.01404030366935793</v>
+      </c>
+      <c r="D89">
+        <v>28.85697345863268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
+        <v>44657.625</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>-0.03904914181225194</v>
+      </c>
+      <c r="D90">
+        <v>24.80834652005137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
+        <v>44659.57013888889</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>0.05234397884031061</v>
+      </c>
+      <c r="D91">
+        <v>24.74321967911177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
+        <v>44659.625</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>0.01057407353258766</v>
+      </c>
+      <c r="D92">
+        <v>31.07821983750103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
+        <v>44662.43472222222</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>-0.01324461803133847</v>
+      </c>
+      <c r="D93">
+        <v>30.85226812406819</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
+        <v>44662.59652777778</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>0.0002014847878986092</v>
+      </c>
+      <c r="D94">
+        <v>32.94637409421745</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
+        <v>44663.46388888889</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>-0.0134626129154064</v>
+      </c>
+      <c r="D95">
+        <v>32.71868294842929</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
+        <v>44663.625</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>-0.01867339698504988</v>
+      </c>
+      <c r="D96">
+        <v>31.81578193358358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
+        <v>44666.40694444445</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>0.01410438952401039</v>
+      </c>
+      <c r="D97">
+        <v>31.75256749689525</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
+        <v>44666.625</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>0.01881056212407772</v>
+      </c>
+      <c r="D98">
+        <v>30.78480357676539</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
+        <v>44669.45416666667</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>-0.0136210616777579</v>
+      </c>
+      <c r="D99">
+        <v>30.55928060528917</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
+        <v>44669.625</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>-0.01348369143243455</v>
+      </c>
+      <c r="D100">
+        <v>30.51697235207814</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
+        <v>44671.4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>0.01332079009114828</v>
+      </c>
+      <c r="D101">
+        <v>30.45246419761314</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
+        <v>44671.625</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0.01252861940647698</v>
+      </c>
+      <c r="D102">
+        <v>30.36026496639834</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
+        <v>44673.55416666667</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>-0.01482425884555005</v>
+      </c>
+      <c r="D103">
+        <v>30.13935423385397</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
+        <v>44673.625</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>-0.02437258483274973</v>
+      </c>
+      <c r="D104">
+        <v>28.57947879480071</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
+        <v>44676.39861111111</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>0.01333623810701134</v>
+      </c>
+      <c r="D105">
+        <v>28.51873617541892</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
+        <v>44676.44027777778</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>0.001977955769894568</v>
+      </c>
+      <c r="D106">
+        <v>30.06635056856847</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
+        <v>44677.39652777778</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107">
+        <v>-0.01302805951583585</v>
+      </c>
+      <c r="D107">
+        <v>29.85827946142562</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
+        <v>44677.39791666667</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>-0.0001873026504641828</v>
+      </c>
+      <c r="D108">
+        <v>31.71622326856847</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
+        <v>44678.42152777778</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>0.02674450922931082</v>
+      </c>
+      <c r="D109">
+        <v>31.65372748519091</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
+        <v>44678.42361111111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>0.0005228727035149205</v>
+      </c>
+      <c r="D110">
+        <v>35.35100993788768</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
+        <v>44679.39583333334</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>0.01431524207917723</v>
+      </c>
+      <c r="D111">
+        <v>35.28924381454867</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
+        <v>44679.4625</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>4.578334602678424E-05</v>
+      </c>
+      <c r="D112">
+        <v>37.25333977332209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
+        <v>44680.43055555555</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>-0.015689093972582</v>
+      </c>
+      <c r="D113">
+        <v>37.03204742875597</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
+        <v>44680.58680555555</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0.003331546297005383</v>
+      </c>
+      <c r="D114">
+        <v>39.89692864189835</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
+        <v>44686.41944444444</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>0.01351499446925319</v>
+      </c>
+      <c r="D115">
+        <v>39.83263706722302</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
+        <v>44686.55486111111</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>0.001103506903191498</v>
+      </c>
+      <c r="D116">
+        <v>41.57486093345681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
+        <v>44687.40833333333</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>0.01327375244044393</v>
+      </c>
+      <c r="D117">
+        <v>41.51156550320742</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
+        <v>44687.43333333333</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0.0008093413515671832</v>
+      </c>
+      <c r="D118">
+        <v>43.29007098896769</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
+        <v>44690.39583333334</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>0.01436909385113272</v>
+      </c>
+      <c r="D119">
+        <v>43.22400599997093</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
+        <v>44690.40694444445</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>-0.0002674352750811071</v>
+      </c>
+      <c r="D120">
+        <v>45.33026051259231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
+        <v>44691.39583333334</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>0.01845975126417931</v>
+      </c>
+      <c r="D121">
+        <v>45.26522242370341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
+        <v>44691.625</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>0.01003086419753096</v>
+      </c>
+      <c r="D122">
+        <v>46.4100766829627</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
+        <v>44692.39722222222</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>0.0152756694363515</v>
+      </c>
+      <c r="D123">
+        <v>46.34590864773275</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
+        <v>44692.59097222222</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>0.001648523266214896</v>
+      </c>
+      <c r="D124">
+        <v>48.33061787485666</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
+        <v>44693.45833333334</v>
+      </c>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>0.01436320061942309</v>
+      </c>
+      <c r="D125">
+        <v>48.26458385607733</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
+        <v>44693.625</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>0.01250263143076125</v>
+      </c>
+      <c r="D126">
+        <v>48.33798343917596</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
+        <v>44697.44097222222</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>0.01416932715246033</v>
+      </c>
+      <c r="D127">
+        <v>48.27193706650515</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
+        <v>44697.625</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>0.01293873320840777</v>
+      </c>
+      <c r="D128">
+        <v>48.24825754911385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
+        <v>44698.47777777778</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>-0.01319027163499631</v>
+      </c>
+      <c r="D129">
+        <v>48.01596009867769</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
+        <v>44698.59236111111</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>-0.00191171760289377</v>
+      </c>
+      <c r="D130">
+        <v>49.80661103063645</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
+        <v>44699.61041666667</v>
+      </c>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>0.01300145495034011</v>
+      </c>
+      <c r="D131">
+        <v>49.7410818988535</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
+        <v>44699.625</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>0.01367012392808542</v>
+      </c>
+      <c r="D132">
+        <v>49.40270581668295</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
+        <v>44701.40694444445</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>0.01349501034920819</v>
+      </c>
+      <c r="D133">
+        <v>49.33650029331253</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
+        <v>44701.625</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>0.009361579431278355</v>
+      </c>
+      <c r="D134">
+        <v>49.78085180460027</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
+        <v>44705.41180555556</v>
+      </c>
+      <c r="B135" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>0.01564532584299827</v>
+      </c>
+      <c r="D135">
+        <v>49.71718689829979</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
+        <v>44705.54236111111</v>
+      </c>
+      <c r="B136" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>0.000312523206301929</v>
+      </c>
+      <c r="D136">
+        <v>51.97442423691045</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
+        <v>44706.58958333333</v>
+      </c>
+      <c r="B137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>0.01390342586496185</v>
+      </c>
+      <c r="D137">
+        <v>51.91131527289373</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
+        <v>44706.625</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>0.00839581165176384</v>
+      </c>
+      <c r="D138">
+        <v>52.55970308879331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
+        <v>44707.42152777778</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>0.02301295656991864</v>
+      </c>
+      <c r="D139">
+        <v>52.49503109822091</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
+        <v>44707.60416666666</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>0.0008548778928527678</v>
+      </c>
+      <c r="D140">
+        <v>55.7708704140458</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
+        <v>44708.44236111111</v>
+      </c>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>0.01316130261683113</v>
+      </c>
+      <c r="D141">
+        <v>55.70719073444216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
+        <v>44708.59027777778</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>0.001391908948780052</v>
+      </c>
+      <c r="D142">
+        <v>57.38260564459902</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
+        <v>44712.5625</v>
+      </c>
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>0.02377358096828042</v>
+      </c>
+      <c r="D143">
+        <v>57.31715039919</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
+        <v>44712.625</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>0.00446385642737912</v>
+      </c>
+      <c r="D144">
+        <v>60.17994578616828</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
+        <v>44714.4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>0.01320458107789102</v>
+      </c>
+      <c r="D145">
+        <v>60.11571667178811</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
+        <v>44714.45763888889</v>
+      </c>
+      <c r="B146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>0.001944428807836518</v>
+      </c>
+      <c r="D146">
+        <v>61.71116162914345</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
+        <v>44718.40208333333</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>0.01475456468681613</v>
+      </c>
+      <c r="D147">
+        <v>61.64624175743292</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
+        <v>44718.44166666667</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>0.00161883833997245</v>
+      </c>
+      <c r="D148">
+        <v>63.55527578440662</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
+        <v>44719.6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>-0.01301591942820002</v>
+      </c>
+      <c r="D149">
+        <v>63.3259132896698</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
+        <v>44719.625</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>-0.01165651397011058</v>
+      </c>
+      <c r="D150">
+        <v>63.48091530282769</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
+        <v>44720.60138888889</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>0.01706036373192066</v>
+      </c>
+      <c r="D151">
+        <v>63.41625563394061</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
+        <v>44720.62152777778</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>0.001021019465025086</v>
+      </c>
+      <c r="D152">
+        <v>65.79088155400561</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
+        <v>44722.5625</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153">
+        <v>0.01993436172632523</v>
+      </c>
+      <c r="D153">
+        <v>65.72653265095532</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
+        <v>44722.61666666667</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>0.001741140762834714</v>
+      </c>
+      <c r="D154">
+        <v>68.41656596620675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
+        <v>44725.42569444444</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>0.0130163867847316</v>
+      </c>
+      <c r="D155">
+        <v>68.35258363353348</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
+        <v>44725.625</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>0.02045513376695018</v>
+      </c>
+      <c r="D156">
+        <v>66.93720532132224</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
+        <v>44726.4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>0.01311366334169894</v>
+      </c>
+      <c r="D157">
+        <v>66.87367002371131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
+        <v>44726.41597222222</v>
+      </c>
+      <c r="B158" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>0.0008627585335347909</v>
+      </c>
+      <c r="D158">
+        <v>68.59935332166353</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
+        <v>44727.62222222222</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159">
+        <v>0.01321018502698401</v>
+      </c>
+      <c r="D159">
+        <v>68.53684318567707</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
+        <v>44727.625</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>0.01081000306680535</v>
+      </c>
+      <c r="D160">
+        <v>68.69568067339929</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
+        <v>44728.39583333334</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161">
+        <v>-0.01554660845346345</v>
+      </c>
+      <c r="D161">
+        <v>68.46874684263007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
+        <v>44728.39930555555</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>0.0002777838891863116</v>
+      </c>
+      <c r="D162">
+        <v>70.89300675288648</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
+        <v>44729.39652777778</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>0.01521316253177385</v>
+      </c>
+      <c r="D163">
+        <v>70.82998995781257</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
+        <v>44729.54722222222</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>0.001950098989901505</v>
+      </c>
+      <c r="D164">
+        <v>72.71199421068613</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
+        <v>44735.60138888889</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>-0.01374113286600598</v>
+      </c>
+      <c r="D165">
+        <v>72.48875573657446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
+        <v>44735.625</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>-0.01596809282088452</v>
+      </c>
+      <c r="D166">
+        <v>72.07444654875722</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
+        <v>44739.55138888889</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>0.01403013179686652</v>
+      </c>
+      <c r="D167">
+        <v>72.01081035325721</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
+        <v>44739.625</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>0.007982832141429475</v>
+      </c>
+      <c r="D168">
+        <v>72.74237978025721</v>
       </c>
     </row>
   </sheetData>
